--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -5522,7 +5522,7 @@
   <dimension ref="A3:DW5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CB5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="CI5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="419">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1286,6 +1286,24 @@
   </si>
   <si>
     <t>EXCEDENTE M</t>
+  </si>
+  <si>
+    <t>PRO AGUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRO PRIMA VAC</t>
+  </si>
+  <si>
+    <t>PRO PRIMA ANTI</t>
+  </si>
+  <si>
+    <t>PRO INDEMNIZACION</t>
+  </si>
+  <si>
+    <t>2% SAR</t>
+  </si>
+  <si>
+    <t>VejezP</t>
   </si>
 </sst>
 </file>
@@ -3157,7 +3175,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3298,6 +3316,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -5522,10 +5541,10 @@
   <dimension ref="A3:DW5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CI5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="CR5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="CQ5" sqref="CQ5:CX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5636,12 +5655,12 @@
       <c r="CP3" s="37"/>
       <c r="CQ3" s="37"/>
       <c r="CR3" s="37"/>
-      <c r="CS3"/>
-      <c r="CT3"/>
-      <c r="CU3"/>
-      <c r="CV3"/>
-      <c r="CW3"/>
-      <c r="CX3"/>
+      <c r="CS3" s="72"/>
+      <c r="CT3" s="72"/>
+      <c r="CU3" s="72"/>
+      <c r="CV3" s="72"/>
+      <c r="CW3" s="72"/>
+      <c r="CX3" s="72"/>
       <c r="CY3"/>
       <c r="CZ3"/>
       <c r="DA3"/>
@@ -5955,6 +5974,24 @@
       <c r="CR4" s="58" t="s">
         <v>114</v>
       </c>
+      <c r="CS4" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT4" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="CU4" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="CV4" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="CW4" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="CX4" s="40" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="5" spans="1:127" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="62">
@@ -6243,6 +6280,24 @@
       </c>
       <c r="CR5" s="62">
         <v>96</v>
+      </c>
+      <c r="CS5" s="62">
+        <v>97</v>
+      </c>
+      <c r="CT5" s="62">
+        <v>98</v>
+      </c>
+      <c r="CU5" s="62">
+        <v>99</v>
+      </c>
+      <c r="CV5" s="62">
+        <v>100</v>
+      </c>
+      <c r="CW5" s="62">
+        <v>101</v>
+      </c>
+      <c r="CX5" s="62">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -1315,7 +1315,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1459,12 +1459,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3175,7 +3169,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3288,7 +3282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3316,7 +3310,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -5541,10 +5534,10 @@
   <dimension ref="A3:DW5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CR5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CQ5" sqref="CQ5:CX5"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5655,12 +5648,12 @@
       <c r="CP3" s="37"/>
       <c r="CQ3" s="37"/>
       <c r="CR3" s="37"/>
-      <c r="CS3" s="72"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="72"/>
-      <c r="CV3" s="72"/>
-      <c r="CW3" s="72"/>
-      <c r="CX3" s="72"/>
+      <c r="CS3" s="62"/>
+      <c r="CT3" s="62"/>
+      <c r="CU3" s="62"/>
+      <c r="CV3" s="62"/>
+      <c r="CW3" s="62"/>
+      <c r="CX3" s="62"/>
       <c r="CY3"/>
       <c r="CZ3"/>
       <c r="DA3"/>
@@ -5993,310 +5986,310 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:127" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="62">
+    <row r="5" spans="1:127" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="60">
         <v>2</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="60">
         <v>3</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="60">
         <v>4</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="60">
         <v>5</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="60">
         <v>6</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="60">
         <v>7</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="60">
         <v>8</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="60">
         <v>9</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="60">
         <v>10</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="60">
         <v>11</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="60">
         <v>12</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="60">
         <v>13</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="60">
         <v>14</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="60">
         <v>15</v>
       </c>
-      <c r="P5" s="62">
+      <c r="P5" s="60">
         <v>16</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="60">
         <v>17</v>
       </c>
-      <c r="R5" s="62">
+      <c r="R5" s="60">
         <v>18</v>
       </c>
-      <c r="S5" s="62">
+      <c r="S5" s="60">
         <v>19</v>
       </c>
-      <c r="T5" s="62">
+      <c r="T5" s="60">
         <v>20</v>
       </c>
-      <c r="U5" s="62">
+      <c r="U5" s="60">
         <v>21</v>
       </c>
-      <c r="V5" s="62">
+      <c r="V5" s="60">
         <v>22</v>
       </c>
-      <c r="W5" s="62">
+      <c r="W5" s="60">
         <v>23</v>
       </c>
-      <c r="X5" s="62">
+      <c r="X5" s="60">
         <v>24</v>
       </c>
-      <c r="Y5" s="62">
+      <c r="Y5" s="60">
         <v>25</v>
       </c>
-      <c r="Z5" s="62">
+      <c r="Z5" s="60">
         <v>26</v>
       </c>
-      <c r="AA5" s="62">
+      <c r="AA5" s="60">
         <v>27</v>
       </c>
-      <c r="AB5" s="62">
+      <c r="AB5" s="60">
         <v>28</v>
       </c>
-      <c r="AC5" s="62">
+      <c r="AC5" s="60">
         <v>29</v>
       </c>
-      <c r="AD5" s="62">
+      <c r="AD5" s="60">
         <v>30</v>
       </c>
-      <c r="AE5" s="62">
+      <c r="AE5" s="60">
         <v>31</v>
       </c>
-      <c r="AF5" s="62">
+      <c r="AF5" s="60">
         <v>32</v>
       </c>
-      <c r="AG5" s="62">
+      <c r="AG5" s="60">
         <v>33</v>
       </c>
-      <c r="AH5" s="62">
+      <c r="AH5" s="60">
         <v>34</v>
       </c>
-      <c r="AI5" s="62">
+      <c r="AI5" s="60">
         <v>35</v>
       </c>
-      <c r="AJ5" s="62">
+      <c r="AJ5" s="60">
         <v>36</v>
       </c>
-      <c r="AK5" s="62">
+      <c r="AK5" s="60">
         <v>37</v>
       </c>
-      <c r="AL5" s="62">
+      <c r="AL5" s="60">
         <v>38</v>
       </c>
-      <c r="AM5" s="62">
+      <c r="AM5" s="60">
         <v>39</v>
       </c>
-      <c r="AN5" s="62">
+      <c r="AN5" s="60">
         <v>40</v>
       </c>
-      <c r="AO5" s="62">
+      <c r="AO5" s="60">
         <v>41</v>
       </c>
-      <c r="AP5" s="62">
+      <c r="AP5" s="60">
         <v>42</v>
       </c>
-      <c r="AQ5" s="62">
+      <c r="AQ5" s="60">
         <v>43</v>
       </c>
-      <c r="AR5" s="62">
+      <c r="AR5" s="60">
         <v>44</v>
       </c>
-      <c r="AS5" s="62">
+      <c r="AS5" s="60">
         <v>45</v>
       </c>
-      <c r="AT5" s="62">
+      <c r="AT5" s="60">
         <v>46</v>
       </c>
-      <c r="AU5" s="62">
+      <c r="AU5" s="60">
         <v>47</v>
       </c>
-      <c r="AV5" s="62">
+      <c r="AV5" s="60">
         <v>48</v>
       </c>
-      <c r="AW5" s="62">
+      <c r="AW5" s="60">
         <v>49</v>
       </c>
-      <c r="AX5" s="62">
+      <c r="AX5" s="60">
         <v>50</v>
       </c>
-      <c r="AY5" s="62">
+      <c r="AY5" s="60">
         <v>51</v>
       </c>
-      <c r="AZ5" s="62">
+      <c r="AZ5" s="60">
         <v>52</v>
       </c>
-      <c r="BA5" s="62">
+      <c r="BA5" s="60">
         <v>53</v>
       </c>
-      <c r="BB5" s="62">
+      <c r="BB5" s="60">
         <v>54</v>
       </c>
-      <c r="BC5" s="62">
+      <c r="BC5" s="60">
         <v>55</v>
       </c>
-      <c r="BD5" s="62">
+      <c r="BD5" s="60">
         <v>56</v>
       </c>
-      <c r="BE5" s="62">
+      <c r="BE5" s="60">
         <v>57</v>
       </c>
-      <c r="BF5" s="62">
+      <c r="BF5" s="60">
         <v>58</v>
       </c>
-      <c r="BG5" s="62">
+      <c r="BG5" s="60">
         <v>59</v>
       </c>
-      <c r="BH5" s="62">
+      <c r="BH5" s="60">
         <v>60</v>
       </c>
-      <c r="BI5" s="62">
+      <c r="BI5" s="60">
         <v>61</v>
       </c>
-      <c r="BJ5" s="62">
+      <c r="BJ5" s="60">
         <v>62</v>
       </c>
-      <c r="BK5" s="62">
+      <c r="BK5" s="60">
         <v>63</v>
       </c>
-      <c r="BL5" s="62">
+      <c r="BL5" s="60">
         <v>64</v>
       </c>
-      <c r="BM5" s="62">
+      <c r="BM5" s="60">
         <v>65</v>
       </c>
-      <c r="BN5" s="62">
+      <c r="BN5" s="60">
         <v>66</v>
       </c>
-      <c r="BO5" s="62">
+      <c r="BO5" s="60">
         <v>67</v>
       </c>
-      <c r="BP5" s="62">
+      <c r="BP5" s="60">
         <v>68</v>
       </c>
-      <c r="BQ5" s="62">
+      <c r="BQ5" s="60">
         <v>69</v>
       </c>
-      <c r="BR5" s="62">
+      <c r="BR5" s="60">
         <v>70</v>
       </c>
-      <c r="BS5" s="62">
+      <c r="BS5" s="60">
         <v>71</v>
       </c>
-      <c r="BT5" s="62">
+      <c r="BT5" s="60">
         <v>72</v>
       </c>
-      <c r="BU5" s="62">
+      <c r="BU5" s="60">
         <v>73</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" s="60">
         <v>74</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="60">
         <v>75</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" s="60">
         <v>76</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" s="60">
         <v>77</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" s="60">
         <v>78</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" s="60">
         <v>79</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" s="60">
         <v>80</v>
       </c>
-      <c r="CC5" s="62">
+      <c r="CC5" s="60">
         <v>81</v>
       </c>
-      <c r="CD5" s="62">
+      <c r="CD5" s="60">
         <v>82</v>
       </c>
-      <c r="CE5" s="62">
+      <c r="CE5" s="60">
         <v>83</v>
       </c>
-      <c r="CF5" s="62">
+      <c r="CF5" s="60">
         <v>84</v>
       </c>
-      <c r="CG5" s="62">
+      <c r="CG5" s="60">
         <f>+BW5+BY5+BZ5+CA5+CB5+CC5+CD5+CE5+CF5</f>
         <v>719</v>
       </c>
-      <c r="CH5" s="62">
+      <c r="CH5" s="60">
         <v>86</v>
       </c>
-      <c r="CI5" s="62">
+      <c r="CI5" s="60">
         <v>87</v>
       </c>
-      <c r="CJ5" s="62">
+      <c r="CJ5" s="60">
         <v>88</v>
       </c>
-      <c r="CK5" s="62">
+      <c r="CK5" s="60">
         <v>89</v>
       </c>
-      <c r="CL5" s="62">
+      <c r="CL5" s="60">
         <v>90</v>
       </c>
-      <c r="CM5" s="62">
+      <c r="CM5" s="60">
         <v>91</v>
       </c>
-      <c r="CN5" s="62">
+      <c r="CN5" s="60">
         <v>92</v>
       </c>
-      <c r="CO5" s="62">
+      <c r="CO5" s="60">
         <f>CN5+CK5+CL5+CM5</f>
         <v>362</v>
       </c>
-      <c r="CP5" s="62">
+      <c r="CP5" s="60">
         <v>94</v>
       </c>
-      <c r="CQ5" s="62">
+      <c r="CQ5" s="60">
         <v>95</v>
       </c>
-      <c r="CR5" s="62">
+      <c r="CR5" s="60">
         <v>96</v>
       </c>
-      <c r="CS5" s="62">
+      <c r="CS5" s="60">
         <v>97</v>
       </c>
-      <c r="CT5" s="62">
+      <c r="CT5" s="60">
         <v>98</v>
       </c>
-      <c r="CU5" s="62">
+      <c r="CU5" s="60">
         <v>99</v>
       </c>
-      <c r="CV5" s="62">
+      <c r="CV5" s="60">
         <v>100</v>
       </c>
-      <c r="CW5" s="62">
+      <c r="CW5" s="60">
         <v>101</v>
       </c>
-      <c r="CX5" s="62">
+      <c r="CX5" s="60">
         <v>102</v>
       </c>
     </row>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="418">
   <si>
     <t>TOTAL</t>
   </si>
@@ -301,21 +301,9 @@
     <t>ADEUDO INF EXCEDENTE</t>
   </si>
   <si>
-    <t>EXCEDENTE</t>
-  </si>
-  <si>
     <t>PRIMA EXCEDENTE</t>
   </si>
   <si>
-    <t>POR COMISION</t>
-  </si>
-  <si>
-    <t>COMISION A</t>
-  </si>
-  <si>
-    <t>COMISION B</t>
-  </si>
-  <si>
     <t>IMSS_CS</t>
   </si>
   <si>
@@ -337,27 +325,15 @@
     <t>SIND/PPP</t>
   </si>
   <si>
-    <t>PDE E</t>
-  </si>
-  <si>
     <t>TEG E</t>
   </si>
   <si>
     <t>TE3 E</t>
   </si>
   <si>
-    <t>DESCANSO LABORADO E</t>
-  </si>
-  <si>
-    <t>DIA FESTIVO E</t>
-  </si>
-  <si>
     <t>TOTAL PAGO EXCEDENTE</t>
   </si>
   <si>
-    <t>EXEDENTE MONTO</t>
-  </si>
-  <si>
     <t>CONCEPTO</t>
   </si>
   <si>
@@ -1279,9 +1255,6 @@
     <t>SA</t>
   </si>
   <si>
-    <t>EXCDENETE VARIABLE</t>
-  </si>
-  <si>
     <t>PENSION ALIMENTICA EXCEDENTE</t>
   </si>
   <si>
@@ -1303,7 +1276,31 @@
     <t>2% SAR</t>
   </si>
   <si>
-    <t>VejezP</t>
+    <t>EXCEDENTE SUB</t>
+  </si>
+  <si>
+    <t>TIPO SIND/PPP</t>
+  </si>
+  <si>
+    <t>EXCEDENTE VARIABLE</t>
+  </si>
+  <si>
+    <t>PRIMA DOMINICAL EXCEDENTE</t>
+  </si>
+  <si>
+    <t>DESCANSO LABORADO EXCE</t>
+  </si>
+  <si>
+    <t>DIA FESTIVO EXCE</t>
+  </si>
+  <si>
+    <t>COMISION BSS</t>
+  </si>
+  <si>
+    <t>EXCEDENTE MONTO</t>
+  </si>
+  <si>
+    <t>VEJEZ</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1312,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1461,8 +1458,15 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1545,6 +1549,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor rgb="FF538DD5"/>
       </patternFill>
     </fill>
   </fills>
@@ -3169,7 +3179,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3235,9 +3245,6 @@
     </xf>
     <xf numFmtId="43" fontId="11" fillId="2" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="16" fillId="2" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="19" fillId="7" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="19" fillId="6" borderId="0" xfId="1490" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3309,6 +3316,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1493">
@@ -5531,13 +5544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:DW5"/>
+  <dimension ref="A3:DU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="CT5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="CV4" sqref="CV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5555,13 +5568,14 @@
     <col min="13" max="13" width="28.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="71" max="71" width="15.42578125" customWidth="1"/>
+    <col min="81" max="81" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="14.85546875" customWidth="1"/>
     <col min="85" max="85" width="15.7109375" customWidth="1"/>
-    <col min="93" max="93" width="14" customWidth="1"/>
-    <col min="95" max="95" width="15.7109375" customWidth="1"/>
+    <col min="91" max="91" width="14" customWidth="1"/>
+    <col min="93" max="93" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:127" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:125" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
@@ -5646,14 +5660,14 @@
       <c r="CN3" s="37"/>
       <c r="CO3" s="37"/>
       <c r="CP3" s="37"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="37"/>
-      <c r="CS3" s="62"/>
-      <c r="CT3" s="62"/>
-      <c r="CU3" s="62"/>
-      <c r="CV3" s="62"/>
-      <c r="CW3" s="62"/>
-      <c r="CX3" s="62"/>
+      <c r="CQ3" s="61"/>
+      <c r="CR3" s="61"/>
+      <c r="CS3" s="61"/>
+      <c r="CT3" s="61"/>
+      <c r="CU3" s="61"/>
+      <c r="CV3" s="61"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
       <c r="CY3"/>
       <c r="CZ3"/>
       <c r="DA3"/>
@@ -5677,10 +5691,8 @@
       <c r="DS3"/>
       <c r="DT3"/>
       <c r="DU3"/>
-      <c r="DV3"/>
-      <c r="DW3"/>
-    </row>
-    <row r="4" spans="1:127" s="28" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:125" s="28" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="31" t="s">
         <v>31</v>
@@ -5860,7 +5872,7 @@
         <v>13</v>
       </c>
       <c r="BI4" s="31" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="BJ4" s="31" t="s">
         <v>75</v>
@@ -5889,408 +5901,396 @@
       <c r="BR4" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="BS4" s="39" t="s">
+      <c r="BS4" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="BT4" s="31" t="s">
+      <c r="BT4" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="BU4" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="BU4" s="31" t="s">
+      <c r="BV4" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BV4" s="31" t="s">
-        <v>410</v>
-      </c>
       <c r="BW4" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="BX4" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="BY4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BX4" s="31" t="s">
+      <c r="BZ4" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="CA4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB4" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC4" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="CD4" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="CE4" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="CF4" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="CG4" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="CH4" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="CI4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ4" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN4" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO4" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="CP4" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ4" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="CR4" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="CS4" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="CT4" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="CU4" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="CV4" s="39" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:125" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="59">
+        <v>2</v>
+      </c>
+      <c r="C5" s="59">
+        <v>3</v>
+      </c>
+      <c r="D5" s="59">
+        <v>4</v>
+      </c>
+      <c r="E5" s="59">
+        <v>5</v>
+      </c>
+      <c r="F5" s="59">
+        <v>6</v>
+      </c>
+      <c r="G5" s="59">
+        <v>7</v>
+      </c>
+      <c r="H5" s="59">
+        <v>8</v>
+      </c>
+      <c r="I5" s="59">
+        <v>9</v>
+      </c>
+      <c r="J5" s="59">
+        <v>10</v>
+      </c>
+      <c r="K5" s="59">
+        <v>11</v>
+      </c>
+      <c r="L5" s="59">
+        <v>12</v>
+      </c>
+      <c r="M5" s="59">
+        <v>13</v>
+      </c>
+      <c r="N5" s="59">
+        <v>14</v>
+      </c>
+      <c r="O5" s="59">
+        <v>15</v>
+      </c>
+      <c r="P5" s="59">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>17</v>
+      </c>
+      <c r="R5" s="59">
+        <v>18</v>
+      </c>
+      <c r="S5" s="59">
+        <v>19</v>
+      </c>
+      <c r="T5" s="59">
+        <v>20</v>
+      </c>
+      <c r="U5" s="59">
+        <v>21</v>
+      </c>
+      <c r="V5" s="59">
+        <v>22</v>
+      </c>
+      <c r="W5" s="59">
+        <v>23</v>
+      </c>
+      <c r="X5" s="59">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="59">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="59">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="59">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="59">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="59">
+        <v>29</v>
+      </c>
+      <c r="AD5" s="59">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="59">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="59">
+        <v>32</v>
+      </c>
+      <c r="AG5" s="59">
+        <v>33</v>
+      </c>
+      <c r="AH5" s="59">
+        <v>34</v>
+      </c>
+      <c r="AI5" s="59">
+        <v>35</v>
+      </c>
+      <c r="AJ5" s="59">
+        <v>36</v>
+      </c>
+      <c r="AK5" s="59">
+        <v>37</v>
+      </c>
+      <c r="AL5" s="59">
+        <v>38</v>
+      </c>
+      <c r="AM5" s="59">
+        <v>39</v>
+      </c>
+      <c r="AN5" s="59">
+        <v>40</v>
+      </c>
+      <c r="AO5" s="59">
+        <v>41</v>
+      </c>
+      <c r="AP5" s="59">
+        <v>42</v>
+      </c>
+      <c r="AQ5" s="59">
+        <v>43</v>
+      </c>
+      <c r="AR5" s="59">
+        <v>44</v>
+      </c>
+      <c r="AS5" s="59">
+        <v>45</v>
+      </c>
+      <c r="AT5" s="59">
+        <v>46</v>
+      </c>
+      <c r="AU5" s="59">
+        <v>47</v>
+      </c>
+      <c r="AV5" s="59">
+        <v>48</v>
+      </c>
+      <c r="AW5" s="59">
+        <v>49</v>
+      </c>
+      <c r="AX5" s="59">
+        <v>50</v>
+      </c>
+      <c r="AY5" s="59">
+        <v>51</v>
+      </c>
+      <c r="AZ5" s="59">
+        <v>52</v>
+      </c>
+      <c r="BA5" s="59">
+        <v>53</v>
+      </c>
+      <c r="BB5" s="59">
+        <v>54</v>
+      </c>
+      <c r="BC5" s="59">
+        <v>55</v>
+      </c>
+      <c r="BD5" s="59">
+        <v>56</v>
+      </c>
+      <c r="BE5" s="59">
+        <v>57</v>
+      </c>
+      <c r="BF5" s="59">
+        <v>58</v>
+      </c>
+      <c r="BG5" s="59">
+        <v>59</v>
+      </c>
+      <c r="BH5" s="59">
+        <v>60</v>
+      </c>
+      <c r="BI5" s="59">
+        <v>61</v>
+      </c>
+      <c r="BJ5" s="59">
+        <v>62</v>
+      </c>
+      <c r="BK5" s="59">
+        <v>63</v>
+      </c>
+      <c r="BL5" s="59">
+        <v>64</v>
+      </c>
+      <c r="BM5" s="59">
+        <v>65</v>
+      </c>
+      <c r="BN5" s="59">
+        <v>66</v>
+      </c>
+      <c r="BO5" s="59">
+        <v>67</v>
+      </c>
+      <c r="BP5" s="59">
+        <v>68</v>
+      </c>
+      <c r="BQ5" s="59">
+        <v>69</v>
+      </c>
+      <c r="BR5" s="59">
+        <v>70</v>
+      </c>
+      <c r="BS5" s="59">
+        <v>71</v>
+      </c>
+      <c r="BT5" s="59">
+        <v>72</v>
+      </c>
+      <c r="BU5" s="59">
+        <v>73</v>
+      </c>
+      <c r="BV5" s="59">
+        <v>74</v>
+      </c>
+      <c r="BW5" s="59">
+        <v>75</v>
+      </c>
+      <c r="BX5" s="59">
+        <v>76</v>
+      </c>
+      <c r="BY5" s="59">
+        <v>77</v>
+      </c>
+      <c r="BZ5" s="59">
+        <v>78</v>
+      </c>
+      <c r="CA5" s="59">
+        <v>79</v>
+      </c>
+      <c r="CB5" s="59">
+        <v>80</v>
+      </c>
+      <c r="CC5" s="59">
+        <v>81</v>
+      </c>
+      <c r="CD5" s="59">
+        <v>82</v>
+      </c>
+      <c r="CE5" s="59">
+        <v>83</v>
+      </c>
+      <c r="CF5" s="59">
+        <v>84</v>
+      </c>
+      <c r="CG5">
+        <f>+BX5-BU5-BV5+BW5+BY5+BZ5+CA5+CB5+CC5+CD5-CE5+CF5</f>
+        <v>482</v>
+      </c>
+      <c r="CH5" s="59">
+        <v>86</v>
+      </c>
+      <c r="CI5" s="59">
+        <v>87</v>
+      </c>
+      <c r="CJ5" s="59">
+        <v>88</v>
+      </c>
+      <c r="CK5" s="59">
+        <v>89</v>
+      </c>
+      <c r="CL5" s="59">
+        <v>90</v>
+      </c>
+      <c r="CM5" s="59">
+        <f>CL5+CI5+CJ5+CK5</f>
+        <v>354</v>
+      </c>
+      <c r="CN5" s="59">
+        <v>92</v>
+      </c>
+      <c r="CO5" s="59">
+        <v>93</v>
+      </c>
+      <c r="CP5" s="59">
+        <v>94</v>
+      </c>
+      <c r="CQ5" s="59">
         <v>95</v>
       </c>
-      <c r="BY4" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="BZ4" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="CA4" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="CB4" s="31" t="s">
+      <c r="CR5" s="59">
         <v>96</v>
       </c>
-      <c r="CC4" s="31" t="s">
+      <c r="CS5" s="59">
         <v>97</v>
       </c>
-      <c r="CD4" s="31" t="s">
+      <c r="CT5" s="59">
         <v>98</v>
       </c>
-      <c r="CE4" s="31" t="s">
+      <c r="CU5" s="59">
         <v>99</v>
       </c>
-      <c r="CF4" s="31" t="s">
+      <c r="CV5" s="59">
         <v>100</v>
-      </c>
-      <c r="CG4" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="CH4" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="CI4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK4" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="CL4" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="CM4" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="CN4" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="CO4" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="CP4" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="CQ4" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="CR4" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="CS4" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="CT4" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="CU4" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="CV4" s="40" t="s">
-        <v>416</v>
-      </c>
-      <c r="CW4" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="CX4" s="40" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:127" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="60">
-        <v>2</v>
-      </c>
-      <c r="C5" s="60">
-        <v>3</v>
-      </c>
-      <c r="D5" s="60">
-        <v>4</v>
-      </c>
-      <c r="E5" s="60">
-        <v>5</v>
-      </c>
-      <c r="F5" s="60">
-        <v>6</v>
-      </c>
-      <c r="G5" s="60">
-        <v>7</v>
-      </c>
-      <c r="H5" s="60">
-        <v>8</v>
-      </c>
-      <c r="I5" s="60">
-        <v>9</v>
-      </c>
-      <c r="J5" s="60">
-        <v>10</v>
-      </c>
-      <c r="K5" s="60">
-        <v>11</v>
-      </c>
-      <c r="L5" s="60">
-        <v>12</v>
-      </c>
-      <c r="M5" s="60">
-        <v>13</v>
-      </c>
-      <c r="N5" s="60">
-        <v>14</v>
-      </c>
-      <c r="O5" s="60">
-        <v>15</v>
-      </c>
-      <c r="P5" s="60">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="60">
-        <v>17</v>
-      </c>
-      <c r="R5" s="60">
-        <v>18</v>
-      </c>
-      <c r="S5" s="60">
-        <v>19</v>
-      </c>
-      <c r="T5" s="60">
-        <v>20</v>
-      </c>
-      <c r="U5" s="60">
-        <v>21</v>
-      </c>
-      <c r="V5" s="60">
-        <v>22</v>
-      </c>
-      <c r="W5" s="60">
-        <v>23</v>
-      </c>
-      <c r="X5" s="60">
-        <v>24</v>
-      </c>
-      <c r="Y5" s="60">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="60">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="60">
-        <v>27</v>
-      </c>
-      <c r="AB5" s="60">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="60">
-        <v>29</v>
-      </c>
-      <c r="AD5" s="60">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="60">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="60">
-        <v>32</v>
-      </c>
-      <c r="AG5" s="60">
-        <v>33</v>
-      </c>
-      <c r="AH5" s="60">
-        <v>34</v>
-      </c>
-      <c r="AI5" s="60">
-        <v>35</v>
-      </c>
-      <c r="AJ5" s="60">
-        <v>36</v>
-      </c>
-      <c r="AK5" s="60">
-        <v>37</v>
-      </c>
-      <c r="AL5" s="60">
-        <v>38</v>
-      </c>
-      <c r="AM5" s="60">
-        <v>39</v>
-      </c>
-      <c r="AN5" s="60">
-        <v>40</v>
-      </c>
-      <c r="AO5" s="60">
-        <v>41</v>
-      </c>
-      <c r="AP5" s="60">
-        <v>42</v>
-      </c>
-      <c r="AQ5" s="60">
-        <v>43</v>
-      </c>
-      <c r="AR5" s="60">
-        <v>44</v>
-      </c>
-      <c r="AS5" s="60">
-        <v>45</v>
-      </c>
-      <c r="AT5" s="60">
-        <v>46</v>
-      </c>
-      <c r="AU5" s="60">
-        <v>47</v>
-      </c>
-      <c r="AV5" s="60">
-        <v>48</v>
-      </c>
-      <c r="AW5" s="60">
-        <v>49</v>
-      </c>
-      <c r="AX5" s="60">
-        <v>50</v>
-      </c>
-      <c r="AY5" s="60">
-        <v>51</v>
-      </c>
-      <c r="AZ5" s="60">
-        <v>52</v>
-      </c>
-      <c r="BA5" s="60">
-        <v>53</v>
-      </c>
-      <c r="BB5" s="60">
-        <v>54</v>
-      </c>
-      <c r="BC5" s="60">
-        <v>55</v>
-      </c>
-      <c r="BD5" s="60">
-        <v>56</v>
-      </c>
-      <c r="BE5" s="60">
-        <v>57</v>
-      </c>
-      <c r="BF5" s="60">
-        <v>58</v>
-      </c>
-      <c r="BG5" s="60">
-        <v>59</v>
-      </c>
-      <c r="BH5" s="60">
-        <v>60</v>
-      </c>
-      <c r="BI5" s="60">
-        <v>61</v>
-      </c>
-      <c r="BJ5" s="60">
-        <v>62</v>
-      </c>
-      <c r="BK5" s="60">
-        <v>63</v>
-      </c>
-      <c r="BL5" s="60">
-        <v>64</v>
-      </c>
-      <c r="BM5" s="60">
-        <v>65</v>
-      </c>
-      <c r="BN5" s="60">
-        <v>66</v>
-      </c>
-      <c r="BO5" s="60">
-        <v>67</v>
-      </c>
-      <c r="BP5" s="60">
-        <v>68</v>
-      </c>
-      <c r="BQ5" s="60">
-        <v>69</v>
-      </c>
-      <c r="BR5" s="60">
-        <v>70</v>
-      </c>
-      <c r="BS5" s="60">
-        <v>71</v>
-      </c>
-      <c r="BT5" s="60">
-        <v>72</v>
-      </c>
-      <c r="BU5" s="60">
-        <v>73</v>
-      </c>
-      <c r="BV5" s="60">
-        <v>74</v>
-      </c>
-      <c r="BW5" s="60">
-        <v>75</v>
-      </c>
-      <c r="BX5" s="60">
-        <v>76</v>
-      </c>
-      <c r="BY5" s="60">
-        <v>77</v>
-      </c>
-      <c r="BZ5" s="60">
-        <v>78</v>
-      </c>
-      <c r="CA5" s="60">
-        <v>79</v>
-      </c>
-      <c r="CB5" s="60">
-        <v>80</v>
-      </c>
-      <c r="CC5" s="60">
-        <v>81</v>
-      </c>
-      <c r="CD5" s="60">
-        <v>82</v>
-      </c>
-      <c r="CE5" s="60">
-        <v>83</v>
-      </c>
-      <c r="CF5" s="60">
-        <v>84</v>
-      </c>
-      <c r="CG5" s="60">
-        <f>+BW5+BY5+BZ5+CA5+CB5+CC5+CD5+CE5+CF5</f>
-        <v>719</v>
-      </c>
-      <c r="CH5" s="60">
-        <v>86</v>
-      </c>
-      <c r="CI5" s="60">
-        <v>87</v>
-      </c>
-      <c r="CJ5" s="60">
-        <v>88</v>
-      </c>
-      <c r="CK5" s="60">
-        <v>89</v>
-      </c>
-      <c r="CL5" s="60">
-        <v>90</v>
-      </c>
-      <c r="CM5" s="60">
-        <v>91</v>
-      </c>
-      <c r="CN5" s="60">
-        <v>92</v>
-      </c>
-      <c r="CO5" s="60">
-        <f>CN5+CK5+CL5+CM5</f>
-        <v>362</v>
-      </c>
-      <c r="CP5" s="60">
-        <v>94</v>
-      </c>
-      <c r="CQ5" s="60">
-        <v>95</v>
-      </c>
-      <c r="CR5" s="60">
-        <v>96</v>
-      </c>
-      <c r="CS5" s="60">
-        <v>97</v>
-      </c>
-      <c r="CT5" s="60">
-        <v>98</v>
-      </c>
-      <c r="CU5" s="60">
-        <v>99</v>
-      </c>
-      <c r="CV5" s="60">
-        <v>100</v>
-      </c>
-      <c r="CW5" s="60">
-        <v>101</v>
-      </c>
-      <c r="CX5" s="60">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6348,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>11</v>
@@ -6357,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -6366,13 +6366,13 @@
         <v>4</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N5" s="18"/>
     </row>
@@ -7083,113 +7083,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42">
+      <c r="B2" s="41">
         <f>+G2</f>
         <v>0</v>
       </c>
       <c r="C2"/>
-      <c r="F2" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+      <c r="F2" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="str">
+      <c r="B3" s="65" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="F3" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="44">
+      <c r="C3" s="66"/>
+      <c r="F3" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="46" t="str">
+      <c r="C4" s="45" t="str">
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="44">
+      <c r="F4" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="48">
+      <c r="B5" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="47">
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="44">
+      <c r="F5" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="50">
+      <c r="B6" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="49">
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="44">
+      <c r="F6" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="70"/>
+      <c r="H6" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="49">
         <f>+C6*16%</f>
         <v>0</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="53">
+      <c r="F7" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="52">
         <v>0.06</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="43">
         <f>+(H3+H4+H5+H6)*G7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="56" t="s">
-        <v>113</v>
+      <c r="F8" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="55" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7198,20 +7198,20 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7246,2797 +7246,2797 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="G2" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="G2" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="2:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+        <v>232</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+        <v>200</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
+        <v>237</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+        <v>236</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="G10" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
         <v>206</v>
       </c>
-      <c r="C11" t="s">
-        <v>214</v>
-      </c>
       <c r="D11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" t="s">
         <v>238</v>
       </c>
-      <c r="E11" t="s">
-        <v>246</v>
-      </c>
       <c r="F11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+        <v>232</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+        <v>239</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>248</v>
+        <v>230</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>240</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>250</v>
+        <v>230</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>242</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>249</v>
+        <v>230</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>241</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>251</v>
+        <v>230</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+        <v>232</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="G17" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="M17" s="60" t="s">
-        <v>116</v>
+        <v>246</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="G17" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="M17" s="59" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>252</v>
+        <v>230</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>244</v>
       </c>
       <c r="F18" t="s">
-        <v>240</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+        <v>232</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
       <c r="M18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O18" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P18" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>386</v>
+        <v>247</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E19" s="58" t="str">
         <f>+P18</f>
         <v xml:space="preserve">fTExtra2V  </v>
       </c>
       <c r="F19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N19" t="s">
-        <v>118</v>
-      </c>
-      <c r="O19" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P19" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q19" s="60" t="s">
-        <v>386</v>
+        <v>248</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E20" s="58" t="str">
         <f t="shared" ref="E20:E60" si="0">+P19</f>
         <v xml:space="preserve">fTExtra3V  </v>
       </c>
       <c r="F20" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N20" t="s">
-        <v>118</v>
-      </c>
-      <c r="O20" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O20" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P20" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>386</v>
+        <v>249</v>
+      </c>
+      <c r="Q20" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E21" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
       <c r="F21" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="N21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O21" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O21" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P21" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q21" s="60" t="s">
-        <v>386</v>
+        <v>250</v>
+      </c>
+      <c r="Q21" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E22" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
-      </c>
-      <c r="O22" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O22" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P22" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q22" s="60" t="s">
-        <v>386</v>
+        <v>251</v>
+      </c>
+      <c r="Q22" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E23" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
-      </c>
-      <c r="O23" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O23" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q23" s="60" t="s">
-        <v>386</v>
+        <v>252</v>
+      </c>
+      <c r="Q23" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E24" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
       <c r="F24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O24" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O24" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P24" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>386</v>
+        <v>253</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E25" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="N25" t="s">
-        <v>118</v>
-      </c>
-      <c r="O25" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O25" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P25" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>386</v>
+        <v>254</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E26" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N26" t="s">
-        <v>118</v>
-      </c>
-      <c r="O26" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O26" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q26" s="60" t="s">
-        <v>386</v>
+        <v>255</v>
+      </c>
+      <c r="Q26" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
-      </c>
-      <c r="E27" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E27" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="N27" t="s">
-        <v>118</v>
-      </c>
-      <c r="O27" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O27" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P27" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q27" s="60" t="s">
-        <v>386</v>
+        <v>256</v>
+      </c>
+      <c r="Q27" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E28" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N28" t="s">
-        <v>118</v>
-      </c>
-      <c r="O28" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O28" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P28" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q28" s="60" t="s">
-        <v>386</v>
+        <v>257</v>
+      </c>
+      <c r="Q28" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
-      </c>
-      <c r="E29" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E29" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N29" t="s">
-        <v>118</v>
-      </c>
-      <c r="O29" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O29" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P29" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q29" s="60" t="s">
-        <v>386</v>
+        <v>258</v>
+      </c>
+      <c r="Q29" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
-      </c>
-      <c r="E30" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E30" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N30" t="s">
-        <v>118</v>
-      </c>
-      <c r="O30" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O30" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q30" s="60" t="s">
-        <v>386</v>
+        <v>259</v>
+      </c>
+      <c r="Q30" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
-      </c>
-      <c r="E31" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E31" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N31" t="s">
-        <v>118</v>
-      </c>
-      <c r="O31" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O31" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P31" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q31" s="60" t="s">
-        <v>386</v>
+        <v>260</v>
+      </c>
+      <c r="Q31" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E32" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M32" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="N32" t="s">
-        <v>118</v>
-      </c>
-      <c r="O32" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O32" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P32" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q32" s="60" t="s">
-        <v>386</v>
+        <v>261</v>
+      </c>
+      <c r="Q32" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
-      </c>
-      <c r="E33" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E33" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="N33" t="s">
-        <v>118</v>
-      </c>
-      <c r="O33" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O33" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P33" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q33" s="60" t="s">
-        <v>386</v>
+        <v>262</v>
+      </c>
+      <c r="Q33" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E34" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M34" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="N34" t="s">
-        <v>118</v>
-      </c>
-      <c r="O34" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O34" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P34" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q34" s="60" t="s">
-        <v>386</v>
+        <v>263</v>
+      </c>
+      <c r="Q34" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E35" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E35" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
       <c r="F35" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M35" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N35" t="s">
-        <v>118</v>
-      </c>
-      <c r="O35" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O35" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P35" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q35" s="60" t="s">
-        <v>386</v>
+        <v>264</v>
+      </c>
+      <c r="Q35" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E36" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
       <c r="F36" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M36" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="N36" t="s">
-        <v>118</v>
-      </c>
-      <c r="O36" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O36" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P36" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q36" s="60" t="s">
-        <v>386</v>
+        <v>265</v>
+      </c>
+      <c r="Q36" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E37" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="N37" t="s">
-        <v>118</v>
-      </c>
-      <c r="O37" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O37" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P37" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q37" s="60" t="s">
-        <v>386</v>
+        <v>266</v>
+      </c>
+      <c r="Q37" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
-      </c>
-      <c r="E38" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E38" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
       <c r="F38" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="N38" t="s">
-        <v>118</v>
-      </c>
-      <c r="O38" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O38" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P38" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q38" s="60" t="s">
-        <v>386</v>
+        <v>267</v>
+      </c>
+      <c r="Q38" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E39" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
       <c r="F39" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N39" t="s">
-        <v>118</v>
-      </c>
-      <c r="O39" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O39" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P39" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q39" s="60" t="s">
-        <v>386</v>
+        <v>268</v>
+      </c>
+      <c r="Q39" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E40" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M40" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="N40" t="s">
-        <v>118</v>
-      </c>
-      <c r="O40" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O40" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P40" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q40" s="60" t="s">
-        <v>386</v>
+        <v>269</v>
+      </c>
+      <c r="Q40" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E41" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N41" t="s">
-        <v>118</v>
-      </c>
-      <c r="O41" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O41" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P41" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q41" s="60" t="s">
-        <v>386</v>
+        <v>270</v>
+      </c>
+      <c r="Q41" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E42" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
       <c r="F42" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M42" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N42" t="s">
-        <v>118</v>
-      </c>
-      <c r="O42" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O42" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P42" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q42" s="60" t="s">
-        <v>386</v>
+        <v>271</v>
+      </c>
+      <c r="Q42" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E43" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
       <c r="F43" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N43" t="s">
-        <v>118</v>
-      </c>
-      <c r="O43" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O43" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P43" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q43" s="60" t="s">
-        <v>386</v>
+        <v>272</v>
+      </c>
+      <c r="Q43" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
-      </c>
-      <c r="E44" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E44" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
       <c r="F44" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M44" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N44" t="s">
-        <v>118</v>
-      </c>
-      <c r="O44" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O44" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P44" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q44" s="60" t="s">
-        <v>386</v>
+        <v>273</v>
+      </c>
+      <c r="Q44" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
-      </c>
-      <c r="E45" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E45" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
       <c r="F45" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M45" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N45" t="s">
-        <v>118</v>
-      </c>
-      <c r="O45" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O45" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P45" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q45" s="60" t="s">
-        <v>386</v>
+        <v>274</v>
+      </c>
+      <c r="Q45" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D46" t="s">
-        <v>238</v>
-      </c>
-      <c r="E46" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E46" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
       <c r="F46" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="N46" t="s">
-        <v>118</v>
-      </c>
-      <c r="O46" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O46" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P46" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q46" s="60" t="s">
-        <v>386</v>
+        <v>275</v>
+      </c>
+      <c r="Q46" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
-      </c>
-      <c r="E47" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E47" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
       <c r="F47" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M47" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="N47" t="s">
-        <v>118</v>
-      </c>
-      <c r="O47" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O47" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P47" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q47" s="60" t="s">
-        <v>386</v>
+        <v>276</v>
+      </c>
+      <c r="Q47" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
-      </c>
-      <c r="E48" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E48" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
       <c r="F48" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M48" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="N48" t="s">
-        <v>118</v>
-      </c>
-      <c r="O48" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O48" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P48" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q48" s="60" t="s">
-        <v>386</v>
+        <v>277</v>
+      </c>
+      <c r="Q48" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E49" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
       <c r="F49" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M49" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N49" t="s">
-        <v>118</v>
-      </c>
-      <c r="O49" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O49" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P49" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q49" s="60" t="s">
-        <v>386</v>
+        <v>278</v>
+      </c>
+      <c r="Q49" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
-      </c>
-      <c r="E50" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E50" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
       <c r="F50" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M50" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="N50" t="s">
-        <v>118</v>
-      </c>
-      <c r="O50" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O50" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P50" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q50" s="60" t="s">
-        <v>386</v>
+        <v>279</v>
+      </c>
+      <c r="Q50" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E51" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
       <c r="F51" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M51" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="N51" t="s">
-        <v>118</v>
-      </c>
-      <c r="O51" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O51" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P51" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q51" s="60" t="s">
-        <v>386</v>
+        <v>280</v>
+      </c>
+      <c r="Q51" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
-      </c>
-      <c r="E52" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E52" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
       <c r="F52" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M52" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N52" t="s">
-        <v>118</v>
-      </c>
-      <c r="O52" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O52" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P52" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q52" s="60" t="s">
-        <v>386</v>
+        <v>281</v>
+      </c>
+      <c r="Q52" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E53" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
       <c r="F53" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M53" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N53" t="s">
-        <v>118</v>
-      </c>
-      <c r="O53" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O53" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P53" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q53" s="60" t="s">
-        <v>386</v>
+        <v>282</v>
+      </c>
+      <c r="Q53" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
-      </c>
-      <c r="E54" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E54" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
       <c r="F54" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M54" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N54" t="s">
-        <v>118</v>
-      </c>
-      <c r="O54" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O54" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P54" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q54" s="60" t="s">
-        <v>386</v>
+        <v>283</v>
+      </c>
+      <c r="Q54" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
-      </c>
-      <c r="E55" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E55" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
       <c r="F55" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N55" t="s">
-        <v>118</v>
-      </c>
-      <c r="O55" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O55" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P55" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q55" s="60" t="s">
-        <v>386</v>
+        <v>284</v>
+      </c>
+      <c r="Q55" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
-      </c>
-      <c r="E56" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E56" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M56" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N56" t="s">
-        <v>118</v>
-      </c>
-      <c r="O56" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O56" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P56" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q56" s="60" t="s">
-        <v>386</v>
+        <v>285</v>
+      </c>
+      <c r="Q56" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D57" t="s">
-        <v>238</v>
-      </c>
-      <c r="E57" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E57" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
       <c r="F57" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M57" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N57" t="s">
-        <v>118</v>
-      </c>
-      <c r="O57" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O57" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P57" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q57" s="60" t="s">
-        <v>386</v>
+        <v>286</v>
+      </c>
+      <c r="Q57" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
-      </c>
-      <c r="E58" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E58" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
       <c r="F58" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="N58" t="s">
-        <v>118</v>
-      </c>
-      <c r="O58" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O58" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P58" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q58" s="60" t="s">
-        <v>386</v>
+        <v>287</v>
+      </c>
+      <c r="Q58" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
-      </c>
-      <c r="E59" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E59" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
       <c r="F59" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="N59" t="s">
-        <v>118</v>
-      </c>
-      <c r="O59" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O59" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P59" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q59" s="60" t="s">
-        <v>386</v>
+        <v>288</v>
+      </c>
+      <c r="Q59" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
-      </c>
-      <c r="E60" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E60" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
       <c r="F60" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M60" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N60" t="s">
-        <v>118</v>
-      </c>
-      <c r="O60" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O60" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P60" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q60" s="60" t="s">
-        <v>386</v>
+        <v>289</v>
+      </c>
+      <c r="Q60" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s">
-        <v>359</v>
-      </c>
-      <c r="D61" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="E61" s="59"/>
+        <v>351</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E61" s="58"/>
       <c r="M61" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="N61" t="s">
-        <v>118</v>
-      </c>
-      <c r="O61" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O61" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P61" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q61" s="60" t="s">
-        <v>386</v>
+        <v>290</v>
+      </c>
+      <c r="Q61" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
-      </c>
-      <c r="E62" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E62" s="58" t="str">
         <f t="shared" ref="E62:E74" si="1">+P60</f>
         <v xml:space="preserve">fIncapacidad </v>
       </c>
       <c r="F62" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M62" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="N62" t="s">
-        <v>118</v>
-      </c>
-      <c r="O62" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O62" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P62" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q62" s="60" t="s">
-        <v>386</v>
+        <v>291</v>
+      </c>
+      <c r="Q62" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E63" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E63" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fIsr </v>
       </c>
       <c r="F63" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N63" t="s">
-        <v>118</v>
-      </c>
-      <c r="O63" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O63" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P63" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q63" s="60" t="s">
-        <v>386</v>
+        <v>292</v>
+      </c>
+      <c r="Q63" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
-      </c>
-      <c r="E64" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E64" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fImss </v>
       </c>
       <c r="F64" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M64" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N64" t="s">
-        <v>118</v>
-      </c>
-      <c r="O64" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O64" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P64" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q64" s="60" t="s">
-        <v>386</v>
+        <v>293</v>
+      </c>
+      <c r="Q64" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
-      </c>
-      <c r="E65" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E65" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavit </v>
       </c>
       <c r="F65" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M65" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s">
-        <v>118</v>
-      </c>
-      <c r="O65" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O65" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P65" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q65" s="60" t="s">
-        <v>386</v>
+        <v>294</v>
+      </c>
+      <c r="Q65" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
-      </c>
-      <c r="E66" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E66" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavitBanterior </v>
       </c>
       <c r="F66" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M66" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N66" t="s">
-        <v>118</v>
-      </c>
-      <c r="O66" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O66" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P66" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q66" s="60" t="s">
-        <v>386</v>
+        <v>295</v>
+      </c>
+      <c r="Q66" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C67" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
-      </c>
-      <c r="E67" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E67" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fAjusteInfonavit </v>
       </c>
       <c r="F67" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M67" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N67" t="s">
-        <v>118</v>
-      </c>
-      <c r="O67" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O67" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P67" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q67" s="60" t="s">
-        <v>386</v>
+        <v>296</v>
+      </c>
+      <c r="Q67" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
-      </c>
-      <c r="E68" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E68" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPensionAlimenticia </v>
       </c>
       <c r="F68" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M68" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="N68" t="s">
-        <v>118</v>
-      </c>
-      <c r="O68" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O68" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P68" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q68" s="60" t="s">
-        <v>386</v>
+        <v>297</v>
+      </c>
+      <c r="Q68" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
-      </c>
-      <c r="E69" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E69" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPrestamo </v>
       </c>
       <c r="F69" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M69" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N69" t="s">
-        <v>118</v>
-      </c>
-      <c r="O69" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O69" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P69" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q69" s="60" t="s">
-        <v>386</v>
+        <v>298</v>
+      </c>
+      <c r="Q69" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
-      </c>
-      <c r="E70" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E70" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fFonacot </v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M70" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="N70" t="s">
-        <v>118</v>
-      </c>
-      <c r="O70" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O70" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P70" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q70" s="60" t="s">
-        <v>386</v>
+        <v>299</v>
+      </c>
+      <c r="Q70" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
-      </c>
-      <c r="E71" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E71" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fT_No_laborado </v>
       </c>
       <c r="F71" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M71" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="N71" t="s">
-        <v>118</v>
-      </c>
-      <c r="O71" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O71" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P71" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q71" s="60" t="s">
-        <v>386</v>
+        <v>300</v>
+      </c>
+      <c r="Q71" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
-      </c>
-      <c r="E72" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E72" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fCuotaSindical </v>
       </c>
       <c r="F72" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M72" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="N72" t="s">
-        <v>118</v>
-      </c>
-      <c r="O72" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O72" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P72" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q72" s="60" t="s">
-        <v>386</v>
+        <v>301</v>
+      </c>
+      <c r="Q72" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
-      </c>
-      <c r="E73" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E73" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioGenerado </v>
       </c>
       <c r="F73" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M73" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N73" t="s">
-        <v>118</v>
-      </c>
-      <c r="O73" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O73" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P73" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q73" s="60" t="s">
-        <v>386</v>
+        <v>302</v>
+      </c>
+      <c r="Q73" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
-      </c>
-      <c r="E74" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E74" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioAplicado </v>
       </c>
       <c r="F74" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M74" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="N74" t="s">
-        <v>118</v>
-      </c>
-      <c r="O74" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O74" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P74" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q74" s="60" t="s">
-        <v>386</v>
+        <v>303</v>
+      </c>
+      <c r="Q74" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C75" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D75" t="s">
-        <v>397</v>
-      </c>
-      <c r="E75" s="59"/>
+        <v>389</v>
+      </c>
+      <c r="E75" s="58"/>
       <c r="M75" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N75" t="s">
-        <v>118</v>
-      </c>
-      <c r="O75" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O75" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P75" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q75" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q75" s="59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B76" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>366</v>
+      </c>
+      <c r="D76" s="59" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" t="s">
-        <v>374</v>
-      </c>
-      <c r="D76" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="E76" s="59"/>
+      <c r="E76" s="58"/>
       <c r="M76" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N76" t="s">
-        <v>118</v>
-      </c>
-      <c r="O76" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O76" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P76" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q76" s="60" t="s">
-        <v>386</v>
+        <v>305</v>
+      </c>
+      <c r="Q76" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
-      </c>
-      <c r="E77" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E77" s="58" t="str">
         <f t="shared" ref="E77:E85" si="2">+P74</f>
         <v xml:space="preserve">fPrestamoPerA </v>
       </c>
       <c r="F77" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M77" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="N77" t="s">
-        <v>118</v>
-      </c>
-      <c r="O77" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O77" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P77" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q77" s="60" t="s">
-        <v>386</v>
+        <v>306</v>
+      </c>
+      <c r="Q77" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C78" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E78" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAdeudoInfonavitA </v>
       </c>
       <c r="F78" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M78" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="N78" t="s">
-        <v>118</v>
-      </c>
-      <c r="O78" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O78" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P78" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q78" s="60" t="s">
-        <v>386</v>
+        <v>307</v>
+      </c>
+      <c r="Q78" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
-      </c>
-      <c r="E79" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E79" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fDiferenciaInfonavitA </v>
       </c>
       <c r="F79" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M79" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N79" t="s">
-        <v>118</v>
-      </c>
-      <c r="O79" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O79" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P79" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q79" s="60" t="s">
-        <v>386</v>
+        <v>308</v>
+      </c>
+      <c r="Q79" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
-      </c>
-      <c r="E80" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E80" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAsimilados </v>
       </c>
       <c r="F80" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M80" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N80" t="s">
-        <v>118</v>
-      </c>
-      <c r="O80" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O80" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P80" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q80" s="60" t="s">
-        <v>386</v>
+        <v>309</v>
+      </c>
+      <c r="Q80" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
-      </c>
-      <c r="E81" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E81" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fRetencionOperadora </v>
       </c>
       <c r="F81" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M81" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="N81" t="s">
-        <v>118</v>
-      </c>
-      <c r="O81" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O81" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P81" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q81" s="60" t="s">
-        <v>386</v>
+        <v>310</v>
+      </c>
+      <c r="Q81" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
-      </c>
-      <c r="E82" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E82" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fPorComision </v>
       </c>
       <c r="F82" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M82" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N82" t="s">
-        <v>118</v>
-      </c>
-      <c r="O82" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O82" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P82" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q82" s="60" t="s">
-        <v>386</v>
+        <v>311</v>
+      </c>
+      <c r="Q82" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
-      </c>
-      <c r="E83" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E83" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionOperadora </v>
       </c>
       <c r="F83" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M83" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N83" t="s">
-        <v>118</v>
-      </c>
-      <c r="O83" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O83" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P83" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q83" s="60" t="s">
-        <v>386</v>
+        <v>312</v>
+      </c>
+      <c r="Q83" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
-      </c>
-      <c r="E84" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E84" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionAsimilados </v>
       </c>
       <c r="F84" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M84" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="N84" t="s">
-        <v>118</v>
-      </c>
-      <c r="O84" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O84" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P84" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q84" s="60" t="s">
-        <v>386</v>
+        <v>313</v>
+      </c>
+      <c r="Q84" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D85" t="s">
-        <v>238</v>
-      </c>
-      <c r="E85" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E85" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fImssCS </v>
       </c>
       <c r="F85" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M85" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N85" t="s">
-        <v>118</v>
-      </c>
-      <c r="O85" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O85" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P85" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q85" s="60" t="s">
-        <v>386</v>
+        <v>314</v>
+      </c>
+      <c r="Q85" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
-      </c>
-      <c r="E86" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E86" s="58" t="str">
         <f t="shared" ref="E86:E88" si="3">+P83</f>
         <v xml:space="preserve">fRcvCS </v>
       </c>
       <c r="F86" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M86" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N86" t="s">
-        <v>118</v>
-      </c>
-      <c r="O86" s="60" t="s">
-        <v>385</v>
+        <v>110</v>
+      </c>
+      <c r="O86" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P86" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q86" s="60" t="s">
-        <v>386</v>
+        <v>179</v>
+      </c>
+      <c r="Q86" s="59" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
-      </c>
-      <c r="E87" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E87" s="58" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInfonavitCS </v>
       </c>
       <c r="F87" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M87" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="N87" t="s">
-        <v>189</v>
-      </c>
-      <c r="O87" s="60" t="s">
-        <v>385</v>
+        <v>181</v>
+      </c>
+      <c r="O87" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P87" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
-      </c>
-      <c r="E88" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E88" s="58" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInsCS </v>
       </c>
       <c r="F88" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M88" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="N88" t="s">
-        <v>195</v>
-      </c>
-      <c r="O88" s="60" t="s">
-        <v>385</v>
+        <v>187</v>
+      </c>
+      <c r="O88" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="R88" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="S88" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="T88" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F89" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M89" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="N89" t="s">
-        <v>204</v>
-      </c>
-      <c r="O89" s="60" t="s">
-        <v>385</v>
+        <v>196</v>
+      </c>
+      <c r="O89" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="P89" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="R89" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="S89" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="T89" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="U89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="V89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="W89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="X89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
-      </c>
-      <c r="E90" s="59" t="str">
+        <v>230</v>
+      </c>
+      <c r="E90" s="58" t="str">
         <f>+P86</f>
         <v xml:space="preserve">fTotalCostoSocial </v>
       </c>
       <c r="F90" t="s">
-        <v>240</v>
-      </c>
-      <c r="O90" s="60" t="s">
-        <v>385</v>
+        <v>232</v>
+      </c>
+      <c r="O90" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="R90" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C93" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -10066,7 +10066,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>28</v>
@@ -10091,8 +10091,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F2" s="61"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
@@ -10114,969 +10114,969 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>385</v>
+      <c r="B2" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="D2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E10" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E11" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E12" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E13" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E14" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E15" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E16" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E17" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D18" t="s">
         <v>263</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E18" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" t="s">
         <v>264</v>
       </c>
-      <c r="E11" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E19" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E20" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E21" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E22" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" t="s">
         <v>268</v>
       </c>
-      <c r="E15" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E23" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" t="s">
         <v>269</v>
       </c>
-      <c r="E16" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E24" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E25" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D26" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E26" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E27" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E28" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E29" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E30" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" t="s">
         <v>276</v>
       </c>
-      <c r="E23" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E31" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" t="s">
         <v>277</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E32" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D33" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E33" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D34" t="s">
         <v>279</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E34" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D35" t="s">
         <v>280</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E35" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D36" t="s">
         <v>281</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E36" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D37" t="s">
         <v>282</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E37" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D38" t="s">
         <v>283</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E38" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D39" t="s">
         <v>284</v>
       </c>
-      <c r="E31" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E39" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E40" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D41" t="s">
         <v>286</v>
       </c>
-      <c r="E33" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E41" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" t="s">
         <v>287</v>
       </c>
-      <c r="E34" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E42" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D43" t="s">
         <v>288</v>
       </c>
-      <c r="E35" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E43" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D44" t="s">
         <v>289</v>
       </c>
-      <c r="E36" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E44" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D45" t="s">
         <v>290</v>
       </c>
-      <c r="E37" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E45" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" t="s">
         <v>291</v>
       </c>
-      <c r="E38" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E46" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D47" t="s">
         <v>292</v>
       </c>
-      <c r="E39" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E47" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D48" t="s">
         <v>293</v>
       </c>
-      <c r="E40" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E48" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D49" t="s">
         <v>294</v>
       </c>
-      <c r="E41" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E49" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D50" t="s">
         <v>295</v>
       </c>
-      <c r="E42" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E50" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51" t="s">
         <v>296</v>
       </c>
-      <c r="E43" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E51" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D52" t="s">
         <v>297</v>
       </c>
-      <c r="E44" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E52" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D53" t="s">
         <v>298</v>
       </c>
-      <c r="E45" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E53" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D54" t="s">
         <v>299</v>
       </c>
-      <c r="E46" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E54" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D55" t="s">
         <v>300</v>
       </c>
-      <c r="E47" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E55" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" t="s">
         <v>301</v>
       </c>
-      <c r="E48" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E56" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" t="s">
         <v>302</v>
       </c>
-      <c r="E49" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E57" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" t="s">
         <v>303</v>
       </c>
-      <c r="E50" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E58" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D59" t="s">
         <v>304</v>
       </c>
-      <c r="E51" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E59" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D60" t="s">
         <v>305</v>
       </c>
-      <c r="E52" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E60" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D61" t="s">
         <v>306</v>
       </c>
-      <c r="E53" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C54" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E61" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D62" t="s">
         <v>307</v>
       </c>
-      <c r="E54" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E62" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D63" t="s">
         <v>308</v>
       </c>
-      <c r="E55" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C56" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E63" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D64" t="s">
         <v>309</v>
       </c>
-      <c r="E56" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E64" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D65" t="s">
         <v>310</v>
       </c>
-      <c r="E57" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E65" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D66" t="s">
         <v>311</v>
       </c>
-      <c r="E58" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E66" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D67" t="s">
         <v>312</v>
       </c>
-      <c r="E59" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C60" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E67" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" t="s">
         <v>313</v>
       </c>
-      <c r="E60" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C61" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E68" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D69" t="s">
         <v>314</v>
       </c>
-      <c r="E61" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C62" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D62" t="s">
-        <v>315</v>
-      </c>
-      <c r="E62" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C63" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D63" t="s">
-        <v>316</v>
-      </c>
-      <c r="E63" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C64" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D64" t="s">
-        <v>317</v>
-      </c>
-      <c r="E64" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C65" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E65" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C66" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D66" t="s">
-        <v>319</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C67" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D67" t="s">
-        <v>320</v>
-      </c>
-      <c r="E67" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C68" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D68" t="s">
-        <v>321</v>
-      </c>
-      <c r="E68" s="60" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D69" t="s">
-        <v>322</v>
-      </c>
-      <c r="E69" s="60" t="s">
-        <v>387</v>
+      <c r="E69" s="59" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>385</v>
+      <c r="B70" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" s="60" t="s">
-        <v>385</v>
+        <v>179</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -1466,7 +1466,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,6 +1554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor rgb="FF538DD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor rgb="FF538DD5"/>
       </patternFill>
     </fill>
@@ -3179,7 +3185,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3290,6 +3296,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3317,10 +3329,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5547,10 +5556,10 @@
   <dimension ref="A3:DU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CT5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="CM5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CV4" sqref="CV4"/>
+      <selection pane="bottomRight" activeCell="CN4" sqref="CN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5572,6 +5581,7 @@
     <col min="83" max="83" width="14.85546875" customWidth="1"/>
     <col min="85" max="85" width="15.7109375" customWidth="1"/>
     <col min="91" max="91" width="14" customWidth="1"/>
+    <col min="92" max="92" width="13.7109375" customWidth="1"/>
     <col min="93" max="93" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5901,10 +5911,10 @@
       <c r="BR4" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="BS4" s="72" t="s">
+      <c r="BS4" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="BT4" s="71" t="s">
+      <c r="BT4" s="62" t="s">
         <v>410</v>
       </c>
       <c r="BU4" s="31" t="s">
@@ -5964,7 +5974,7 @@
       <c r="CM4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="CN4" s="31" t="s">
+      <c r="CN4" s="73" t="s">
         <v>90</v>
       </c>
       <c r="CO4" s="39" t="s">
@@ -7091,19 +7101,19 @@
       <c r="F2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="str">
+      <c r="B3" s="67" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="F3" s="67" t="s">
+      <c r="C3" s="68"/>
+      <c r="F3" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="43">
         <v>0</v>
       </c>
@@ -7116,10 +7126,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="43">
         <v>0</v>
       </c>
@@ -7132,10 +7142,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="43">
         <v>0</v>
       </c>
@@ -7148,10 +7158,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="43">
         <v>0</v>
       </c>
@@ -7184,10 +7194,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="55" t="s">
         <v>105</v>
       </c>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -17,12 +17,14 @@
     <sheet name="FACT" sheetId="30" r:id="rId3"/>
     <sheet name="Hoja2" sheetId="40" r:id="rId4"/>
     <sheet name="PENSION ALIMENTICIA" sheetId="32" r:id="rId5"/>
-    <sheet name="Hoja3" sheetId="41" r:id="rId6"/>
+    <sheet name="CARATULA" sheetId="42" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="41" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
@@ -38,6 +40,7 @@
     <definedName name="mensual2">[3]FOR!$F$46:$I$53</definedName>
     <definedName name="mensual3">[3]FOR!$F$59:$H$71</definedName>
     <definedName name="SMG">[2]FOR!$B$2</definedName>
+    <definedName name="STATUS" localSheetId="5">#REF!</definedName>
     <definedName name="STATUS">#REF!</definedName>
     <definedName name="TCF">[2]FOR!$B$8</definedName>
     <definedName name="VSDF">[2]FOR!$B$7</definedName>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="456">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1301,6 +1304,120 @@
   </si>
   <si>
     <t>VEJEZ</t>
+  </si>
+  <si>
+    <t>Reporte de Nómina</t>
+  </si>
+  <si>
+    <t>Nomina:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodo de pago: </t>
+  </si>
+  <si>
+    <t>Periodicidad:</t>
+  </si>
+  <si>
+    <t>PERCEPCIONES:</t>
+  </si>
+  <si>
+    <t>SUELDO</t>
+  </si>
+  <si>
+    <t>PRIMA DOMINICAL GRAVADA</t>
+  </si>
+  <si>
+    <t>PRIMA DOMINICAL EXENTA</t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS DOBLES GRAVADAS</t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS DOBLES EXENTAS</t>
+  </si>
+  <si>
+    <t>HORAS EXTRAS TRIPLES</t>
+  </si>
+  <si>
+    <t>FESTIVO TRABAJADO</t>
+  </si>
+  <si>
+    <t>BONO ASISTENCIA</t>
+  </si>
+  <si>
+    <t>BONO PRODUCTIVIDAD</t>
+  </si>
+  <si>
+    <t>BONO POLIVALENCIA</t>
+  </si>
+  <si>
+    <t>BONO ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>BONO CALIDAD</t>
+  </si>
+  <si>
+    <t>COMPENSACION</t>
+  </si>
+  <si>
+    <t>SEMANA DE FONDO</t>
+  </si>
+  <si>
+    <t>INCREMENTO RETENIDO</t>
+  </si>
+  <si>
+    <t>VACACIONES</t>
+  </si>
+  <si>
+    <t>AGUINALDO GRAVADO</t>
+  </si>
+  <si>
+    <t>AGUINALDO EXENTO</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL GRAVADA</t>
+  </si>
+  <si>
+    <t>PRIMA VACACIONAL EXENTA</t>
+  </si>
+  <si>
+    <t>Total Percepciones</t>
+  </si>
+  <si>
+    <t>DEDUCCIONES:</t>
+  </si>
+  <si>
+    <t>INFONAVIT BIMESTRE ANTERIOR</t>
+  </si>
+  <si>
+    <t>PENSIÓN ALIMENTICIA</t>
+  </si>
+  <si>
+    <t>TIEMPO NO LABORADO</t>
+  </si>
+  <si>
+    <t>SUBSIDIO</t>
+  </si>
+  <si>
+    <t>Total Deducciones</t>
+  </si>
+  <si>
+    <t>TOTAL NETO</t>
+  </si>
+  <si>
+    <t>NET PAGADO</t>
+  </si>
+  <si>
+    <t>TOTAL GRAVABLE</t>
+  </si>
+  <si>
+    <t>SUB. EMPLEO</t>
+  </si>
+  <si>
+    <t>TOTAL SINDICATO</t>
+  </si>
+  <si>
+    <t>TOTAL PPP</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1429,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1465,8 +1582,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1563,8 +1706,14 @@
         <bgColor rgb="FF538DD5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1689,6 +1838,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1493">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3185,7 +3398,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3302,6 +3515,9 @@
     <xf numFmtId="43" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3329,9 +3545,49 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1493">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
@@ -5266,6 +5522,31 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NOMINA"/>
+      <sheetName val="DETALLE"/>
+      <sheetName val="FACT"/>
+      <sheetName val="Hoja2"/>
+      <sheetName val="PENSION ALIMENTICIA"/>
+      <sheetName val="CARATULA"/>
+      <sheetName val="Hoja3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5555,7 +5836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:DU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="CM5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -5974,7 +6255,7 @@
       <c r="CM4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="CN4" s="73" t="s">
+      <c r="CN4" s="64" t="s">
         <v>90</v>
       </c>
       <c r="CO4" s="39" t="s">
@@ -7101,19 +7382,19 @@
       <c r="F2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="str">
+      <c r="B3" s="68" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="F3" s="69" t="s">
+      <c r="C3" s="69"/>
+      <c r="F3" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="43">
         <v>0</v>
       </c>
@@ -7126,10 +7407,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="43">
         <v>0</v>
       </c>
@@ -7142,10 +7423,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="71"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="43">
         <v>0</v>
       </c>
@@ -7158,10 +7439,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="43">
         <v>0</v>
       </c>
@@ -7194,10 +7475,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="55" t="s">
         <v>105</v>
       </c>
@@ -10112,6 +10393,397 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="74" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="77"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="77"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="77"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="84" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="84" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="84" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="84" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="84" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="84" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="84" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="84" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="84" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="84" t="s">
+        <v>433</v>
+      </c>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="84" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="84" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="84" t="s">
+        <v>438</v>
+      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="84" t="s">
+        <v>439</v>
+      </c>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="84" t="s">
+        <v>441</v>
+      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="84" t="s">
+        <v>442</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="87"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="87"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="89"/>
+      <c r="D33" s="86">
+        <f>+SUM(D10:D30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="90" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="93" t="s">
+        <v>398</v>
+      </c>
+      <c r="C39" s="94"/>
+      <c r="D39" s="95"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="93" t="s">
+        <v>445</v>
+      </c>
+      <c r="C40" s="94"/>
+      <c r="D40" s="95"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="94"/>
+      <c r="D41" s="95"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="93" t="s">
+        <v>446</v>
+      </c>
+      <c r="C42" s="94"/>
+      <c r="D42" s="95"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="94"/>
+      <c r="D43" s="95"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="94"/>
+      <c r="D44" s="95"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="93" t="s">
+        <v>447</v>
+      </c>
+      <c r="C45" s="94"/>
+      <c r="D45" s="95"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="94"/>
+      <c r="D46" s="95"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="93" t="s">
+        <v>448</v>
+      </c>
+      <c r="C47" s="94"/>
+      <c r="D47" s="95"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="C50" s="96"/>
+      <c r="D50" s="86">
+        <f>+SUM(D37:D47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="C54" s="95"/>
+      <c r="D54" s="86">
+        <f>+D33-D50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="55" t="s">
+        <v>451</v>
+      </c>
+      <c r="C55" s="95"/>
+      <c r="D55" s="86">
+        <f>+D54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="55" t="s">
+        <v>452</v>
+      </c>
+      <c r="C56" s="95"/>
+      <c r="D56" s="86">
+        <f>+D10+D11+D13+D15+D16+D17+D18+D19+D20+D21+D22+D23+D24+D25+D26+D27+D28+D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="C57" s="95"/>
+      <c r="D57" s="86">
+        <f>+D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="C58" s="95"/>
+      <c r="D58" s="86">
+        <f>+FACT!H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="C59" s="95"/>
+      <c r="D59" s="86">
+        <f>+FACT!H5</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="463">
   <si>
     <t>TOTAL</t>
   </si>
@@ -1306,9 +1306,6 @@
     <t>VEJEZ</t>
   </si>
   <si>
-    <t>Reporte de Nómina</t>
-  </si>
-  <si>
     <t>Nomina:</t>
   </si>
   <si>
@@ -1324,18 +1321,6 @@
     <t>SUELDO</t>
   </si>
   <si>
-    <t>PRIMA DOMINICAL GRAVADA</t>
-  </si>
-  <si>
-    <t>PRIMA DOMINICAL EXENTA</t>
-  </si>
-  <si>
-    <t>HORAS EXTRAS DOBLES GRAVADAS</t>
-  </si>
-  <si>
-    <t>HORAS EXTRAS DOBLES EXENTAS</t>
-  </si>
-  <si>
     <t>HORAS EXTRAS TRIPLES</t>
   </si>
   <si>
@@ -1372,15 +1357,6 @@
     <t>AGUINALDO GRAVADO</t>
   </si>
   <si>
-    <t>AGUINALDO EXENTO</t>
-  </si>
-  <si>
-    <t>PRIMA VACACIONAL GRAVADA</t>
-  </si>
-  <si>
-    <t>PRIMA VACACIONAL EXENTA</t>
-  </si>
-  <si>
     <t>Total Percepciones</t>
   </si>
   <si>
@@ -1418,6 +1394,51 @@
   </si>
   <si>
     <t>TOTAL PPP</t>
+  </si>
+  <si>
+    <t>Caratula de Nómina</t>
+  </si>
+  <si>
+    <t>INFORMATIVO:</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>IMPORTE</t>
+  </si>
+  <si>
+    <t>GRAVABLE</t>
+  </si>
+  <si>
+    <t>EXENTO</t>
+  </si>
+  <si>
+    <t>APLICADO</t>
+  </si>
+  <si>
+    <t>PROVISION AGUINALDO</t>
+  </si>
+  <si>
+    <t>PRIMA DOMINICAL</t>
+  </si>
+  <si>
+    <t>PROVISION PRIMA VACACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORAS EXTRAS DOBLES </t>
+  </si>
+  <si>
+    <t>PROVISION PRIMA ANTIGÜEDAD</t>
+  </si>
+  <si>
+    <t>PROVISION INDEMNIZACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA VACACIONAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1450,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1603,13 +1624,35 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1706,14 +1749,8 @@
         <bgColor rgb="FF538DD5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1839,17 +1876,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1902,8 +1928,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1493">
+  <cellStyleXfs count="1494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3397,8 +3472,9 @@
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3518,6 +3594,44 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1493" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3545,52 +3659,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1493">
+  <cellStyles count="1494">
     <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
+    <cellStyle name="Encabezado 1" xfId="1493" builtinId="16"/>
     <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Millares 2" xfId="3"/>
@@ -5537,7 +5615,18 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -7382,19 +7471,19 @@
       <c r="F2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="str">
+      <c r="B3" s="98" t="str">
         <f>+CONCATENATE("FACTURA ",G2)</f>
         <v xml:space="preserve">FACTURA </v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="F3" s="70" t="s">
+      <c r="C3" s="99"/>
+      <c r="F3" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="43">
         <v>0</v>
       </c>
@@ -7407,10 +7496,10 @@
         <f>+H8</f>
         <v>empresa</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="72"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="43">
         <v>0</v>
       </c>
@@ -7423,10 +7512,10 @@
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="43">
         <v>0</v>
       </c>
@@ -7439,10 +7528,10 @@
         <f>+C5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="73"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="43">
         <v>0</v>
       </c>
@@ -7475,10 +7564,10 @@
         <f>+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="95"/>
       <c r="H8" s="55" t="s">
         <v>105</v>
       </c>
@@ -10393,389 +10482,556 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E59"/>
+  <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+    <row r="2" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="73" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="67" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="B4" s="77"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="67" t="s">
         <v>420</v>
       </c>
-      <c r="B5" s="77"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
+    </row>
+    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="104" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="77"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="78" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104" t="s">
+        <v>449</v>
+      </c>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>452</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>453</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>454</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>454</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>450</v>
+      </c>
+      <c r="K9" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="L9" s="75" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="84" t="s">
+      <c r="C10" s="79">
+        <f>+D10+E10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83" t="s">
+        <v>455</v>
+      </c>
+      <c r="K10" s="81"/>
+      <c r="L10" s="84"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="83" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="85">
+        <f t="shared" ref="C11:C26" si="0">+D11+E11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="68"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="K11" s="68"/>
+      <c r="L11" s="89"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="H12" s="68"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="K12" s="68"/>
+      <c r="L12" s="89"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="84" t="s">
+      <c r="C13" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="89"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="K14" s="68"/>
+      <c r="L14" s="89"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="87" t="s">
         <v>424</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="84" t="s">
+      <c r="C15" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87" t="s">
+        <v>438</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="89"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="87" t="s">
         <v>425</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="84" t="s">
+      <c r="C16" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="89"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="87" t="s">
         <v>426</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="84" t="s">
+      <c r="C17" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="68"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="89"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="84" t="s">
+      <c r="C18" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87" t="s">
+        <v>439</v>
+      </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="89"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="84" t="s">
+      <c r="C19" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="89"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="87" t="s">
         <v>429</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="84" t="s">
+      <c r="C20" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87" t="s">
+        <v>440</v>
+      </c>
+      <c r="H20" s="68"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="89"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="87" t="s">
         <v>430</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="84" t="s">
+      <c r="C21" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="89"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="87" t="s">
         <v>431</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="84" t="s">
+      <c r="C22" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="89"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="87" t="s">
         <v>432</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="84" t="s">
+      <c r="C23" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="89"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="87" t="s">
         <v>433</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="84" t="s">
+      <c r="C24" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="89"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="87" t="s">
         <v>434</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="84" t="s">
+      <c r="C25" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="89"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="90" t="s">
+        <v>461</v>
+      </c>
+      <c r="C26" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="70"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="72"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="72"/>
+    </row>
+    <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="94" t="s">
         <v>435</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="84" t="s">
-        <v>436</v>
-      </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="84" t="s">
-        <v>437</v>
-      </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="84" t="s">
-        <v>438</v>
-      </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="84" t="s">
-        <v>439</v>
-      </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="84" t="s">
-        <v>440</v>
-      </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="84" t="s">
+      <c r="C29" s="71">
+        <f>+SUM(C10:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="71">
+        <f t="shared" ref="D29:E29" si="1">+SUM(D10:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="94" t="s">
         <v>441</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="84" t="s">
+      <c r="H29" s="71">
+        <f>+SUM(H10:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="71"/>
+      <c r="J29" s="94" t="s">
+        <v>462</v>
+      </c>
+      <c r="K29" s="71">
+        <f>+SUM(K10:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="71"/>
+    </row>
+    <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="94" t="s">
         <v>442</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="87"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="87"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="88" t="s">
+      <c r="C36" s="71">
+        <f>+C29-H29</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+    </row>
+    <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="94" t="s">
         <v>443</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="86">
-        <f>+SUM(D10:D30)</f>
+      <c r="C37" s="71">
+        <f>+C36</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="90" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+    </row>
+    <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="94" t="s">
         <v>444</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="93" t="s">
-        <v>398</v>
-      </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="95"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="93" t="s">
+      <c r="C38" s="71">
+        <f>+D29</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+    </row>
+    <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="95"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="93" t="s">
+      <c r="C39" s="71">
+        <f>+H20</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+    </row>
+    <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="94" t="s">
         <v>446</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="95"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="94"/>
-      <c r="D43" s="95"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="93" t="s">
+      <c r="C40" s="71">
+        <f>[4]FACT!H4</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+    </row>
+    <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="95"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="95"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="93" t="s">
-        <v>448</v>
-      </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="95"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="96" t="s">
-        <v>449</v>
-      </c>
-      <c r="C50" s="96"/>
-      <c r="D50" s="86">
-        <f>+SUM(D37:D47)</f>
+      <c r="C41" s="71">
+        <f>+[4]FACT!H5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="55" t="s">
-        <v>450</v>
-      </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="86">
-        <f>+D33-D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="55" t="s">
-        <v>451</v>
-      </c>
-      <c r="C55" s="95"/>
-      <c r="D55" s="86">
-        <f>+D54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="55" t="s">
-        <v>452</v>
-      </c>
-      <c r="C56" s="95"/>
-      <c r="D56" s="86">
-        <f>+D10+D11+D13+D15+D16+D17+D18+D19+D20+D21+D22+D23+D24+D25+D26+D27+D28+D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="55" t="s">
-        <v>453</v>
-      </c>
-      <c r="C57" s="95"/>
-      <c r="D57" s="86">
-        <f>+D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="55" t="s">
-        <v>454</v>
-      </c>
-      <c r="C58" s="95"/>
-      <c r="D58" s="86">
-        <f>+FACT!H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="C59" s="95"/>
-      <c r="D59" s="86">
-        <f>+FACT!H5</f>
-        <v>0</v>
-      </c>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+  <mergeCells count="3">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="462">
   <si>
     <t>TOTAL</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>B CALIDAD</t>
-  </si>
-  <si>
-    <t>CONPENSACION</t>
   </si>
   <si>
     <t>SEMANA FONDO</t>
@@ -5925,11 +5922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:DU5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CM5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CN4" sqref="CN4"/>
+      <selection pane="bottomRight" activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6201,46 +6198,46 @@
         <v>61</v>
       </c>
       <c r="AR4" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AS4" s="31" t="s">
+      <c r="AT4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="AT4" s="31" t="s">
+      <c r="AU4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AU4" s="31" t="s">
+      <c r="AV4" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AV4" s="31" t="s">
+      <c r="AW4" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AW4" s="31" t="s">
+      <c r="AX4" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AX4" s="31" t="s">
+      <c r="AY4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AY4" s="31" t="s">
+      <c r="AZ4" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="AZ4" s="31" t="s">
+      <c r="BA4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="BA4" s="31" t="s">
+      <c r="BB4" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="BB4" s="31" t="s">
+      <c r="BC4" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="BC4" s="31" t="s">
-        <v>73</v>
       </c>
       <c r="BD4" s="31" t="s">
         <v>20</v>
       </c>
       <c r="BE4" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BF4" s="31" t="s">
         <v>21</v>
@@ -6252,16 +6249,16 @@
         <v>13</v>
       </c>
       <c r="BI4" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BJ4" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BK4" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BL4" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BM4" s="31" t="s">
         <v>23</v>
@@ -6270,106 +6267,106 @@
         <v>27</v>
       </c>
       <c r="BO4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP4" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="BP4" s="31" t="s">
+      <c r="BQ4" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="BQ4" s="31" t="s">
+      <c r="BR4" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="BR4" s="31" t="s">
+      <c r="BS4" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="BS4" s="63" t="s">
+      <c r="BT4" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="BU4" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="BT4" s="62" t="s">
+      <c r="BV4" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW4" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="BU4" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV4" s="31" t="s">
+      <c r="BX4" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="BY4" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="BW4" s="31" t="s">
+      <c r="BZ4" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="BX4" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="BY4" s="31" t="s">
+      <c r="CA4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB4" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC4" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="CD4" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="CE4" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="CF4" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="CG4" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH4" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="CI4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="BZ4" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="CA4" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB4" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="CC4" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="CD4" s="31" t="s">
-        <v>414</v>
-      </c>
-      <c r="CE4" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="CF4" s="31" t="s">
+      <c r="CJ4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK4" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN4" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO4" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="CP4" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ4" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="CG4" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="CH4" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="CI4" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ4" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM4" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN4" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO4" s="39" t="s">
+      <c r="CR4" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="CS4" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="CT4" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="CU4" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="CV4" s="39" t="s">
         <v>416</v>
-      </c>
-      <c r="CP4" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="CQ4" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="CR4" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="CS4" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="CT4" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="CU4" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="CV4" s="39" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:125" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -6719,7 +6716,7 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6728,7 +6725,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>11</v>
@@ -6737,7 +6734,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -6746,13 +6743,13 @@
         <v>4</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" s="18"/>
     </row>
@@ -7469,7 +7466,7 @@
       </c>
       <c r="C2"/>
       <c r="F2" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="96"/>
       <c r="H2" s="97"/>
@@ -7481,7 +7478,7 @@
       </c>
       <c r="C3" s="99"/>
       <c r="F3" s="100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="100"/>
       <c r="H3" s="43">
@@ -7497,7 +7494,7 @@
         <v>empresa</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="102"/>
       <c r="H4" s="43">
@@ -7506,14 +7503,14 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="47">
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="102"/>
       <c r="H5" s="43">
@@ -7522,14 +7519,14 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="49">
         <f>+C5</f>
         <v>0</v>
       </c>
       <c r="F6" s="103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="103"/>
       <c r="H6" s="43">
@@ -7546,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="52">
         <v>0.06</v>
@@ -7565,11 +7562,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="95"/>
       <c r="H8" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7627,7 +7624,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
@@ -7645,22 +7642,22 @@
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
         <v>198</v>
       </c>
-      <c r="C4" t="s">
-        <v>199</v>
-      </c>
       <c r="D4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" t="s">
         <v>230</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>231</v>
       </c>
-      <c r="F4" t="s">
-        <v>232</v>
-      </c>
       <c r="G4" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
@@ -7669,16 +7666,16 @@
     </row>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
@@ -7687,19 +7684,19 @@
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>2</v>
@@ -7711,16 +7708,16 @@
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
@@ -7729,16 +7726,16 @@
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
@@ -7747,19 +7744,19 @@
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>16</v>
@@ -7771,22 +7768,22 @@
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
@@ -7795,22 +7792,22 @@
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
@@ -7819,16 +7816,16 @@
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
@@ -7837,19 +7834,19 @@
     </row>
     <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>11</v>
@@ -7861,19 +7858,19 @@
     </row>
     <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>13</v>
@@ -7885,19 +7882,19 @@
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>12</v>
@@ -7909,22 +7906,22 @@
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
@@ -7933,2490 +7930,2490 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" s="58"/>
       <c r="G17" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
       <c r="M17" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
       <c r="M18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" t="s">
         <v>109</v>
       </c>
-      <c r="N18" t="s">
-        <v>110</v>
-      </c>
       <c r="O18" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P18" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q18" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P18" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q18" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="58" t="str">
         <f>+P18</f>
         <v xml:space="preserve">fTExtra2V  </v>
       </c>
       <c r="F19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O19" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P19" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q19" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P19" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q19" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" s="58" t="str">
         <f t="shared" ref="E20:E60" si="0">+P19</f>
         <v xml:space="preserve">fTExtra3V  </v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O20" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P20" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P20" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q20" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O21" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P21" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q21" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P21" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q21" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O22" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P22" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q22" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P22" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q22" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O23" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P23" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q23" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P23" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q23" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O24" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P24" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q24" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P24" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q24" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O25" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P25" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q25" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P25" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O26" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q26" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P26" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q26" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O27" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q27" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P27" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q27" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O28" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q28" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P28" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q28" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E29" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O29" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P29" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q29" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P29" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q29" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O30" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P30" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q30" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P30" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q30" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O31" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P31" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q31" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P31" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q31" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E32" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O32" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P32" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q32" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P32" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q32" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
       <c r="F33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P33" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q33" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P33" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q33" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E34" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
       <c r="F34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P34" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q34" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P34" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q34" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E35" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
       <c r="F35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P35" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q35" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P35" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q35" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E36" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
       <c r="F36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P36" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q36" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P36" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q36" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E37" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
       <c r="F37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P37" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q37" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P37" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q37" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E38" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P38" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q38" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P38" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q38" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E39" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O39" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P39" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q39" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P39" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q39" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
       <c r="F40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O40" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P40" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q40" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P40" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q40" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E41" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
       <c r="F41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O41" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P41" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q41" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P41" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q41" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E42" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
       <c r="F42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O42" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P42" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q42" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P42" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q42" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
       <c r="F43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O43" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P43" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q43" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P43" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q43" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E44" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
       <c r="F44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O44" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P44" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q44" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P44" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q44" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E45" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O45" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P45" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q45" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P45" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q45" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O46" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P46" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q46" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P46" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q46" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
       <c r="F47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O47" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P47" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q47" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P47" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q47" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E48" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
       <c r="F48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O48" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P48" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q48" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P48" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q48" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E49" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O49" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P49" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q49" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P49" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q49" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E50" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
       <c r="F50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O50" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P50" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q50" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P50" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q50" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E51" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O51" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P51" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q51" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P51" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q51" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E52" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O52" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P52" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q52" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P52" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q52" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O53" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P53" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q53" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P53" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q53" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O54" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P54" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q54" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P54" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q54" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E55" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O55" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P55" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q55" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P55" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q55" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E56" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O56" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P56" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q56" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P56" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q56" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E57" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
       <c r="F57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O57" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P57" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q57" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P57" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q57" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E58" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
       <c r="F58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O58" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P58" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q58" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P58" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q58" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E59" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
       <c r="F59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O59" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P59" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q59" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P59" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q59" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
       <c r="F60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O60" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P60" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q60" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P60" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q60" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E61" s="58"/>
       <c r="M61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O61" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P61" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q61" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P61" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q61" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E62" s="58" t="str">
         <f t="shared" ref="E62:E74" si="1">+P60</f>
         <v xml:space="preserve">fIncapacidad </v>
       </c>
       <c r="F62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O62" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P62" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q62" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P62" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q62" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E63" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fIsr </v>
       </c>
       <c r="F63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O63" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P63" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q63" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P63" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q63" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E64" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fImss </v>
       </c>
       <c r="F64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O64" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P64" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q64" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P64" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q64" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E65" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavit </v>
       </c>
       <c r="F65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O65" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P65" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q65" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P65" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q65" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E66" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavitBanterior </v>
       </c>
       <c r="F66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O66" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P66" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q66" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P66" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q66" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E67" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fAjusteInfonavit </v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O67" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P67" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q67" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P67" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q67" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E68" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPensionAlimenticia </v>
       </c>
       <c r="F68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O68" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P68" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q68" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P68" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q68" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E69" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPrestamo </v>
       </c>
       <c r="F69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O69" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P69" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q69" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P69" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q69" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E70" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fFonacot </v>
       </c>
       <c r="F70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O70" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P70" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q70" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P70" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q70" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E71" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fT_No_laborado </v>
       </c>
       <c r="F71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O71" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P71" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q71" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P71" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q71" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E72" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fCuotaSindical </v>
       </c>
       <c r="F72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O72" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P72" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q72" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P72" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q72" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E73" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioGenerado </v>
       </c>
       <c r="F73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O73" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P73" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q73" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P73" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q73" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E74" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioAplicado </v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O74" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P74" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q74" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P74" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q74" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E75" s="58"/>
       <c r="M75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O75" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P75" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q75" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P75" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q75" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D76" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E76" s="58"/>
       <c r="M76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O76" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P76" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q76" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P76" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q76" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E77" s="58" t="str">
         <f t="shared" ref="E77:E85" si="2">+P74</f>
         <v xml:space="preserve">fPrestamoPerA </v>
       </c>
       <c r="F77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O77" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P77" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q77" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P77" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q77" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E78" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAdeudoInfonavitA </v>
       </c>
       <c r="F78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O78" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P78" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q78" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P78" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q78" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E79" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fDiferenciaInfonavitA </v>
       </c>
       <c r="F79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O79" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P79" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q79" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P79" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q79" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E80" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAsimilados </v>
       </c>
       <c r="F80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O80" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P80" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q80" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P80" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q80" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E81" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fRetencionOperadora </v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O81" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P81" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q81" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P81" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q81" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E82" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fPorComision </v>
       </c>
       <c r="F82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O82" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P82" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q82" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P82" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q82" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E83" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionOperadora </v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O83" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P83" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q83" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P83" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q83" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E84" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionAsimilados </v>
       </c>
       <c r="F84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O84" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P84" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q84" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P84" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q84" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E85" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fImssCS </v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O85" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P85" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q85" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P85" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q85" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E86" s="58" t="str">
         <f t="shared" ref="E86:E88" si="3">+P83</f>
         <v xml:space="preserve">fRcvCS </v>
       </c>
       <c r="F86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M86" t="s">
+        <v>177</v>
+      </c>
+      <c r="N86" t="s">
+        <v>109</v>
+      </c>
+      <c r="O86" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P86" t="s">
         <v>178</v>
       </c>
-      <c r="N86" t="s">
-        <v>110</v>
-      </c>
-      <c r="O86" s="59" t="s">
+      <c r="Q86" s="59" t="s">
         <v>377</v>
-      </c>
-      <c r="P86" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q86" s="59" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E87" s="58" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInfonavitCS </v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M87" t="s">
+        <v>179</v>
+      </c>
+      <c r="N87" t="s">
         <v>180</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P87" t="s">
         <v>181</v>
-      </c>
-      <c r="O87" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="P87" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E88" s="58" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInsCS </v>
       </c>
       <c r="F88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M88" t="s">
+        <v>185</v>
+      </c>
+      <c r="N88" t="s">
         <v>186</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="P88" t="s">
         <v>187</v>
       </c>
-      <c r="O88" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="P88" t="s">
-        <v>188</v>
-      </c>
       <c r="R88" t="s">
+        <v>182</v>
+      </c>
+      <c r="S88" t="s">
         <v>183</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>184</v>
-      </c>
-      <c r="T88" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M89" t="s">
+        <v>194</v>
+      </c>
+      <c r="N89" t="s">
         <v>195</v>
       </c>
-      <c r="N89" t="s">
-        <v>196</v>
-      </c>
       <c r="O89" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R89" t="s">
+        <v>188</v>
+      </c>
+      <c r="S89" t="s">
         <v>189</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>190</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>191</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>192</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
+        <v>191</v>
+      </c>
+      <c r="X89" t="s">
         <v>193</v>
-      </c>
-      <c r="W89" t="s">
-        <v>192</v>
-      </c>
-      <c r="X89" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E90" s="58" t="str">
         <f>+P86</f>
         <v xml:space="preserve">fTotalCostoSocial </v>
       </c>
       <c r="F90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O90" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -10446,7 +10443,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>28</v>
@@ -10484,7 +10481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -10510,82 +10507,82 @@
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
       <c r="G2" s="73" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="104" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
       <c r="E8" s="104"/>
       <c r="F8" s="105"/>
       <c r="G8" s="104" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K8" s="104"/>
       <c r="L8" s="104"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="D9" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="E9" s="75" t="s">
         <v>452</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="F9" s="76" t="s">
-        <v>454</v>
-      </c>
       <c r="G9" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="H9" s="75" t="s">
-        <v>451</v>
-      </c>
       <c r="I9" s="76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J9" s="77" t="s">
+        <v>449</v>
+      </c>
+      <c r="K9" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="K9" s="75" t="s">
-        <v>451</v>
-      </c>
       <c r="L9" s="75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="78" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C10" s="79">
         <f>+D10+E10</f>
@@ -10600,14 +10597,14 @@
       <c r="H10" s="81"/>
       <c r="I10" s="82"/>
       <c r="J10" s="83" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="84"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C11" s="85">
         <f t="shared" ref="C11:C26" si="0">+D11+E11</f>
@@ -10622,14 +10619,14 @@
       <c r="H11" s="68"/>
       <c r="I11" s="88"/>
       <c r="J11" s="83" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K11" s="68"/>
       <c r="L11" s="89"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C12" s="85">
         <f t="shared" si="0"/>
@@ -10639,19 +10636,19 @@
       <c r="E12" s="85"/>
       <c r="F12" s="86"/>
       <c r="G12" s="87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H12" s="68"/>
       <c r="I12" s="88"/>
       <c r="J12" s="83" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K12" s="68"/>
       <c r="L12" s="89"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="87" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C13" s="85">
         <f t="shared" si="0"/>
@@ -10661,12 +10658,12 @@
       <c r="E13" s="85"/>
       <c r="F13" s="86"/>
       <c r="G13" s="87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="88"/>
       <c r="J13" s="83" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K13" s="68"/>
       <c r="L13" s="89"/>
@@ -10688,14 +10685,14 @@
       <c r="H14" s="68"/>
       <c r="I14" s="88"/>
       <c r="J14" s="83" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K14" s="68"/>
       <c r="L14" s="89"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="87" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C15" s="85">
         <f t="shared" si="0"/>
@@ -10705,7 +10702,7 @@
       <c r="E15" s="85"/>
       <c r="F15" s="86"/>
       <c r="G15" s="87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="88"/>
@@ -10715,7 +10712,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="87" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C16" s="85">
         <f t="shared" si="0"/>
@@ -10735,7 +10732,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C17" s="85">
         <f t="shared" si="0"/>
@@ -10755,7 +10752,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="87" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C18" s="85">
         <f t="shared" si="0"/>
@@ -10765,7 +10762,7 @@
       <c r="E18" s="85"/>
       <c r="F18" s="86"/>
       <c r="G18" s="87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="88"/>
@@ -10775,7 +10772,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="87" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C19" s="85">
         <f t="shared" si="0"/>
@@ -10785,7 +10782,7 @@
       <c r="E19" s="85"/>
       <c r="F19" s="86"/>
       <c r="G19" s="87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="68"/>
       <c r="I19" s="88"/>
@@ -10795,7 +10792,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="87" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C20" s="85">
         <f t="shared" si="0"/>
@@ -10805,7 +10802,7 @@
       <c r="E20" s="85"/>
       <c r="F20" s="86"/>
       <c r="G20" s="87" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="88"/>
@@ -10815,7 +10812,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="87" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C21" s="85">
         <f t="shared" si="0"/>
@@ -10833,7 +10830,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="87" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="0"/>
@@ -10851,7 +10848,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="87" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -10869,7 +10866,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="87" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C24" s="85">
         <f t="shared" si="0"/>
@@ -10887,7 +10884,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C25" s="85">
         <f t="shared" si="0"/>
@@ -10905,7 +10902,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C26" s="91">
         <f t="shared" si="0"/>
@@ -10929,7 +10926,7 @@
     </row>
     <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C29" s="71">
         <f>+SUM(C10:C26)</f>
@@ -10945,7 +10942,7 @@
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H29" s="71">
         <f>+SUM(H10:H20)</f>
@@ -10953,7 +10950,7 @@
       </c>
       <c r="I29" s="71"/>
       <c r="J29" s="94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K29" s="71">
         <f>+SUM(K10:K26)</f>
@@ -10963,7 +10960,7 @@
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C36" s="71">
         <f>+C29-H29</f>
@@ -10974,7 +10971,7 @@
     </row>
     <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C37" s="71">
         <f>+C36</f>
@@ -10985,7 +10982,7 @@
     </row>
     <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C38" s="71">
         <f>+D29</f>
@@ -10996,7 +10993,7 @@
     </row>
     <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C39" s="71">
         <f>+H20</f>
@@ -11007,7 +11004,7 @@
     </row>
     <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C40" s="71">
         <f>[4]FACT!H4</f>
@@ -11018,7 +11015,7 @@
     </row>
     <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="94" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C41" s="71">
         <f>+[4]FACT!H5</f>
@@ -11053,968 +11050,968 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E49" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E51" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E52" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E53" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E54" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E55" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E56" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E60" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E61" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E62" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E63" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E66" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E67" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C68" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E68" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E69" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E70" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>EXEDENTE</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -1436,6 +1433,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>EXCEDENTE</t>
   </si>
 </sst>
 </file>
@@ -5922,11 +5922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:DU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="CC5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AR5" sqref="AR5"/>
+      <selection pane="bottomRight" activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6198,7 +6198,7 @@
         <v>61</v>
       </c>
       <c r="AR4" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AS4" s="31" t="s">
         <v>62</v>
@@ -6249,7 +6249,7 @@
         <v>13</v>
       </c>
       <c r="BI4" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BJ4" s="31" t="s">
         <v>74</v>
@@ -6282,7 +6282,7 @@
         <v>80</v>
       </c>
       <c r="BT4" s="62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BU4" s="31" t="s">
         <v>81</v>
@@ -6291,16 +6291,16 @@
         <v>82</v>
       </c>
       <c r="BW4" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BX4" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BY4" s="31" t="s">
         <v>83</v>
       </c>
       <c r="BZ4" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="CA4" s="31" t="s">
         <v>91</v>
@@ -6309,22 +6309,22 @@
         <v>92</v>
       </c>
       <c r="CC4" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="CD4" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="CD4" s="31" t="s">
-        <v>413</v>
-      </c>
       <c r="CE4" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="CF4" s="31" t="s">
         <v>401</v>
-      </c>
-      <c r="CF4" s="31" t="s">
-        <v>402</v>
       </c>
       <c r="CG4" s="40" t="s">
         <v>93</v>
       </c>
       <c r="CH4" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CI4" s="31" t="s">
         <v>84</v>
@@ -6345,28 +6345,28 @@
         <v>89</v>
       </c>
       <c r="CO4" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="CP4" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ4" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="CR4" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="CS4" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="CT4" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="CU4" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="CV4" s="39" t="s">
         <v>415</v>
-      </c>
-      <c r="CP4" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="CQ4" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="CR4" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="CS4" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="CT4" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="CU4" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="CV4" s="39" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:125" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -6681,8 +6681,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B3:P56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6734,7 +6734,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -6743,10 +6743,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>102</v>
+        <v>461</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>89</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="102"/>
       <c r="H5" s="43">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="G8" s="95"/>
       <c r="H8" s="55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7624,7 +7624,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
@@ -7642,22 +7642,22 @@
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
         <v>197</v>
       </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" t="s">
         <v>229</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>230</v>
       </c>
-      <c r="F4" t="s">
-        <v>231</v>
-      </c>
       <c r="G4" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
@@ -7666,16 +7666,16 @@
     </row>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
@@ -7684,19 +7684,19 @@
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>2</v>
@@ -7708,16 +7708,16 @@
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
@@ -7726,16 +7726,16 @@
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
@@ -7744,19 +7744,19 @@
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>16</v>
@@ -7768,22 +7768,22 @@
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
@@ -7792,22 +7792,22 @@
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
@@ -7816,16 +7816,16 @@
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
@@ -7834,19 +7834,19 @@
     </row>
     <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>11</v>
@@ -7858,19 +7858,19 @@
     </row>
     <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>13</v>
@@ -7882,19 +7882,19 @@
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>12</v>
@@ -7906,22 +7906,22 @@
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
@@ -7930,2490 +7930,2490 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E17" s="58"/>
       <c r="G17" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
       <c r="M17" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
       <c r="M18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" t="s">
         <v>108</v>
       </c>
-      <c r="N18" t="s">
-        <v>109</v>
-      </c>
       <c r="O18" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P18" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q18" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P18" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q18" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="58" t="str">
         <f>+P18</f>
         <v xml:space="preserve">fTExtra2V  </v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O19" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P19" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q19" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P19" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q19" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="58" t="str">
         <f t="shared" ref="E20:E60" si="0">+P19</f>
         <v xml:space="preserve">fTExtra3V  </v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O20" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P20" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q20" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P20" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q20" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O21" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P21" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q21" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P21" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q21" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O22" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P22" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q22" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P22" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O23" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P23" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q23" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P23" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q23" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O24" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P24" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q24" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P24" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q24" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O25" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P25" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q25" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P25" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O26" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q26" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P26" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q26" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O27" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q27" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P27" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q27" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O28" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P28" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q28" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P28" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q28" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O29" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q29" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P29" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q29" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O30" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q30" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P30" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q30" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O31" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P31" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q31" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P31" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q31" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O32" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P32" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q32" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P32" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q32" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E33" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P33" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q33" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P33" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q33" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E34" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P34" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q34" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P34" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q34" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E35" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
       <c r="F35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P35" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q35" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P35" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q35" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P36" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q36" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P36" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q36" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E37" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P37" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q37" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P37" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q37" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E38" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O38" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P38" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q38" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P38" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q38" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E39" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
       <c r="F39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O39" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P39" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q39" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P39" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q39" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E40" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
       <c r="F40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O40" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P40" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q40" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P40" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q40" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E41" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
       <c r="F41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O41" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P41" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q41" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P41" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q41" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E42" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
       <c r="F42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O42" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P42" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q42" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P42" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q42" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E43" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
       <c r="F43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O43" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P43" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q43" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P43" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q43" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E44" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
       <c r="F44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O44" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P44" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q44" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P44" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q44" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O45" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P45" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q45" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P45" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q45" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E46" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O46" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P46" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q46" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P46" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q46" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E47" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O47" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P47" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q47" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P47" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q47" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E48" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
       <c r="F48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O48" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P48" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q48" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P48" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q48" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E49" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
       <c r="F49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O49" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P49" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q49" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P49" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q49" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E50" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
       <c r="F50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O50" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P50" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q50" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P50" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q50" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E51" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
       <c r="F51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O51" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P51" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q51" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P51" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q51" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E52" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
       <c r="F52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O52" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P52" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q52" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P52" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q52" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
       <c r="F53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O53" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P53" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q53" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P53" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q53" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E54" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
       <c r="F54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O54" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P54" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q54" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P54" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q54" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E55" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
       <c r="F55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O55" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P55" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q55" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P55" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q55" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E56" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O56" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P56" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q56" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P56" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q56" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E57" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
       <c r="F57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O57" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P57" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q57" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P57" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q57" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
       <c r="F58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O58" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P58" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q58" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P58" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q58" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
       <c r="F59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O59" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P59" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q59" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P59" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q59" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E60" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
       <c r="F60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O60" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P60" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q60" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P60" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q60" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E61" s="58"/>
       <c r="M61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O61" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P61" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q61" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P61" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q61" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E62" s="58" t="str">
         <f t="shared" ref="E62:E74" si="1">+P60</f>
         <v xml:space="preserve">fIncapacidad </v>
       </c>
       <c r="F62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O62" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P62" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q62" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P62" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q62" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E63" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fIsr </v>
       </c>
       <c r="F63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O63" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P63" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q63" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P63" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q63" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E64" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fImss </v>
       </c>
       <c r="F64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O64" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P64" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q64" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P64" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q64" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E65" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavit </v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O65" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P65" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q65" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P65" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q65" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E66" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavitBanterior </v>
       </c>
       <c r="F66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O66" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P66" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q66" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P66" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q66" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E67" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fAjusteInfonavit </v>
       </c>
       <c r="F67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O67" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P67" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q67" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P67" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q67" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E68" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPensionAlimenticia </v>
       </c>
       <c r="F68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O68" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P68" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q68" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P68" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q68" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E69" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPrestamo </v>
       </c>
       <c r="F69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O69" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P69" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q69" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P69" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q69" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E70" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fFonacot </v>
       </c>
       <c r="F70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O70" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P70" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q70" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P70" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q70" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E71" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fT_No_laborado </v>
       </c>
       <c r="F71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O71" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P71" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q71" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P71" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q71" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E72" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fCuotaSindical </v>
       </c>
       <c r="F72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O72" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P72" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q72" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P72" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q72" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E73" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioGenerado </v>
       </c>
       <c r="F73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O73" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P73" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q73" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P73" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q73" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E74" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioAplicado </v>
       </c>
       <c r="F74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O74" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P74" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q74" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P74" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q74" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E75" s="58"/>
       <c r="M75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O75" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P75" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q75" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P75" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q75" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D76" s="59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E76" s="58"/>
       <c r="M76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O76" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P76" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q76" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P76" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q76" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E77" s="58" t="str">
         <f t="shared" ref="E77:E85" si="2">+P74</f>
         <v xml:space="preserve">fPrestamoPerA </v>
       </c>
       <c r="F77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O77" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P77" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q77" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P77" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q77" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E78" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAdeudoInfonavitA </v>
       </c>
       <c r="F78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O78" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P78" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q78" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P78" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q78" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E79" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fDiferenciaInfonavitA </v>
       </c>
       <c r="F79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O79" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P79" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q79" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P79" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q79" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E80" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAsimilados </v>
       </c>
       <c r="F80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O80" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P80" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q80" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P80" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q80" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E81" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fRetencionOperadora </v>
       </c>
       <c r="F81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O81" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P81" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q81" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P81" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q81" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E82" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fPorComision </v>
       </c>
       <c r="F82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O82" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P82" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q82" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P82" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q82" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E83" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionOperadora </v>
       </c>
       <c r="F83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O83" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P83" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q83" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P83" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q83" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E84" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionAsimilados </v>
       </c>
       <c r="F84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O84" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P84" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q84" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P84" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q84" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E85" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fImssCS </v>
       </c>
       <c r="F85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O85" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P85" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q85" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P85" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q85" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E86" s="58" t="str">
         <f t="shared" ref="E86:E88" si="3">+P83</f>
         <v xml:space="preserve">fRcvCS </v>
       </c>
       <c r="F86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M86" t="s">
+        <v>176</v>
+      </c>
+      <c r="N86" t="s">
+        <v>108</v>
+      </c>
+      <c r="O86" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P86" t="s">
         <v>177</v>
       </c>
-      <c r="N86" t="s">
-        <v>109</v>
-      </c>
-      <c r="O86" s="59" t="s">
+      <c r="Q86" s="59" t="s">
         <v>376</v>
-      </c>
-      <c r="P86" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q86" s="59" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E87" s="58" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInfonavitCS </v>
       </c>
       <c r="F87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M87" t="s">
+        <v>178</v>
+      </c>
+      <c r="N87" t="s">
         <v>179</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P87" t="s">
         <v>180</v>
-      </c>
-      <c r="O87" s="59" t="s">
-        <v>376</v>
-      </c>
-      <c r="P87" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E88" s="58" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInsCS </v>
       </c>
       <c r="F88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M88" t="s">
+        <v>184</v>
+      </c>
+      <c r="N88" t="s">
         <v>185</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="P88" t="s">
         <v>186</v>
       </c>
-      <c r="O88" s="59" t="s">
-        <v>376</v>
-      </c>
-      <c r="P88" t="s">
-        <v>187</v>
-      </c>
       <c r="R88" t="s">
+        <v>181</v>
+      </c>
+      <c r="S88" t="s">
         <v>182</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>183</v>
-      </c>
-      <c r="T88" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M89" t="s">
+        <v>193</v>
+      </c>
+      <c r="N89" t="s">
         <v>194</v>
       </c>
-      <c r="N89" t="s">
-        <v>195</v>
-      </c>
       <c r="O89" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R89" t="s">
+        <v>187</v>
+      </c>
+      <c r="S89" t="s">
         <v>188</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>189</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>190</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>191</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
+        <v>190</v>
+      </c>
+      <c r="X89" t="s">
         <v>192</v>
-      </c>
-      <c r="W89" t="s">
-        <v>191</v>
-      </c>
-      <c r="X89" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E90" s="58" t="str">
         <f>+P86</f>
         <v xml:space="preserve">fTotalCostoSocial </v>
       </c>
       <c r="F90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O90" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -10443,7 +10443,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>28</v>
@@ -10481,7 +10481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -10507,82 +10507,82 @@
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
       <c r="G2" s="73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="104" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
       <c r="E8" s="104"/>
       <c r="F8" s="105"/>
       <c r="G8" s="104" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K8" s="104"/>
       <c r="L8" s="104"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="75" t="s">
         <v>449</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="D9" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="E9" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="F9" s="76" t="s">
-        <v>453</v>
-      </c>
       <c r="G9" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>449</v>
       </c>
-      <c r="H9" s="75" t="s">
-        <v>450</v>
-      </c>
       <c r="I9" s="76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J9" s="77" t="s">
+        <v>448</v>
+      </c>
+      <c r="K9" s="75" t="s">
         <v>449</v>
       </c>
-      <c r="K9" s="75" t="s">
-        <v>450</v>
-      </c>
       <c r="L9" s="75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="78" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C10" s="79">
         <f>+D10+E10</f>
@@ -10597,14 +10597,14 @@
       <c r="H10" s="81"/>
       <c r="I10" s="82"/>
       <c r="J10" s="83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="84"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C11" s="85">
         <f t="shared" ref="C11:C26" si="0">+D11+E11</f>
@@ -10619,14 +10619,14 @@
       <c r="H11" s="68"/>
       <c r="I11" s="88"/>
       <c r="J11" s="83" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K11" s="68"/>
       <c r="L11" s="89"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="83" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C12" s="85">
         <f t="shared" si="0"/>
@@ -10636,19 +10636,19 @@
       <c r="E12" s="85"/>
       <c r="F12" s="86"/>
       <c r="G12" s="87" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H12" s="68"/>
       <c r="I12" s="88"/>
       <c r="J12" s="83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K12" s="68"/>
       <c r="L12" s="89"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C13" s="85">
         <f t="shared" si="0"/>
@@ -10658,12 +10658,12 @@
       <c r="E13" s="85"/>
       <c r="F13" s="86"/>
       <c r="G13" s="87" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="88"/>
       <c r="J13" s="83" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K13" s="68"/>
       <c r="L13" s="89"/>
@@ -10685,14 +10685,14 @@
       <c r="H14" s="68"/>
       <c r="I14" s="88"/>
       <c r="J14" s="83" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K14" s="68"/>
       <c r="L14" s="89"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="87" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C15" s="85">
         <f t="shared" si="0"/>
@@ -10702,7 +10702,7 @@
       <c r="E15" s="85"/>
       <c r="F15" s="86"/>
       <c r="G15" s="87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="88"/>
@@ -10712,7 +10712,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="87" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C16" s="85">
         <f t="shared" si="0"/>
@@ -10732,7 +10732,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="87" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C17" s="85">
         <f t="shared" si="0"/>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C18" s="85">
         <f t="shared" si="0"/>
@@ -10762,7 +10762,7 @@
       <c r="E18" s="85"/>
       <c r="F18" s="86"/>
       <c r="G18" s="87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="88"/>
@@ -10772,7 +10772,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="87" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C19" s="85">
         <f t="shared" si="0"/>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="87" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C20" s="85">
         <f t="shared" si="0"/>
@@ -10802,7 +10802,7 @@
       <c r="E20" s="85"/>
       <c r="F20" s="86"/>
       <c r="G20" s="87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="88"/>
@@ -10812,7 +10812,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="87" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C21" s="85">
         <f t="shared" si="0"/>
@@ -10830,7 +10830,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="87" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="0"/>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="87" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="87" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C24" s="85">
         <f t="shared" si="0"/>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="87" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25" s="85">
         <f t="shared" si="0"/>
@@ -10902,7 +10902,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C26" s="91">
         <f t="shared" si="0"/>
@@ -10926,7 +10926,7 @@
     </row>
     <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="94" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C29" s="71">
         <f>+SUM(C10:C26)</f>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H29" s="71">
         <f>+SUM(H10:H20)</f>
@@ -10950,7 +10950,7 @@
       </c>
       <c r="I29" s="71"/>
       <c r="J29" s="94" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K29" s="71">
         <f>+SUM(K10:K26)</f>
@@ -10960,7 +10960,7 @@
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C36" s="71">
         <f>+C29-H29</f>
@@ -10971,7 +10971,7 @@
     </row>
     <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C37" s="71">
         <f>+C36</f>
@@ -10982,7 +10982,7 @@
     </row>
     <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C38" s="71">
         <f>+D29</f>
@@ -10993,7 +10993,7 @@
     </row>
     <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C39" s="71">
         <f>+H20</f>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C40" s="71">
         <f>[4]FACT!H4</f>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C41" s="71">
         <f>+[4]FACT!H5</f>
@@ -11050,968 +11050,968 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E49" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E52" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E53" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E54" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E55" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E56" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E60" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E61" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E62" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E63" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E66" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E67" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C68" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E68" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E69" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E70" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -29,6 +29,7 @@
   <definedNames>
     <definedName name="__TC1">[1]FOR!$B$9</definedName>
     <definedName name="__TC2">[1]FOR!$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DETALLE!$B$5:$M$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PENSION ALIMENTICIA'!$A$1:$H$1</definedName>
     <definedName name="_TC1">[2]FOR!$B$9</definedName>
     <definedName name="_TC2">[2]FOR!$B$10</definedName>
@@ -6681,8 +6682,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B3:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6696,7 +6697,7 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="14" width="11.42578125" style="2"/>
@@ -7433,6 +7434,7 @@
       <c r="L56" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:M5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -5923,11 +5923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:DU5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="CC5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AI17" sqref="AI17"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5944,13 +5944,20 @@
     <col min="12" max="12" width="19.85546875" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="71" max="71" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" customWidth="1"/>
+    <col min="40" max="43" width="14.42578125" customWidth="1"/>
+    <col min="71" max="71" width="19" customWidth="1"/>
+    <col min="72" max="72" width="17.7109375" customWidth="1"/>
     <col min="81" max="81" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="14.85546875" customWidth="1"/>
-    <col min="85" max="85" width="15.7109375" customWidth="1"/>
+    <col min="84" max="84" width="15.85546875" customWidth="1"/>
+    <col min="85" max="85" width="19.140625" customWidth="1"/>
     <col min="91" max="91" width="14" customWidth="1"/>
-    <col min="92" max="92" width="13.7109375" customWidth="1"/>
-    <col min="93" max="93" width="15.7109375" customWidth="1"/>
+    <col min="92" max="92" width="16.28515625" customWidth="1"/>
+    <col min="93" max="93" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:125" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6682,7 +6689,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B3:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -5923,7 +5923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:DU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -6689,8 +6689,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B3:P56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/TMME.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\TMMSQ\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programacion\Desarrollo\TMMSQ\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A30141-2CCC-46FC-A4DB-998DE82389BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="648" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOMINA" sheetId="38" r:id="rId1"/>
@@ -46,7 +47,20 @@
     <definedName name="TCF">[2]FOR!$B$8</definedName>
     <definedName name="VSDF">[2]FOR!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -341,9 +355,6 @@
     <t>NOMINA SA:</t>
   </si>
   <si>
-    <t>AGENCIA GROESSINGER SAPI DE CV</t>
-  </si>
-  <si>
     <t>BENEFICIO SINDICAL:</t>
   </si>
   <si>
@@ -1437,12 +1448,15 @@
   </si>
   <si>
     <t>EXCEDENTE</t>
+  </si>
+  <si>
+    <t>ASESORÍA Y CONSULTORÍA MACHT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -3665,1500 +3679,1500 @@
     </xf>
   </cellXfs>
   <cellStyles count="1494">
-    <cellStyle name="Comma_2 SALARIOS" xfId="1491"/>
+    <cellStyle name="Comma_2 SALARIOS" xfId="1491" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Encabezado 1" xfId="1493" builtinId="16"/>
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
-    <cellStyle name="Millares 2" xfId="3"/>
-    <cellStyle name="Millares 2 2" xfId="4"/>
-    <cellStyle name="Millares 2 2 10" xfId="5"/>
-    <cellStyle name="Millares 2 2 10 2" xfId="6"/>
-    <cellStyle name="Millares 2 2 11" xfId="7"/>
-    <cellStyle name="Millares 2 2 11 2" xfId="8"/>
-    <cellStyle name="Millares 2 2 12" xfId="9"/>
-    <cellStyle name="Millares 2 2 12 2" xfId="10"/>
-    <cellStyle name="Millares 2 2 13" xfId="11"/>
-    <cellStyle name="Millares 2 2 13 2" xfId="12"/>
-    <cellStyle name="Millares 2 2 14" xfId="13"/>
-    <cellStyle name="Millares 2 2 14 2" xfId="14"/>
-    <cellStyle name="Millares 2 2 15" xfId="15"/>
-    <cellStyle name="Millares 2 2 15 2" xfId="16"/>
-    <cellStyle name="Millares 2 2 16" xfId="17"/>
-    <cellStyle name="Millares 2 2 16 2" xfId="18"/>
-    <cellStyle name="Millares 2 2 17" xfId="19"/>
-    <cellStyle name="Millares 2 2 17 2" xfId="20"/>
-    <cellStyle name="Millares 2 2 18" xfId="21"/>
-    <cellStyle name="Millares 2 2 18 2" xfId="22"/>
-    <cellStyle name="Millares 2 2 19" xfId="23"/>
-    <cellStyle name="Millares 2 2 19 2" xfId="24"/>
-    <cellStyle name="Millares 2 2 2" xfId="25"/>
-    <cellStyle name="Millares 2 2 2 2" xfId="26"/>
-    <cellStyle name="Millares 2 2 20" xfId="27"/>
-    <cellStyle name="Millares 2 2 20 2" xfId="28"/>
-    <cellStyle name="Millares 2 2 21" xfId="29"/>
-    <cellStyle name="Millares 2 2 21 2" xfId="30"/>
-    <cellStyle name="Millares 2 2 22" xfId="31"/>
-    <cellStyle name="Millares 2 2 22 2" xfId="32"/>
-    <cellStyle name="Millares 2 2 23" xfId="33"/>
-    <cellStyle name="Millares 2 2 3" xfId="34"/>
-    <cellStyle name="Millares 2 2 3 2" xfId="35"/>
-    <cellStyle name="Millares 2 2 4" xfId="36"/>
-    <cellStyle name="Millares 2 2 4 2" xfId="37"/>
-    <cellStyle name="Millares 2 2 5" xfId="38"/>
-    <cellStyle name="Millares 2 2 5 2" xfId="39"/>
-    <cellStyle name="Millares 2 2 6" xfId="40"/>
-    <cellStyle name="Millares 2 2 6 2" xfId="41"/>
-    <cellStyle name="Millares 2 2 7" xfId="42"/>
-    <cellStyle name="Millares 2 2 7 2" xfId="43"/>
-    <cellStyle name="Millares 2 2 8" xfId="44"/>
-    <cellStyle name="Millares 2 2 8 2" xfId="45"/>
-    <cellStyle name="Millares 2 2 9" xfId="46"/>
-    <cellStyle name="Millares 2 2 9 2" xfId="47"/>
-    <cellStyle name="Millares 2 3" xfId="48"/>
-    <cellStyle name="Millares 2 3 2" xfId="49"/>
-    <cellStyle name="Millares 2 4" xfId="50"/>
-    <cellStyle name="Millares 2 4 2" xfId="51"/>
-    <cellStyle name="Millares 2 5" xfId="52"/>
-    <cellStyle name="Millares 2 5 2" xfId="53"/>
-    <cellStyle name="Millares 2 6" xfId="1489"/>
-    <cellStyle name="Millares 20" xfId="1492"/>
-    <cellStyle name="Millares 3" xfId="54"/>
-    <cellStyle name="Millares 3 10" xfId="55"/>
-    <cellStyle name="Millares 3 10 2" xfId="56"/>
-    <cellStyle name="Millares 3 11" xfId="57"/>
-    <cellStyle name="Millares 3 11 2" xfId="58"/>
-    <cellStyle name="Millares 3 12" xfId="59"/>
-    <cellStyle name="Millares 3 12 2" xfId="60"/>
-    <cellStyle name="Millares 3 13" xfId="61"/>
-    <cellStyle name="Millares 3 13 2" xfId="62"/>
-    <cellStyle name="Millares 3 14" xfId="63"/>
-    <cellStyle name="Millares 3 14 2" xfId="64"/>
-    <cellStyle name="Millares 3 15" xfId="65"/>
-    <cellStyle name="Millares 3 15 2" xfId="66"/>
-    <cellStyle name="Millares 3 16" xfId="67"/>
-    <cellStyle name="Millares 3 16 2" xfId="68"/>
-    <cellStyle name="Millares 3 17" xfId="69"/>
-    <cellStyle name="Millares 3 17 2" xfId="70"/>
-    <cellStyle name="Millares 3 18" xfId="71"/>
-    <cellStyle name="Millares 3 18 2" xfId="72"/>
-    <cellStyle name="Millares 3 19" xfId="73"/>
-    <cellStyle name="Millares 3 19 2" xfId="74"/>
-    <cellStyle name="Millares 3 2" xfId="75"/>
-    <cellStyle name="Millares 3 2 10" xfId="76"/>
-    <cellStyle name="Millares 3 2 10 2" xfId="77"/>
-    <cellStyle name="Millares 3 2 11" xfId="78"/>
-    <cellStyle name="Millares 3 2 11 2" xfId="79"/>
-    <cellStyle name="Millares 3 2 12" xfId="80"/>
-    <cellStyle name="Millares 3 2 12 2" xfId="81"/>
-    <cellStyle name="Millares 3 2 13" xfId="82"/>
-    <cellStyle name="Millares 3 2 13 2" xfId="83"/>
-    <cellStyle name="Millares 3 2 14" xfId="84"/>
-    <cellStyle name="Millares 3 2 14 2" xfId="85"/>
-    <cellStyle name="Millares 3 2 15" xfId="86"/>
-    <cellStyle name="Millares 3 2 15 2" xfId="87"/>
-    <cellStyle name="Millares 3 2 16" xfId="88"/>
-    <cellStyle name="Millares 3 2 16 2" xfId="89"/>
-    <cellStyle name="Millares 3 2 17" xfId="90"/>
-    <cellStyle name="Millares 3 2 17 2" xfId="91"/>
-    <cellStyle name="Millares 3 2 18" xfId="92"/>
-    <cellStyle name="Millares 3 2 18 2" xfId="93"/>
-    <cellStyle name="Millares 3 2 19" xfId="94"/>
-    <cellStyle name="Millares 3 2 19 2" xfId="95"/>
-    <cellStyle name="Millares 3 2 2" xfId="96"/>
-    <cellStyle name="Millares 3 2 2 2" xfId="97"/>
-    <cellStyle name="Millares 3 2 20" xfId="98"/>
-    <cellStyle name="Millares 3 2 20 2" xfId="99"/>
-    <cellStyle name="Millares 3 2 21" xfId="100"/>
-    <cellStyle name="Millares 3 2 21 2" xfId="101"/>
-    <cellStyle name="Millares 3 2 22" xfId="102"/>
-    <cellStyle name="Millares 3 2 22 2" xfId="103"/>
-    <cellStyle name="Millares 3 2 23" xfId="104"/>
-    <cellStyle name="Millares 3 2 3" xfId="105"/>
-    <cellStyle name="Millares 3 2 3 2" xfId="106"/>
-    <cellStyle name="Millares 3 2 4" xfId="107"/>
-    <cellStyle name="Millares 3 2 4 2" xfId="108"/>
-    <cellStyle name="Millares 3 2 5" xfId="109"/>
-    <cellStyle name="Millares 3 2 5 2" xfId="110"/>
-    <cellStyle name="Millares 3 2 6" xfId="111"/>
-    <cellStyle name="Millares 3 2 6 2" xfId="112"/>
-    <cellStyle name="Millares 3 2 7" xfId="113"/>
-    <cellStyle name="Millares 3 2 7 2" xfId="114"/>
-    <cellStyle name="Millares 3 2 8" xfId="115"/>
-    <cellStyle name="Millares 3 2 8 2" xfId="116"/>
-    <cellStyle name="Millares 3 2 9" xfId="117"/>
-    <cellStyle name="Millares 3 2 9 2" xfId="118"/>
-    <cellStyle name="Millares 3 20" xfId="119"/>
-    <cellStyle name="Millares 3 20 2" xfId="120"/>
-    <cellStyle name="Millares 3 21" xfId="121"/>
-    <cellStyle name="Millares 3 21 2" xfId="122"/>
-    <cellStyle name="Millares 3 22" xfId="123"/>
-    <cellStyle name="Millares 3 22 2" xfId="124"/>
-    <cellStyle name="Millares 3 23" xfId="125"/>
-    <cellStyle name="Millares 3 23 2" xfId="126"/>
-    <cellStyle name="Millares 3 24" xfId="127"/>
-    <cellStyle name="Millares 3 3" xfId="128"/>
-    <cellStyle name="Millares 3 3 2" xfId="129"/>
-    <cellStyle name="Millares 3 4" xfId="130"/>
-    <cellStyle name="Millares 3 4 2" xfId="131"/>
-    <cellStyle name="Millares 3 5" xfId="132"/>
-    <cellStyle name="Millares 3 5 2" xfId="133"/>
-    <cellStyle name="Millares 3 6" xfId="134"/>
-    <cellStyle name="Millares 3 6 2" xfId="135"/>
-    <cellStyle name="Millares 3 7" xfId="136"/>
-    <cellStyle name="Millares 3 7 2" xfId="137"/>
-    <cellStyle name="Millares 3 8" xfId="138"/>
-    <cellStyle name="Millares 3 8 2" xfId="139"/>
-    <cellStyle name="Millares 3 9" xfId="140"/>
-    <cellStyle name="Millares 3 9 2" xfId="141"/>
-    <cellStyle name="Millares 4" xfId="142"/>
-    <cellStyle name="Millares 5" xfId="1490"/>
-    <cellStyle name="Moneda 2" xfId="143"/>
-    <cellStyle name="Moneda 3" xfId="144"/>
-    <cellStyle name="Moneda 3 10" xfId="145"/>
-    <cellStyle name="Moneda 3 10 2" xfId="146"/>
-    <cellStyle name="Moneda 3 11" xfId="147"/>
-    <cellStyle name="Moneda 3 11 2" xfId="148"/>
-    <cellStyle name="Moneda 3 12" xfId="149"/>
-    <cellStyle name="Moneda 3 12 2" xfId="150"/>
-    <cellStyle name="Moneda 3 13" xfId="151"/>
-    <cellStyle name="Moneda 3 13 2" xfId="152"/>
-    <cellStyle name="Moneda 3 14" xfId="153"/>
-    <cellStyle name="Moneda 3 14 2" xfId="154"/>
-    <cellStyle name="Moneda 3 15" xfId="155"/>
-    <cellStyle name="Moneda 3 15 2" xfId="156"/>
-    <cellStyle name="Moneda 3 16" xfId="157"/>
-    <cellStyle name="Moneda 3 16 2" xfId="158"/>
-    <cellStyle name="Moneda 3 17" xfId="159"/>
-    <cellStyle name="Moneda 3 17 2" xfId="160"/>
-    <cellStyle name="Moneda 3 18" xfId="161"/>
-    <cellStyle name="Moneda 3 18 2" xfId="162"/>
-    <cellStyle name="Moneda 3 19" xfId="163"/>
-    <cellStyle name="Moneda 3 19 2" xfId="164"/>
-    <cellStyle name="Moneda 3 2" xfId="165"/>
-    <cellStyle name="Moneda 3 2 2" xfId="166"/>
-    <cellStyle name="Moneda 3 20" xfId="167"/>
-    <cellStyle name="Moneda 3 20 2" xfId="168"/>
-    <cellStyle name="Moneda 3 21" xfId="169"/>
-    <cellStyle name="Moneda 3 21 2" xfId="170"/>
-    <cellStyle name="Moneda 3 22" xfId="171"/>
-    <cellStyle name="Moneda 3 22 2" xfId="172"/>
-    <cellStyle name="Moneda 3 23" xfId="173"/>
-    <cellStyle name="Moneda 3 3" xfId="174"/>
-    <cellStyle name="Moneda 3 3 2" xfId="175"/>
-    <cellStyle name="Moneda 3 4" xfId="176"/>
-    <cellStyle name="Moneda 3 4 2" xfId="177"/>
-    <cellStyle name="Moneda 3 5" xfId="178"/>
-    <cellStyle name="Moneda 3 5 2" xfId="179"/>
-    <cellStyle name="Moneda 3 6" xfId="180"/>
-    <cellStyle name="Moneda 3 6 2" xfId="181"/>
-    <cellStyle name="Moneda 3 7" xfId="182"/>
-    <cellStyle name="Moneda 3 7 2" xfId="183"/>
-    <cellStyle name="Moneda 3 8" xfId="184"/>
-    <cellStyle name="Moneda 3 8 2" xfId="185"/>
-    <cellStyle name="Moneda 3 9" xfId="186"/>
-    <cellStyle name="Moneda 3 9 2" xfId="187"/>
-    <cellStyle name="Moneda 4" xfId="188"/>
+    <cellStyle name="Millares 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Millares 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Millares 2 2 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Millares 2 2 10 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Millares 2 2 11" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Millares 2 2 11 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Millares 2 2 12" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Millares 2 2 12 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Millares 2 2 13" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Millares 2 2 13 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Millares 2 2 14" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Millares 2 2 14 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Millares 2 2 15" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Millares 2 2 15 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Millares 2 2 16" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Millares 2 2 16 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Millares 2 2 17" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Millares 2 2 17 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Millares 2 2 18" xfId="21" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Millares 2 2 18 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Millares 2 2 19" xfId="23" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Millares 2 2 19 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Millares 2 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Millares 2 2 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Millares 2 2 20" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Millares 2 2 20 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Millares 2 2 21" xfId="29" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Millares 2 2 21 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Millares 2 2 22" xfId="31" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Millares 2 2 22 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Millares 2 2 23" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Millares 2 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Millares 2 2 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Millares 2 2 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Millares 2 2 4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Millares 2 2 5" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Millares 2 2 5 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Millares 2 2 6" xfId="40" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Millares 2 2 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Millares 2 2 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Millares 2 2 7 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Millares 2 2 8" xfId="44" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Millares 2 2 8 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Millares 2 2 9" xfId="46" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Millares 2 2 9 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Millares 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Millares 2 3 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Millares 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Millares 2 4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Millares 2 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Millares 2 5 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Millares 2 6" xfId="1489" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Millares 20" xfId="1492" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Millares 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Millares 3 10" xfId="55" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Millares 3 10 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Millares 3 11" xfId="57" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Millares 3 11 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Millares 3 12" xfId="59" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Millares 3 12 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Millares 3 13" xfId="61" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Millares 3 13 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Millares 3 14" xfId="63" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Millares 3 14 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Millares 3 15" xfId="65" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Millares 3 15 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Millares 3 16" xfId="67" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Millares 3 16 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Millares 3 17" xfId="69" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Millares 3 17 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Millares 3 18" xfId="71" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Millares 3 18 2" xfId="72" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Millares 3 19" xfId="73" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Millares 3 19 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares 3 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Millares 3 2 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Millares 3 2 10 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Millares 3 2 11" xfId="78" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Millares 3 2 11 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Millares 3 2 12" xfId="80" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Millares 3 2 12 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Millares 3 2 13" xfId="82" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Millares 3 2 13 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Millares 3 2 14" xfId="84" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Millares 3 2 14 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Millares 3 2 15" xfId="86" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Millares 3 2 15 2" xfId="87" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Millares 3 2 16" xfId="88" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Millares 3 2 16 2" xfId="89" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Millares 3 2 17" xfId="90" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Millares 3 2 17 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Millares 3 2 18" xfId="92" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Millares 3 2 18 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Millares 3 2 19" xfId="94" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Millares 3 2 19 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Millares 3 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Millares 3 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Millares 3 2 20" xfId="98" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Millares 3 2 20 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Millares 3 2 21" xfId="100" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Millares 3 2 21 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Millares 3 2 22" xfId="102" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Millares 3 2 22 2" xfId="103" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Millares 3 2 23" xfId="104" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Millares 3 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Millares 3 2 3 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Millares 3 2 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Millares 3 2 4 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Millares 3 2 5" xfId="109" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Millares 3 2 5 2" xfId="110" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Millares 3 2 6" xfId="111" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Millares 3 2 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Millares 3 2 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Millares 3 2 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Millares 3 2 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Millares 3 2 8 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Millares 3 2 9" xfId="117" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Millares 3 2 9 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Millares 3 20" xfId="119" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Millares 3 20 2" xfId="120" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Millares 3 21" xfId="121" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Millares 3 21 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Millares 3 22" xfId="123" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Millares 3 22 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Millares 3 23" xfId="125" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Millares 3 23 2" xfId="126" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Millares 3 24" xfId="127" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Millares 3 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Millares 3 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Millares 3 4" xfId="130" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Millares 3 4 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Millares 3 5" xfId="132" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Millares 3 5 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Millares 3 6" xfId="134" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Millares 3 6 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Millares 3 7" xfId="136" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Millares 3 7 2" xfId="137" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Millares 3 8" xfId="138" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Millares 3 8 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Millares 3 9" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Millares 3 9 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Millares 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Millares 5" xfId="1490" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Moneda 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Moneda 3" xfId="144" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Moneda 3 10" xfId="145" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Moneda 3 10 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Moneda 3 11" xfId="147" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Moneda 3 11 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Moneda 3 12" xfId="149" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Moneda 3 12 2" xfId="150" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Moneda 3 13" xfId="151" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Moneda 3 13 2" xfId="152" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Moneda 3 14" xfId="153" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Moneda 3 14 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Moneda 3 15" xfId="155" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Moneda 3 15 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Moneda 3 16" xfId="157" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Moneda 3 16 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Moneda 3 17" xfId="159" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Moneda 3 17 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Moneda 3 18" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Moneda 3 18 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Moneda 3 19" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Moneda 3 19 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Moneda 3 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Moneda 3 20" xfId="167" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Moneda 3 20 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Moneda 3 21" xfId="169" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Moneda 3 21 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Moneda 3 22" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Moneda 3 22 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Moneda 3 23" xfId="173" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Moneda 3 3" xfId="174" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Moneda 3 3 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Moneda 3 4" xfId="176" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Moneda 3 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Moneda 3 5" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Moneda 3 5 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Moneda 3 6" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Moneda 3 6 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Moneda 3 7" xfId="182" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Moneda 3 7 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Moneda 3 8" xfId="184" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Moneda 3 8 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Moneda 3 9" xfId="186" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Moneda 3 9 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Moneda 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="189"/>
-    <cellStyle name="Normal 10 4" xfId="1487"/>
-    <cellStyle name="Normal 100" xfId="190"/>
-    <cellStyle name="Normal 100 2" xfId="191"/>
-    <cellStyle name="Normal 101" xfId="192"/>
-    <cellStyle name="Normal 101 2" xfId="193"/>
-    <cellStyle name="Normal 102" xfId="194"/>
-    <cellStyle name="Normal 103" xfId="195"/>
-    <cellStyle name="Normal 104" xfId="196"/>
-    <cellStyle name="Normal 105" xfId="197"/>
-    <cellStyle name="Normal 106" xfId="198"/>
-    <cellStyle name="Normal 107" xfId="199"/>
-    <cellStyle name="Normal 108" xfId="200"/>
-    <cellStyle name="Normal 108 2" xfId="201"/>
-    <cellStyle name="Normal 109" xfId="202"/>
-    <cellStyle name="Normal 11" xfId="203"/>
-    <cellStyle name="Normal 11 10" xfId="204"/>
-    <cellStyle name="Normal 11 10 2" xfId="205"/>
-    <cellStyle name="Normal 11 11" xfId="206"/>
-    <cellStyle name="Normal 11 11 2" xfId="207"/>
-    <cellStyle name="Normal 11 12" xfId="208"/>
-    <cellStyle name="Normal 11 12 2" xfId="209"/>
-    <cellStyle name="Normal 11 13" xfId="210"/>
-    <cellStyle name="Normal 11 13 2" xfId="211"/>
-    <cellStyle name="Normal 11 14" xfId="212"/>
-    <cellStyle name="Normal 11 14 2" xfId="213"/>
-    <cellStyle name="Normal 11 15" xfId="214"/>
-    <cellStyle name="Normal 11 15 2" xfId="215"/>
-    <cellStyle name="Normal 11 16" xfId="216"/>
-    <cellStyle name="Normal 11 16 2" xfId="217"/>
-    <cellStyle name="Normal 11 17" xfId="218"/>
-    <cellStyle name="Normal 11 17 2" xfId="219"/>
-    <cellStyle name="Normal 11 18" xfId="220"/>
-    <cellStyle name="Normal 11 18 2" xfId="221"/>
-    <cellStyle name="Normal 11 19" xfId="222"/>
-    <cellStyle name="Normal 11 19 2" xfId="223"/>
-    <cellStyle name="Normal 11 2" xfId="224"/>
-    <cellStyle name="Normal 11 2 2" xfId="225"/>
-    <cellStyle name="Normal 11 20" xfId="226"/>
-    <cellStyle name="Normal 11 20 2" xfId="227"/>
-    <cellStyle name="Normal 11 21" xfId="228"/>
-    <cellStyle name="Normal 11 21 2" xfId="229"/>
-    <cellStyle name="Normal 11 22" xfId="230"/>
-    <cellStyle name="Normal 11 22 2" xfId="231"/>
-    <cellStyle name="Normal 11 23" xfId="232"/>
-    <cellStyle name="Normal 11 24" xfId="233"/>
-    <cellStyle name="Normal 11 3" xfId="234"/>
-    <cellStyle name="Normal 11 3 2" xfId="235"/>
-    <cellStyle name="Normal 11 4" xfId="236"/>
-    <cellStyle name="Normal 11 4 2" xfId="237"/>
-    <cellStyle name="Normal 11 5" xfId="238"/>
-    <cellStyle name="Normal 11 5 2" xfId="239"/>
-    <cellStyle name="Normal 11 6" xfId="240"/>
-    <cellStyle name="Normal 11 6 2" xfId="241"/>
-    <cellStyle name="Normal 11 7" xfId="242"/>
-    <cellStyle name="Normal 11 7 2" xfId="243"/>
-    <cellStyle name="Normal 11 8" xfId="244"/>
-    <cellStyle name="Normal 11 8 2" xfId="245"/>
-    <cellStyle name="Normal 11 9" xfId="246"/>
-    <cellStyle name="Normal 11 9 2" xfId="247"/>
-    <cellStyle name="Normal 110" xfId="248"/>
-    <cellStyle name="Normal 111" xfId="249"/>
-    <cellStyle name="Normal 112" xfId="250"/>
-    <cellStyle name="Normal 113" xfId="251"/>
-    <cellStyle name="Normal 114" xfId="252"/>
-    <cellStyle name="Normal 115" xfId="253"/>
-    <cellStyle name="Normal 116" xfId="254"/>
-    <cellStyle name="Normal 117" xfId="255"/>
-    <cellStyle name="Normal 118" xfId="256"/>
-    <cellStyle name="Normal 119" xfId="257"/>
-    <cellStyle name="Normal 12" xfId="258"/>
-    <cellStyle name="Normal 12 10" xfId="259"/>
-    <cellStyle name="Normal 12 10 2" xfId="260"/>
-    <cellStyle name="Normal 12 11" xfId="261"/>
-    <cellStyle name="Normal 12 11 2" xfId="262"/>
-    <cellStyle name="Normal 12 12" xfId="263"/>
-    <cellStyle name="Normal 12 12 2" xfId="264"/>
-    <cellStyle name="Normal 12 13" xfId="265"/>
-    <cellStyle name="Normal 12 13 2" xfId="266"/>
-    <cellStyle name="Normal 12 14" xfId="267"/>
-    <cellStyle name="Normal 12 14 2" xfId="268"/>
-    <cellStyle name="Normal 12 15" xfId="269"/>
-    <cellStyle name="Normal 12 15 2" xfId="270"/>
-    <cellStyle name="Normal 12 16" xfId="271"/>
-    <cellStyle name="Normal 12 16 2" xfId="272"/>
-    <cellStyle name="Normal 12 17" xfId="273"/>
-    <cellStyle name="Normal 12 17 2" xfId="274"/>
-    <cellStyle name="Normal 12 18" xfId="275"/>
-    <cellStyle name="Normal 12 18 2" xfId="276"/>
-    <cellStyle name="Normal 12 19" xfId="277"/>
-    <cellStyle name="Normal 12 19 2" xfId="278"/>
-    <cellStyle name="Normal 12 2" xfId="279"/>
-    <cellStyle name="Normal 12 2 2" xfId="280"/>
-    <cellStyle name="Normal 12 20" xfId="281"/>
-    <cellStyle name="Normal 12 20 2" xfId="282"/>
-    <cellStyle name="Normal 12 21" xfId="283"/>
-    <cellStyle name="Normal 12 21 2" xfId="284"/>
-    <cellStyle name="Normal 12 22" xfId="285"/>
-    <cellStyle name="Normal 12 22 2" xfId="286"/>
-    <cellStyle name="Normal 12 23" xfId="287"/>
-    <cellStyle name="Normal 12 3" xfId="288"/>
-    <cellStyle name="Normal 12 3 2" xfId="289"/>
-    <cellStyle name="Normal 12 4" xfId="290"/>
-    <cellStyle name="Normal 12 4 2" xfId="291"/>
-    <cellStyle name="Normal 12 5" xfId="292"/>
-    <cellStyle name="Normal 12 5 2" xfId="293"/>
-    <cellStyle name="Normal 12 6" xfId="294"/>
-    <cellStyle name="Normal 12 6 2" xfId="295"/>
-    <cellStyle name="Normal 12 7" xfId="296"/>
-    <cellStyle name="Normal 12 7 2" xfId="297"/>
-    <cellStyle name="Normal 12 8" xfId="298"/>
-    <cellStyle name="Normal 12 8 2" xfId="299"/>
-    <cellStyle name="Normal 12 9" xfId="300"/>
-    <cellStyle name="Normal 12 9 2" xfId="301"/>
-    <cellStyle name="Normal 120" xfId="302"/>
-    <cellStyle name="Normal 121" xfId="303"/>
-    <cellStyle name="Normal 122" xfId="304"/>
-    <cellStyle name="Normal 123" xfId="305"/>
-    <cellStyle name="Normal 124" xfId="306"/>
-    <cellStyle name="Normal 125" xfId="307"/>
-    <cellStyle name="Normal 126" xfId="308"/>
-    <cellStyle name="Normal 127" xfId="309"/>
-    <cellStyle name="Normal 128" xfId="310"/>
-    <cellStyle name="Normal 129" xfId="311"/>
-    <cellStyle name="Normal 13" xfId="312"/>
-    <cellStyle name="Normal 13 10" xfId="313"/>
-    <cellStyle name="Normal 13 10 2" xfId="314"/>
-    <cellStyle name="Normal 13 11" xfId="315"/>
-    <cellStyle name="Normal 13 11 2" xfId="316"/>
-    <cellStyle name="Normal 13 12" xfId="317"/>
-    <cellStyle name="Normal 13 12 2" xfId="318"/>
-    <cellStyle name="Normal 13 13" xfId="319"/>
-    <cellStyle name="Normal 13 13 2" xfId="320"/>
-    <cellStyle name="Normal 13 14" xfId="321"/>
-    <cellStyle name="Normal 13 14 2" xfId="322"/>
-    <cellStyle name="Normal 13 15" xfId="323"/>
-    <cellStyle name="Normal 13 15 2" xfId="324"/>
-    <cellStyle name="Normal 13 16" xfId="325"/>
-    <cellStyle name="Normal 13 16 2" xfId="326"/>
-    <cellStyle name="Normal 13 17" xfId="327"/>
-    <cellStyle name="Normal 13 17 2" xfId="328"/>
-    <cellStyle name="Normal 13 18" xfId="329"/>
-    <cellStyle name="Normal 13 18 2" xfId="330"/>
-    <cellStyle name="Normal 13 19" xfId="331"/>
-    <cellStyle name="Normal 13 19 2" xfId="332"/>
-    <cellStyle name="Normal 13 2" xfId="333"/>
-    <cellStyle name="Normal 13 2 2" xfId="334"/>
-    <cellStyle name="Normal 13 20" xfId="335"/>
-    <cellStyle name="Normal 13 20 2" xfId="336"/>
-    <cellStyle name="Normal 13 21" xfId="337"/>
-    <cellStyle name="Normal 13 21 2" xfId="338"/>
-    <cellStyle name="Normal 13 22" xfId="339"/>
-    <cellStyle name="Normal 13 22 2" xfId="340"/>
-    <cellStyle name="Normal 13 23" xfId="341"/>
-    <cellStyle name="Normal 13 3" xfId="342"/>
-    <cellStyle name="Normal 13 3 2" xfId="343"/>
-    <cellStyle name="Normal 13 4" xfId="344"/>
-    <cellStyle name="Normal 13 4 2" xfId="345"/>
-    <cellStyle name="Normal 13 5" xfId="346"/>
-    <cellStyle name="Normal 13 5 2" xfId="347"/>
-    <cellStyle name="Normal 13 6" xfId="348"/>
-    <cellStyle name="Normal 13 6 2" xfId="349"/>
-    <cellStyle name="Normal 13 7" xfId="350"/>
-    <cellStyle name="Normal 13 7 2" xfId="351"/>
-    <cellStyle name="Normal 13 8" xfId="352"/>
-    <cellStyle name="Normal 13 8 2" xfId="353"/>
-    <cellStyle name="Normal 13 9" xfId="354"/>
-    <cellStyle name="Normal 13 9 2" xfId="355"/>
-    <cellStyle name="Normal 130" xfId="356"/>
-    <cellStyle name="Normal 131" xfId="357"/>
-    <cellStyle name="Normal 132" xfId="358"/>
-    <cellStyle name="Normal 133" xfId="359"/>
-    <cellStyle name="Normal 134" xfId="360"/>
-    <cellStyle name="Normal 135" xfId="361"/>
-    <cellStyle name="Normal 136" xfId="362"/>
-    <cellStyle name="Normal 137" xfId="363"/>
-    <cellStyle name="Normal 138" xfId="364"/>
-    <cellStyle name="Normal 139" xfId="365"/>
-    <cellStyle name="Normal 14" xfId="366"/>
-    <cellStyle name="Normal 14 10" xfId="367"/>
-    <cellStyle name="Normal 14 10 2" xfId="368"/>
-    <cellStyle name="Normal 14 11" xfId="369"/>
-    <cellStyle name="Normal 14 11 2" xfId="370"/>
-    <cellStyle name="Normal 14 12" xfId="371"/>
-    <cellStyle name="Normal 14 12 2" xfId="372"/>
-    <cellStyle name="Normal 14 13" xfId="373"/>
-    <cellStyle name="Normal 14 13 2" xfId="374"/>
-    <cellStyle name="Normal 14 14" xfId="375"/>
-    <cellStyle name="Normal 14 14 2" xfId="376"/>
-    <cellStyle name="Normal 14 15" xfId="377"/>
-    <cellStyle name="Normal 14 15 2" xfId="378"/>
-    <cellStyle name="Normal 14 16" xfId="379"/>
-    <cellStyle name="Normal 14 16 2" xfId="380"/>
-    <cellStyle name="Normal 14 17" xfId="381"/>
-    <cellStyle name="Normal 14 17 2" xfId="382"/>
-    <cellStyle name="Normal 14 18" xfId="383"/>
-    <cellStyle name="Normal 14 18 2" xfId="384"/>
-    <cellStyle name="Normal 14 19" xfId="385"/>
-    <cellStyle name="Normal 14 19 2" xfId="386"/>
-    <cellStyle name="Normal 14 2" xfId="387"/>
-    <cellStyle name="Normal 14 2 2" xfId="388"/>
-    <cellStyle name="Normal 14 20" xfId="389"/>
-    <cellStyle name="Normal 14 20 2" xfId="390"/>
-    <cellStyle name="Normal 14 21" xfId="391"/>
-    <cellStyle name="Normal 14 21 2" xfId="392"/>
-    <cellStyle name="Normal 14 22" xfId="393"/>
-    <cellStyle name="Normal 14 22 2" xfId="394"/>
-    <cellStyle name="Normal 14 23" xfId="395"/>
-    <cellStyle name="Normal 14 3" xfId="396"/>
-    <cellStyle name="Normal 14 3 2" xfId="397"/>
-    <cellStyle name="Normal 14 4" xfId="398"/>
-    <cellStyle name="Normal 14 4 2" xfId="399"/>
-    <cellStyle name="Normal 14 5" xfId="400"/>
-    <cellStyle name="Normal 14 5 2" xfId="401"/>
-    <cellStyle name="Normal 14 6" xfId="402"/>
-    <cellStyle name="Normal 14 6 2" xfId="403"/>
-    <cellStyle name="Normal 14 7" xfId="404"/>
-    <cellStyle name="Normal 14 7 2" xfId="405"/>
-    <cellStyle name="Normal 14 8" xfId="406"/>
-    <cellStyle name="Normal 14 8 2" xfId="407"/>
-    <cellStyle name="Normal 14 9" xfId="408"/>
-    <cellStyle name="Normal 14 9 2" xfId="409"/>
-    <cellStyle name="Normal 140" xfId="410"/>
-    <cellStyle name="Normal 141" xfId="411"/>
-    <cellStyle name="Normal 142" xfId="412"/>
-    <cellStyle name="Normal 143" xfId="413"/>
-    <cellStyle name="Normal 144" xfId="414"/>
-    <cellStyle name="Normal 145" xfId="415"/>
-    <cellStyle name="Normal 146" xfId="416"/>
-    <cellStyle name="Normal 147" xfId="417"/>
-    <cellStyle name="Normal 148" xfId="418"/>
-    <cellStyle name="Normal 149" xfId="419"/>
-    <cellStyle name="Normal 15" xfId="420"/>
-    <cellStyle name="Normal 15 10" xfId="421"/>
-    <cellStyle name="Normal 15 10 2" xfId="422"/>
-    <cellStyle name="Normal 15 11" xfId="423"/>
-    <cellStyle name="Normal 15 11 2" xfId="424"/>
-    <cellStyle name="Normal 15 12" xfId="425"/>
-    <cellStyle name="Normal 15 12 2" xfId="426"/>
-    <cellStyle name="Normal 15 13" xfId="427"/>
-    <cellStyle name="Normal 15 13 2" xfId="428"/>
-    <cellStyle name="Normal 15 14" xfId="429"/>
-    <cellStyle name="Normal 15 14 2" xfId="430"/>
-    <cellStyle name="Normal 15 15" xfId="431"/>
-    <cellStyle name="Normal 15 15 2" xfId="432"/>
-    <cellStyle name="Normal 15 16" xfId="433"/>
-    <cellStyle name="Normal 15 16 2" xfId="434"/>
-    <cellStyle name="Normal 15 17" xfId="435"/>
-    <cellStyle name="Normal 15 17 2" xfId="436"/>
-    <cellStyle name="Normal 15 18" xfId="437"/>
-    <cellStyle name="Normal 15 18 2" xfId="438"/>
-    <cellStyle name="Normal 15 19" xfId="439"/>
-    <cellStyle name="Normal 15 19 2" xfId="440"/>
-    <cellStyle name="Normal 15 2" xfId="441"/>
-    <cellStyle name="Normal 15 2 2" xfId="442"/>
-    <cellStyle name="Normal 15 20" xfId="443"/>
-    <cellStyle name="Normal 15 20 2" xfId="444"/>
-    <cellStyle name="Normal 15 21" xfId="445"/>
-    <cellStyle name="Normal 15 21 2" xfId="446"/>
-    <cellStyle name="Normal 15 22" xfId="447"/>
-    <cellStyle name="Normal 15 22 2" xfId="448"/>
-    <cellStyle name="Normal 15 23" xfId="449"/>
-    <cellStyle name="Normal 15 3" xfId="450"/>
-    <cellStyle name="Normal 15 3 2" xfId="451"/>
-    <cellStyle name="Normal 15 4" xfId="452"/>
-    <cellStyle name="Normal 15 4 2" xfId="453"/>
-    <cellStyle name="Normal 15 5" xfId="454"/>
-    <cellStyle name="Normal 15 5 2" xfId="455"/>
-    <cellStyle name="Normal 15 6" xfId="456"/>
-    <cellStyle name="Normal 15 6 2" xfId="457"/>
-    <cellStyle name="Normal 15 7" xfId="458"/>
-    <cellStyle name="Normal 15 7 2" xfId="459"/>
-    <cellStyle name="Normal 15 8" xfId="460"/>
-    <cellStyle name="Normal 15 8 2" xfId="461"/>
-    <cellStyle name="Normal 15 9" xfId="462"/>
-    <cellStyle name="Normal 15 9 2" xfId="463"/>
-    <cellStyle name="Normal 150" xfId="464"/>
-    <cellStyle name="Normal 151" xfId="465"/>
-    <cellStyle name="Normal 152" xfId="466"/>
-    <cellStyle name="Normal 153" xfId="467"/>
-    <cellStyle name="Normal 154" xfId="468"/>
-    <cellStyle name="Normal 155" xfId="469"/>
-    <cellStyle name="Normal 156" xfId="470"/>
-    <cellStyle name="Normal 157" xfId="471"/>
-    <cellStyle name="Normal 158" xfId="472"/>
-    <cellStyle name="Normal 159" xfId="473"/>
-    <cellStyle name="Normal 16" xfId="474"/>
-    <cellStyle name="Normal 16 10" xfId="475"/>
-    <cellStyle name="Normal 16 10 2" xfId="476"/>
-    <cellStyle name="Normal 16 11" xfId="477"/>
-    <cellStyle name="Normal 16 11 2" xfId="478"/>
-    <cellStyle name="Normal 16 12" xfId="479"/>
-    <cellStyle name="Normal 16 12 2" xfId="480"/>
-    <cellStyle name="Normal 16 13" xfId="481"/>
-    <cellStyle name="Normal 16 13 2" xfId="482"/>
-    <cellStyle name="Normal 16 14" xfId="483"/>
-    <cellStyle name="Normal 16 14 2" xfId="484"/>
-    <cellStyle name="Normal 16 15" xfId="485"/>
-    <cellStyle name="Normal 16 15 2" xfId="486"/>
-    <cellStyle name="Normal 16 16" xfId="487"/>
-    <cellStyle name="Normal 16 16 2" xfId="488"/>
-    <cellStyle name="Normal 16 17" xfId="489"/>
-    <cellStyle name="Normal 16 17 2" xfId="490"/>
-    <cellStyle name="Normal 16 18" xfId="491"/>
-    <cellStyle name="Normal 16 18 2" xfId="492"/>
-    <cellStyle name="Normal 16 19" xfId="493"/>
-    <cellStyle name="Normal 16 19 2" xfId="494"/>
-    <cellStyle name="Normal 16 2" xfId="495"/>
-    <cellStyle name="Normal 16 2 2" xfId="496"/>
-    <cellStyle name="Normal 16 20" xfId="497"/>
-    <cellStyle name="Normal 16 20 2" xfId="498"/>
-    <cellStyle name="Normal 16 21" xfId="499"/>
-    <cellStyle name="Normal 16 21 2" xfId="500"/>
-    <cellStyle name="Normal 16 22" xfId="501"/>
-    <cellStyle name="Normal 16 22 2" xfId="502"/>
-    <cellStyle name="Normal 16 23" xfId="503"/>
-    <cellStyle name="Normal 16 3" xfId="504"/>
-    <cellStyle name="Normal 16 3 2" xfId="505"/>
-    <cellStyle name="Normal 16 4" xfId="506"/>
-    <cellStyle name="Normal 16 4 2" xfId="507"/>
-    <cellStyle name="Normal 16 5" xfId="508"/>
-    <cellStyle name="Normal 16 5 2" xfId="509"/>
-    <cellStyle name="Normal 16 6" xfId="510"/>
-    <cellStyle name="Normal 16 6 2" xfId="511"/>
-    <cellStyle name="Normal 16 7" xfId="512"/>
-    <cellStyle name="Normal 16 7 2" xfId="513"/>
-    <cellStyle name="Normal 16 8" xfId="514"/>
-    <cellStyle name="Normal 16 8 2" xfId="515"/>
-    <cellStyle name="Normal 16 9" xfId="516"/>
-    <cellStyle name="Normal 16 9 2" xfId="517"/>
-    <cellStyle name="Normal 160" xfId="518"/>
-    <cellStyle name="Normal 161" xfId="519"/>
-    <cellStyle name="Normal 162" xfId="520"/>
-    <cellStyle name="Normal 163" xfId="521"/>
-    <cellStyle name="Normal 164" xfId="522"/>
-    <cellStyle name="Normal 165" xfId="523"/>
-    <cellStyle name="Normal 166" xfId="524"/>
-    <cellStyle name="Normal 167" xfId="525"/>
-    <cellStyle name="Normal 168" xfId="526"/>
-    <cellStyle name="Normal 169" xfId="527"/>
-    <cellStyle name="Normal 17" xfId="528"/>
-    <cellStyle name="Normal 17 10" xfId="529"/>
-    <cellStyle name="Normal 17 10 2" xfId="530"/>
-    <cellStyle name="Normal 17 11" xfId="531"/>
-    <cellStyle name="Normal 17 11 2" xfId="532"/>
-    <cellStyle name="Normal 17 12" xfId="533"/>
-    <cellStyle name="Normal 17 12 2" xfId="534"/>
-    <cellStyle name="Normal 17 13" xfId="535"/>
-    <cellStyle name="Normal 17 13 2" xfId="536"/>
-    <cellStyle name="Normal 17 14" xfId="537"/>
-    <cellStyle name="Normal 17 14 2" xfId="538"/>
-    <cellStyle name="Normal 17 15" xfId="539"/>
-    <cellStyle name="Normal 17 15 2" xfId="540"/>
-    <cellStyle name="Normal 17 16" xfId="541"/>
-    <cellStyle name="Normal 17 16 2" xfId="542"/>
-    <cellStyle name="Normal 17 17" xfId="543"/>
-    <cellStyle name="Normal 17 17 2" xfId="544"/>
-    <cellStyle name="Normal 17 18" xfId="545"/>
-    <cellStyle name="Normal 17 18 2" xfId="546"/>
-    <cellStyle name="Normal 17 19" xfId="547"/>
-    <cellStyle name="Normal 17 19 2" xfId="548"/>
-    <cellStyle name="Normal 17 2" xfId="549"/>
-    <cellStyle name="Normal 17 2 2" xfId="550"/>
-    <cellStyle name="Normal 17 20" xfId="551"/>
-    <cellStyle name="Normal 17 20 2" xfId="552"/>
-    <cellStyle name="Normal 17 21" xfId="553"/>
-    <cellStyle name="Normal 17 21 2" xfId="554"/>
-    <cellStyle name="Normal 17 22" xfId="555"/>
-    <cellStyle name="Normal 17 22 2" xfId="556"/>
-    <cellStyle name="Normal 17 23" xfId="557"/>
-    <cellStyle name="Normal 17 3" xfId="558"/>
-    <cellStyle name="Normal 17 3 2" xfId="559"/>
-    <cellStyle name="Normal 17 4" xfId="560"/>
-    <cellStyle name="Normal 17 4 2" xfId="561"/>
-    <cellStyle name="Normal 17 5" xfId="562"/>
-    <cellStyle name="Normal 17 5 2" xfId="563"/>
-    <cellStyle name="Normal 17 6" xfId="564"/>
-    <cellStyle name="Normal 17 6 2" xfId="565"/>
-    <cellStyle name="Normal 17 7" xfId="566"/>
-    <cellStyle name="Normal 17 7 2" xfId="567"/>
-    <cellStyle name="Normal 17 8" xfId="568"/>
-    <cellStyle name="Normal 17 8 2" xfId="569"/>
-    <cellStyle name="Normal 17 9" xfId="570"/>
-    <cellStyle name="Normal 17 9 2" xfId="571"/>
-    <cellStyle name="Normal 170" xfId="572"/>
-    <cellStyle name="Normal 171" xfId="573"/>
-    <cellStyle name="Normal 172" xfId="574"/>
-    <cellStyle name="Normal 173" xfId="575"/>
-    <cellStyle name="Normal 174" xfId="576"/>
-    <cellStyle name="Normal 175" xfId="577"/>
-    <cellStyle name="Normal 176" xfId="578"/>
-    <cellStyle name="Normal 177" xfId="579"/>
-    <cellStyle name="Normal 178" xfId="580"/>
-    <cellStyle name="Normal 179" xfId="581"/>
-    <cellStyle name="Normal 18" xfId="582"/>
-    <cellStyle name="Normal 18 10" xfId="583"/>
-    <cellStyle name="Normal 18 10 2" xfId="584"/>
-    <cellStyle name="Normal 18 11" xfId="585"/>
-    <cellStyle name="Normal 18 11 2" xfId="586"/>
-    <cellStyle name="Normal 18 12" xfId="587"/>
-    <cellStyle name="Normal 18 12 2" xfId="588"/>
-    <cellStyle name="Normal 18 13" xfId="589"/>
-    <cellStyle name="Normal 18 13 2" xfId="590"/>
-    <cellStyle name="Normal 18 14" xfId="591"/>
-    <cellStyle name="Normal 18 14 2" xfId="592"/>
-    <cellStyle name="Normal 18 15" xfId="593"/>
-    <cellStyle name="Normal 18 15 2" xfId="594"/>
-    <cellStyle name="Normal 18 16" xfId="595"/>
-    <cellStyle name="Normal 18 16 2" xfId="596"/>
-    <cellStyle name="Normal 18 17" xfId="597"/>
-    <cellStyle name="Normal 18 17 2" xfId="598"/>
-    <cellStyle name="Normal 18 18" xfId="599"/>
-    <cellStyle name="Normal 18 18 2" xfId="600"/>
-    <cellStyle name="Normal 18 19" xfId="601"/>
-    <cellStyle name="Normal 18 19 2" xfId="602"/>
-    <cellStyle name="Normal 18 2" xfId="603"/>
-    <cellStyle name="Normal 18 2 2" xfId="604"/>
-    <cellStyle name="Normal 18 20" xfId="605"/>
-    <cellStyle name="Normal 18 20 2" xfId="606"/>
-    <cellStyle name="Normal 18 21" xfId="607"/>
-    <cellStyle name="Normal 18 21 2" xfId="608"/>
-    <cellStyle name="Normal 18 22" xfId="609"/>
-    <cellStyle name="Normal 18 22 2" xfId="610"/>
-    <cellStyle name="Normal 18 23" xfId="611"/>
-    <cellStyle name="Normal 18 3" xfId="612"/>
-    <cellStyle name="Normal 18 3 2" xfId="613"/>
-    <cellStyle name="Normal 18 4" xfId="614"/>
-    <cellStyle name="Normal 18 4 2" xfId="615"/>
-    <cellStyle name="Normal 18 5" xfId="616"/>
-    <cellStyle name="Normal 18 5 2" xfId="617"/>
-    <cellStyle name="Normal 18 6" xfId="618"/>
-    <cellStyle name="Normal 18 6 2" xfId="619"/>
-    <cellStyle name="Normal 18 7" xfId="620"/>
-    <cellStyle name="Normal 18 7 2" xfId="621"/>
-    <cellStyle name="Normal 18 8" xfId="622"/>
-    <cellStyle name="Normal 18 8 2" xfId="623"/>
-    <cellStyle name="Normal 18 9" xfId="624"/>
-    <cellStyle name="Normal 18 9 2" xfId="625"/>
-    <cellStyle name="Normal 180" xfId="626"/>
-    <cellStyle name="Normal 181" xfId="627"/>
-    <cellStyle name="Normal 182" xfId="628"/>
-    <cellStyle name="Normal 183" xfId="629"/>
-    <cellStyle name="Normal 184" xfId="630"/>
-    <cellStyle name="Normal 185" xfId="631"/>
-    <cellStyle name="Normal 186" xfId="632"/>
-    <cellStyle name="Normal 187" xfId="633"/>
-    <cellStyle name="Normal 188" xfId="634"/>
-    <cellStyle name="Normal 189" xfId="635"/>
-    <cellStyle name="Normal 19" xfId="636"/>
-    <cellStyle name="Normal 190" xfId="637"/>
-    <cellStyle name="Normal 191" xfId="638"/>
-    <cellStyle name="Normal 192" xfId="639"/>
-    <cellStyle name="Normal 193" xfId="640"/>
-    <cellStyle name="Normal 194" xfId="641"/>
-    <cellStyle name="Normal 195" xfId="642"/>
-    <cellStyle name="Normal 196" xfId="643"/>
-    <cellStyle name="Normal 197" xfId="644"/>
-    <cellStyle name="Normal 198" xfId="645"/>
-    <cellStyle name="Normal 199" xfId="646"/>
-    <cellStyle name="Normal 2" xfId="647"/>
-    <cellStyle name="Normal 2 2" xfId="648"/>
-    <cellStyle name="Normal 2 2 10" xfId="649"/>
-    <cellStyle name="Normal 2 2 10 2" xfId="650"/>
-    <cellStyle name="Normal 2 2 11" xfId="651"/>
-    <cellStyle name="Normal 2 2 11 2" xfId="652"/>
-    <cellStyle name="Normal 2 2 12" xfId="653"/>
-    <cellStyle name="Normal 2 2 12 2" xfId="654"/>
-    <cellStyle name="Normal 2 2 13" xfId="655"/>
-    <cellStyle name="Normal 2 2 13 2" xfId="656"/>
-    <cellStyle name="Normal 2 2 14" xfId="657"/>
-    <cellStyle name="Normal 2 2 14 2" xfId="658"/>
-    <cellStyle name="Normal 2 2 15" xfId="659"/>
-    <cellStyle name="Normal 2 2 15 2" xfId="660"/>
-    <cellStyle name="Normal 2 2 16" xfId="661"/>
-    <cellStyle name="Normal 2 2 16 2" xfId="662"/>
-    <cellStyle name="Normal 2 2 17" xfId="663"/>
-    <cellStyle name="Normal 2 2 17 2" xfId="664"/>
-    <cellStyle name="Normal 2 2 18" xfId="665"/>
-    <cellStyle name="Normal 2 2 18 2" xfId="666"/>
-    <cellStyle name="Normal 2 2 19" xfId="667"/>
-    <cellStyle name="Normal 2 2 19 2" xfId="668"/>
-    <cellStyle name="Normal 2 2 2" xfId="669"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="670"/>
-    <cellStyle name="Normal 2 2 20" xfId="671"/>
-    <cellStyle name="Normal 2 2 20 2" xfId="672"/>
-    <cellStyle name="Normal 2 2 21" xfId="673"/>
-    <cellStyle name="Normal 2 2 21 2" xfId="674"/>
-    <cellStyle name="Normal 2 2 22" xfId="675"/>
-    <cellStyle name="Normal 2 2 22 2" xfId="676"/>
-    <cellStyle name="Normal 2 2 23" xfId="677"/>
-    <cellStyle name="Normal 2 2 3" xfId="678"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="679"/>
-    <cellStyle name="Normal 2 2 4" xfId="680"/>
-    <cellStyle name="Normal 2 2 4 2" xfId="681"/>
-    <cellStyle name="Normal 2 2 5" xfId="682"/>
-    <cellStyle name="Normal 2 2 5 2" xfId="683"/>
-    <cellStyle name="Normal 2 2 6" xfId="684"/>
-    <cellStyle name="Normal 2 2 6 2" xfId="685"/>
-    <cellStyle name="Normal 2 2 7" xfId="686"/>
-    <cellStyle name="Normal 2 2 7 2" xfId="687"/>
-    <cellStyle name="Normal 2 2 8" xfId="688"/>
-    <cellStyle name="Normal 2 2 8 2" xfId="689"/>
-    <cellStyle name="Normal 2 2 9" xfId="690"/>
-    <cellStyle name="Normal 2 2 9 2" xfId="691"/>
-    <cellStyle name="Normal 2 3" xfId="692"/>
-    <cellStyle name="Normal 2 4" xfId="693"/>
-    <cellStyle name="Normal 2 4 2" xfId="694"/>
-    <cellStyle name="Normal 2 5" xfId="695"/>
-    <cellStyle name="Normal 2 5 2" xfId="696"/>
-    <cellStyle name="Normal 2 6" xfId="697"/>
-    <cellStyle name="Normal 2 6 2" xfId="698"/>
-    <cellStyle name="Normal 20" xfId="699"/>
-    <cellStyle name="Normal 20 10" xfId="700"/>
-    <cellStyle name="Normal 20 10 2" xfId="701"/>
-    <cellStyle name="Normal 20 11" xfId="702"/>
-    <cellStyle name="Normal 20 11 2" xfId="703"/>
-    <cellStyle name="Normal 20 12" xfId="704"/>
-    <cellStyle name="Normal 20 12 2" xfId="705"/>
-    <cellStyle name="Normal 20 13" xfId="706"/>
-    <cellStyle name="Normal 20 13 2" xfId="707"/>
-    <cellStyle name="Normal 20 14" xfId="708"/>
-    <cellStyle name="Normal 20 14 2" xfId="709"/>
-    <cellStyle name="Normal 20 15" xfId="710"/>
-    <cellStyle name="Normal 20 15 2" xfId="711"/>
-    <cellStyle name="Normal 20 16" xfId="712"/>
-    <cellStyle name="Normal 20 16 2" xfId="713"/>
-    <cellStyle name="Normal 20 17" xfId="714"/>
-    <cellStyle name="Normal 20 17 2" xfId="715"/>
-    <cellStyle name="Normal 20 18" xfId="716"/>
-    <cellStyle name="Normal 20 18 2" xfId="717"/>
-    <cellStyle name="Normal 20 19" xfId="718"/>
-    <cellStyle name="Normal 20 19 2" xfId="719"/>
-    <cellStyle name="Normal 20 2" xfId="720"/>
-    <cellStyle name="Normal 20 2 2" xfId="721"/>
-    <cellStyle name="Normal 20 20" xfId="722"/>
-    <cellStyle name="Normal 20 20 2" xfId="723"/>
-    <cellStyle name="Normal 20 21" xfId="724"/>
-    <cellStyle name="Normal 20 21 2" xfId="725"/>
-    <cellStyle name="Normal 20 22" xfId="726"/>
-    <cellStyle name="Normal 20 22 2" xfId="727"/>
-    <cellStyle name="Normal 20 23" xfId="728"/>
-    <cellStyle name="Normal 20 3" xfId="729"/>
-    <cellStyle name="Normal 20 3 2" xfId="730"/>
-    <cellStyle name="Normal 20 4" xfId="731"/>
-    <cellStyle name="Normal 20 4 2" xfId="732"/>
-    <cellStyle name="Normal 20 5" xfId="733"/>
-    <cellStyle name="Normal 20 5 2" xfId="734"/>
-    <cellStyle name="Normal 20 6" xfId="735"/>
-    <cellStyle name="Normal 20 6 2" xfId="736"/>
-    <cellStyle name="Normal 20 7" xfId="737"/>
-    <cellStyle name="Normal 20 7 2" xfId="738"/>
-    <cellStyle name="Normal 20 8" xfId="739"/>
-    <cellStyle name="Normal 20 8 2" xfId="740"/>
-    <cellStyle name="Normal 20 9" xfId="741"/>
-    <cellStyle name="Normal 20 9 2" xfId="742"/>
-    <cellStyle name="Normal 200" xfId="743"/>
-    <cellStyle name="Normal 201" xfId="744"/>
-    <cellStyle name="Normal 202" xfId="745"/>
-    <cellStyle name="Normal 203" xfId="746"/>
-    <cellStyle name="Normal 204" xfId="747"/>
-    <cellStyle name="Normal 205" xfId="748"/>
-    <cellStyle name="Normal 206" xfId="749"/>
-    <cellStyle name="Normal 207" xfId="750"/>
-    <cellStyle name="Normal 208" xfId="751"/>
-    <cellStyle name="Normal 209" xfId="752"/>
-    <cellStyle name="Normal 21" xfId="753"/>
-    <cellStyle name="Normal 21 10" xfId="754"/>
-    <cellStyle name="Normal 21 10 2" xfId="755"/>
-    <cellStyle name="Normal 21 11" xfId="756"/>
-    <cellStyle name="Normal 21 11 2" xfId="757"/>
-    <cellStyle name="Normal 21 12" xfId="758"/>
-    <cellStyle name="Normal 21 12 2" xfId="759"/>
-    <cellStyle name="Normal 21 13" xfId="760"/>
-    <cellStyle name="Normal 21 13 2" xfId="761"/>
-    <cellStyle name="Normal 21 14" xfId="762"/>
-    <cellStyle name="Normal 21 14 2" xfId="763"/>
-    <cellStyle name="Normal 21 15" xfId="764"/>
-    <cellStyle name="Normal 21 15 2" xfId="765"/>
-    <cellStyle name="Normal 21 16" xfId="766"/>
-    <cellStyle name="Normal 21 16 2" xfId="767"/>
-    <cellStyle name="Normal 21 17" xfId="768"/>
-    <cellStyle name="Normal 21 17 2" xfId="769"/>
-    <cellStyle name="Normal 21 18" xfId="770"/>
-    <cellStyle name="Normal 21 18 2" xfId="771"/>
-    <cellStyle name="Normal 21 19" xfId="772"/>
-    <cellStyle name="Normal 21 19 2" xfId="773"/>
-    <cellStyle name="Normal 21 2" xfId="774"/>
-    <cellStyle name="Normal 21 2 2" xfId="775"/>
-    <cellStyle name="Normal 21 20" xfId="776"/>
-    <cellStyle name="Normal 21 20 2" xfId="777"/>
-    <cellStyle name="Normal 21 21" xfId="778"/>
-    <cellStyle name="Normal 21 21 2" xfId="779"/>
-    <cellStyle name="Normal 21 22" xfId="780"/>
-    <cellStyle name="Normal 21 22 2" xfId="781"/>
-    <cellStyle name="Normal 21 23" xfId="782"/>
-    <cellStyle name="Normal 21 3" xfId="783"/>
-    <cellStyle name="Normal 21 3 2" xfId="784"/>
-    <cellStyle name="Normal 21 4" xfId="785"/>
-    <cellStyle name="Normal 21 4 2" xfId="786"/>
-    <cellStyle name="Normal 21 5" xfId="787"/>
-    <cellStyle name="Normal 21 5 2" xfId="788"/>
-    <cellStyle name="Normal 21 6" xfId="789"/>
-    <cellStyle name="Normal 21 6 2" xfId="790"/>
-    <cellStyle name="Normal 21 7" xfId="791"/>
-    <cellStyle name="Normal 21 7 2" xfId="792"/>
-    <cellStyle name="Normal 21 8" xfId="793"/>
-    <cellStyle name="Normal 21 8 2" xfId="794"/>
-    <cellStyle name="Normal 21 9" xfId="795"/>
-    <cellStyle name="Normal 21 9 2" xfId="796"/>
-    <cellStyle name="Normal 210" xfId="797"/>
-    <cellStyle name="Normal 211" xfId="798"/>
-    <cellStyle name="Normal 212" xfId="799"/>
-    <cellStyle name="Normal 213" xfId="800"/>
-    <cellStyle name="Normal 214" xfId="801"/>
-    <cellStyle name="Normal 215" xfId="802"/>
-    <cellStyle name="Normal 216" xfId="803"/>
-    <cellStyle name="Normal 217" xfId="804"/>
-    <cellStyle name="Normal 218" xfId="805"/>
-    <cellStyle name="Normal 219" xfId="806"/>
-    <cellStyle name="Normal 22" xfId="807"/>
-    <cellStyle name="Normal 22 10" xfId="808"/>
-    <cellStyle name="Normal 22 10 2" xfId="809"/>
-    <cellStyle name="Normal 22 11" xfId="810"/>
-    <cellStyle name="Normal 22 11 2" xfId="811"/>
-    <cellStyle name="Normal 22 12" xfId="812"/>
-    <cellStyle name="Normal 22 12 2" xfId="813"/>
-    <cellStyle name="Normal 22 13" xfId="814"/>
-    <cellStyle name="Normal 22 13 2" xfId="815"/>
-    <cellStyle name="Normal 22 14" xfId="816"/>
-    <cellStyle name="Normal 22 14 2" xfId="817"/>
-    <cellStyle name="Normal 22 15" xfId="818"/>
-    <cellStyle name="Normal 22 15 2" xfId="819"/>
-    <cellStyle name="Normal 22 16" xfId="820"/>
-    <cellStyle name="Normal 22 16 2" xfId="821"/>
-    <cellStyle name="Normal 22 17" xfId="822"/>
-    <cellStyle name="Normal 22 17 2" xfId="823"/>
-    <cellStyle name="Normal 22 18" xfId="824"/>
-    <cellStyle name="Normal 22 18 2" xfId="825"/>
-    <cellStyle name="Normal 22 19" xfId="826"/>
-    <cellStyle name="Normal 22 19 2" xfId="827"/>
-    <cellStyle name="Normal 22 2" xfId="828"/>
-    <cellStyle name="Normal 22 2 2" xfId="829"/>
-    <cellStyle name="Normal 22 20" xfId="830"/>
-    <cellStyle name="Normal 22 20 2" xfId="831"/>
-    <cellStyle name="Normal 22 21" xfId="832"/>
-    <cellStyle name="Normal 22 21 2" xfId="833"/>
-    <cellStyle name="Normal 22 22" xfId="834"/>
-    <cellStyle name="Normal 22 22 2" xfId="835"/>
-    <cellStyle name="Normal 22 23" xfId="836"/>
-    <cellStyle name="Normal 22 3" xfId="837"/>
-    <cellStyle name="Normal 22 3 2" xfId="838"/>
-    <cellStyle name="Normal 22 4" xfId="839"/>
-    <cellStyle name="Normal 22 4 2" xfId="840"/>
-    <cellStyle name="Normal 22 5" xfId="841"/>
-    <cellStyle name="Normal 22 5 2" xfId="842"/>
-    <cellStyle name="Normal 22 6" xfId="843"/>
-    <cellStyle name="Normal 22 6 2" xfId="844"/>
-    <cellStyle name="Normal 22 7" xfId="845"/>
-    <cellStyle name="Normal 22 7 2" xfId="846"/>
-    <cellStyle name="Normal 22 8" xfId="847"/>
-    <cellStyle name="Normal 22 8 2" xfId="848"/>
-    <cellStyle name="Normal 22 9" xfId="849"/>
-    <cellStyle name="Normal 22 9 2" xfId="850"/>
-    <cellStyle name="Normal 220" xfId="851"/>
-    <cellStyle name="Normal 221" xfId="852"/>
-    <cellStyle name="Normal 222" xfId="853"/>
-    <cellStyle name="Normal 223" xfId="854"/>
-    <cellStyle name="Normal 224" xfId="855"/>
-    <cellStyle name="Normal 225" xfId="856"/>
-    <cellStyle name="Normal 226" xfId="857"/>
-    <cellStyle name="Normal 227" xfId="858"/>
-    <cellStyle name="Normal 228" xfId="859"/>
-    <cellStyle name="Normal 229" xfId="860"/>
-    <cellStyle name="Normal 23" xfId="861"/>
-    <cellStyle name="Normal 23 10" xfId="862"/>
-    <cellStyle name="Normal 23 10 2" xfId="863"/>
-    <cellStyle name="Normal 23 11" xfId="864"/>
-    <cellStyle name="Normal 23 11 2" xfId="865"/>
-    <cellStyle name="Normal 23 12" xfId="866"/>
-    <cellStyle name="Normal 23 12 2" xfId="867"/>
-    <cellStyle name="Normal 23 13" xfId="868"/>
-    <cellStyle name="Normal 23 13 2" xfId="869"/>
-    <cellStyle name="Normal 23 14" xfId="870"/>
-    <cellStyle name="Normal 23 14 2" xfId="871"/>
-    <cellStyle name="Normal 23 15" xfId="872"/>
-    <cellStyle name="Normal 23 15 2" xfId="873"/>
-    <cellStyle name="Normal 23 16" xfId="874"/>
-    <cellStyle name="Normal 23 16 2" xfId="875"/>
-    <cellStyle name="Normal 23 17" xfId="876"/>
-    <cellStyle name="Normal 23 17 2" xfId="877"/>
-    <cellStyle name="Normal 23 18" xfId="878"/>
-    <cellStyle name="Normal 23 18 2" xfId="879"/>
-    <cellStyle name="Normal 23 19" xfId="880"/>
-    <cellStyle name="Normal 23 19 2" xfId="881"/>
-    <cellStyle name="Normal 23 2" xfId="882"/>
-    <cellStyle name="Normal 23 2 2" xfId="883"/>
-    <cellStyle name="Normal 23 20" xfId="884"/>
-    <cellStyle name="Normal 23 20 2" xfId="885"/>
-    <cellStyle name="Normal 23 21" xfId="886"/>
-    <cellStyle name="Normal 23 21 2" xfId="887"/>
-    <cellStyle name="Normal 23 22" xfId="888"/>
-    <cellStyle name="Normal 23 22 2" xfId="889"/>
-    <cellStyle name="Normal 23 23" xfId="890"/>
-    <cellStyle name="Normal 23 3" xfId="891"/>
-    <cellStyle name="Normal 23 3 2" xfId="892"/>
-    <cellStyle name="Normal 23 4" xfId="893"/>
-    <cellStyle name="Normal 23 4 2" xfId="894"/>
-    <cellStyle name="Normal 23 5" xfId="895"/>
-    <cellStyle name="Normal 23 5 2" xfId="896"/>
-    <cellStyle name="Normal 23 6" xfId="897"/>
-    <cellStyle name="Normal 23 6 2" xfId="898"/>
-    <cellStyle name="Normal 23 7" xfId="899"/>
-    <cellStyle name="Normal 23 7 2" xfId="900"/>
-    <cellStyle name="Normal 23 8" xfId="901"/>
-    <cellStyle name="Normal 23 8 2" xfId="902"/>
-    <cellStyle name="Normal 23 9" xfId="903"/>
-    <cellStyle name="Normal 23 9 2" xfId="904"/>
-    <cellStyle name="Normal 230" xfId="905"/>
-    <cellStyle name="Normal 231" xfId="906"/>
-    <cellStyle name="Normal 232" xfId="907"/>
-    <cellStyle name="Normal 233" xfId="908"/>
-    <cellStyle name="Normal 234" xfId="909"/>
-    <cellStyle name="Normal 235" xfId="910"/>
-    <cellStyle name="Normal 236" xfId="911"/>
-    <cellStyle name="Normal 237" xfId="912"/>
-    <cellStyle name="Normal 238" xfId="913"/>
-    <cellStyle name="Normal 239" xfId="914"/>
-    <cellStyle name="Normal 24" xfId="915"/>
-    <cellStyle name="Normal 240" xfId="916"/>
-    <cellStyle name="Normal 241" xfId="917"/>
-    <cellStyle name="Normal 242" xfId="918"/>
-    <cellStyle name="Normal 243" xfId="919"/>
-    <cellStyle name="Normal 244" xfId="920"/>
-    <cellStyle name="Normal 245" xfId="921"/>
-    <cellStyle name="Normal 246" xfId="922"/>
-    <cellStyle name="Normal 247" xfId="923"/>
-    <cellStyle name="Normal 248" xfId="924"/>
-    <cellStyle name="Normal 249" xfId="925"/>
-    <cellStyle name="Normal 25" xfId="926"/>
-    <cellStyle name="Normal 250" xfId="927"/>
-    <cellStyle name="Normal 251" xfId="928"/>
-    <cellStyle name="Normal 252" xfId="929"/>
-    <cellStyle name="Normal 253" xfId="930"/>
-    <cellStyle name="Normal 254" xfId="931"/>
-    <cellStyle name="Normal 255" xfId="932"/>
-    <cellStyle name="Normal 256" xfId="933"/>
-    <cellStyle name="Normal 257" xfId="934"/>
-    <cellStyle name="Normal 258" xfId="935"/>
-    <cellStyle name="Normal 259" xfId="936"/>
-    <cellStyle name="Normal 26" xfId="937"/>
-    <cellStyle name="Normal 260" xfId="938"/>
-    <cellStyle name="Normal 261" xfId="939"/>
-    <cellStyle name="Normal 262" xfId="940"/>
-    <cellStyle name="Normal 263" xfId="941"/>
-    <cellStyle name="Normal 264" xfId="942"/>
-    <cellStyle name="Normal 265" xfId="943"/>
-    <cellStyle name="Normal 266" xfId="944"/>
-    <cellStyle name="Normal 267" xfId="945"/>
-    <cellStyle name="Normal 268" xfId="946"/>
-    <cellStyle name="Normal 269" xfId="947"/>
-    <cellStyle name="Normal 27" xfId="948"/>
-    <cellStyle name="Normal 270" xfId="949"/>
-    <cellStyle name="Normal 271" xfId="950"/>
-    <cellStyle name="Normal 272" xfId="951"/>
-    <cellStyle name="Normal 273" xfId="952"/>
-    <cellStyle name="Normal 274" xfId="953"/>
-    <cellStyle name="Normal 275" xfId="954"/>
-    <cellStyle name="Normal 276" xfId="955"/>
-    <cellStyle name="Normal 277" xfId="956"/>
-    <cellStyle name="Normal 278" xfId="957"/>
-    <cellStyle name="Normal 279" xfId="958"/>
-    <cellStyle name="Normal 28" xfId="959"/>
-    <cellStyle name="Normal 280" xfId="960"/>
-    <cellStyle name="Normal 281" xfId="961"/>
-    <cellStyle name="Normal 282" xfId="962"/>
-    <cellStyle name="Normal 283" xfId="963"/>
-    <cellStyle name="Normal 284" xfId="964"/>
-    <cellStyle name="Normal 285" xfId="965"/>
-    <cellStyle name="Normal 286" xfId="966"/>
-    <cellStyle name="Normal 287" xfId="967"/>
-    <cellStyle name="Normal 288" xfId="968"/>
-    <cellStyle name="Normal 289" xfId="969"/>
-    <cellStyle name="Normal 29" xfId="970"/>
-    <cellStyle name="Normal 290" xfId="971"/>
-    <cellStyle name="Normal 291" xfId="972"/>
-    <cellStyle name="Normal 292" xfId="973"/>
-    <cellStyle name="Normal 293" xfId="974"/>
-    <cellStyle name="Normal 294" xfId="975"/>
-    <cellStyle name="Normal 295" xfId="976"/>
-    <cellStyle name="Normal 296" xfId="977"/>
-    <cellStyle name="Normal 297" xfId="978"/>
-    <cellStyle name="Normal 298" xfId="979"/>
-    <cellStyle name="Normal 299" xfId="980"/>
-    <cellStyle name="Normal 3" xfId="981"/>
-    <cellStyle name="Normal 30" xfId="982"/>
-    <cellStyle name="Normal 300" xfId="983"/>
-    <cellStyle name="Normal 301" xfId="984"/>
-    <cellStyle name="Normal 302" xfId="985"/>
-    <cellStyle name="Normal 303" xfId="986"/>
-    <cellStyle name="Normal 304" xfId="987"/>
-    <cellStyle name="Normal 305" xfId="988"/>
-    <cellStyle name="Normal 306" xfId="989"/>
-    <cellStyle name="Normal 307" xfId="990"/>
-    <cellStyle name="Normal 308" xfId="991"/>
-    <cellStyle name="Normal 309" xfId="992"/>
-    <cellStyle name="Normal 31" xfId="993"/>
-    <cellStyle name="Normal 310" xfId="994"/>
-    <cellStyle name="Normal 311" xfId="995"/>
-    <cellStyle name="Normal 312" xfId="996"/>
-    <cellStyle name="Normal 313" xfId="997"/>
-    <cellStyle name="Normal 314" xfId="998"/>
-    <cellStyle name="Normal 315" xfId="999"/>
-    <cellStyle name="Normal 316" xfId="1000"/>
-    <cellStyle name="Normal 317" xfId="1001"/>
-    <cellStyle name="Normal 318" xfId="1002"/>
-    <cellStyle name="Normal 319" xfId="1003"/>
-    <cellStyle name="Normal 32" xfId="1004"/>
-    <cellStyle name="Normal 320" xfId="1005"/>
-    <cellStyle name="Normal 321" xfId="1006"/>
-    <cellStyle name="Normal 322" xfId="1007"/>
-    <cellStyle name="Normal 323" xfId="1008"/>
-    <cellStyle name="Normal 324" xfId="1009"/>
-    <cellStyle name="Normal 325" xfId="1010"/>
-    <cellStyle name="Normal 326" xfId="1011"/>
-    <cellStyle name="Normal 327" xfId="1012"/>
-    <cellStyle name="Normal 328" xfId="1013"/>
-    <cellStyle name="Normal 329" xfId="1014"/>
-    <cellStyle name="Normal 33" xfId="1015"/>
-    <cellStyle name="Normal 330" xfId="1016"/>
-    <cellStyle name="Normal 331" xfId="1017"/>
-    <cellStyle name="Normal 332" xfId="1018"/>
-    <cellStyle name="Normal 333" xfId="1019"/>
-    <cellStyle name="Normal 334" xfId="1020"/>
-    <cellStyle name="Normal 335" xfId="1021"/>
-    <cellStyle name="Normal 336" xfId="1022"/>
-    <cellStyle name="Normal 337" xfId="1023"/>
-    <cellStyle name="Normal 338" xfId="1024"/>
-    <cellStyle name="Normal 339" xfId="1025"/>
-    <cellStyle name="Normal 34" xfId="1026"/>
-    <cellStyle name="Normal 340" xfId="1027"/>
-    <cellStyle name="Normal 341" xfId="1028"/>
-    <cellStyle name="Normal 342" xfId="1029"/>
-    <cellStyle name="Normal 343" xfId="1030"/>
-    <cellStyle name="Normal 344" xfId="1031"/>
-    <cellStyle name="Normal 345" xfId="1032"/>
-    <cellStyle name="Normal 346" xfId="1033"/>
-    <cellStyle name="Normal 347" xfId="1034"/>
-    <cellStyle name="Normal 348" xfId="1035"/>
-    <cellStyle name="Normal 349" xfId="1036"/>
-    <cellStyle name="Normal 35" xfId="1037"/>
-    <cellStyle name="Normal 350" xfId="1038"/>
-    <cellStyle name="Normal 351" xfId="1039"/>
-    <cellStyle name="Normal 352" xfId="1040"/>
-    <cellStyle name="Normal 353" xfId="1041"/>
-    <cellStyle name="Normal 354" xfId="1042"/>
-    <cellStyle name="Normal 355" xfId="1043"/>
-    <cellStyle name="Normal 356" xfId="1044"/>
-    <cellStyle name="Normal 357" xfId="1045"/>
-    <cellStyle name="Normal 358" xfId="1046"/>
-    <cellStyle name="Normal 359" xfId="1047"/>
-    <cellStyle name="Normal 36" xfId="1048"/>
-    <cellStyle name="Normal 360" xfId="1049"/>
-    <cellStyle name="Normal 361" xfId="1050"/>
-    <cellStyle name="Normal 362" xfId="1051"/>
-    <cellStyle name="Normal 363" xfId="1052"/>
-    <cellStyle name="Normal 364" xfId="1053"/>
-    <cellStyle name="Normal 365" xfId="1054"/>
-    <cellStyle name="Normal 366" xfId="1055"/>
-    <cellStyle name="Normal 367" xfId="1056"/>
-    <cellStyle name="Normal 368" xfId="1057"/>
-    <cellStyle name="Normal 369" xfId="1058"/>
-    <cellStyle name="Normal 37" xfId="1059"/>
-    <cellStyle name="Normal 370" xfId="1060"/>
-    <cellStyle name="Normal 371" xfId="1061"/>
-    <cellStyle name="Normal 372" xfId="1062"/>
-    <cellStyle name="Normal 373" xfId="1063"/>
-    <cellStyle name="Normal 374" xfId="1064"/>
-    <cellStyle name="Normal 375" xfId="1065"/>
-    <cellStyle name="Normal 376" xfId="1066"/>
-    <cellStyle name="Normal 377" xfId="1067"/>
-    <cellStyle name="Normal 378" xfId="1068"/>
-    <cellStyle name="Normal 379" xfId="1069"/>
-    <cellStyle name="Normal 38" xfId="1070"/>
-    <cellStyle name="Normal 380" xfId="1071"/>
-    <cellStyle name="Normal 381" xfId="1072"/>
-    <cellStyle name="Normal 382" xfId="1073"/>
-    <cellStyle name="Normal 383" xfId="1074"/>
-    <cellStyle name="Normal 384" xfId="1075"/>
-    <cellStyle name="Normal 385" xfId="1076"/>
-    <cellStyle name="Normal 386" xfId="1077"/>
-    <cellStyle name="Normal 387" xfId="1078"/>
-    <cellStyle name="Normal 388" xfId="1079"/>
-    <cellStyle name="Normal 389" xfId="1080"/>
-    <cellStyle name="Normal 39" xfId="1081"/>
-    <cellStyle name="Normal 390" xfId="1082"/>
-    <cellStyle name="Normal 391" xfId="1083"/>
-    <cellStyle name="Normal 392" xfId="1084"/>
-    <cellStyle name="Normal 393" xfId="1085"/>
-    <cellStyle name="Normal 394" xfId="1086"/>
-    <cellStyle name="Normal 395" xfId="1087"/>
-    <cellStyle name="Normal 396" xfId="1088"/>
-    <cellStyle name="Normal 397" xfId="1089"/>
-    <cellStyle name="Normal 398" xfId="1090"/>
-    <cellStyle name="Normal 399" xfId="1091"/>
-    <cellStyle name="Normal 4" xfId="1092"/>
-    <cellStyle name="Normal 40" xfId="1093"/>
-    <cellStyle name="Normal 400" xfId="1094"/>
-    <cellStyle name="Normal 401" xfId="1095"/>
-    <cellStyle name="Normal 401 2" xfId="1096"/>
-    <cellStyle name="Normal 402" xfId="1097"/>
-    <cellStyle name="Normal 403" xfId="1098"/>
-    <cellStyle name="Normal 404" xfId="1099"/>
-    <cellStyle name="Normal 405" xfId="1100"/>
-    <cellStyle name="Normal 406" xfId="1101"/>
-    <cellStyle name="Normal 407" xfId="1102"/>
-    <cellStyle name="Normal 408" xfId="1103"/>
-    <cellStyle name="Normal 409" xfId="1104"/>
-    <cellStyle name="Normal 41" xfId="1105"/>
-    <cellStyle name="Normal 410" xfId="1106"/>
-    <cellStyle name="Normal 411" xfId="1107"/>
-    <cellStyle name="Normal 411 2" xfId="1108"/>
-    <cellStyle name="Normal 412" xfId="1109"/>
-    <cellStyle name="Normal 413" xfId="1110"/>
-    <cellStyle name="Normal 414" xfId="1111"/>
-    <cellStyle name="Normal 415" xfId="1112"/>
-    <cellStyle name="Normal 416" xfId="1113"/>
-    <cellStyle name="Normal 416 2" xfId="1114"/>
-    <cellStyle name="Normal 417" xfId="1488"/>
-    <cellStyle name="Normal 42" xfId="1115"/>
-    <cellStyle name="Normal 43" xfId="1116"/>
-    <cellStyle name="Normal 44" xfId="1117"/>
-    <cellStyle name="Normal 45" xfId="1118"/>
-    <cellStyle name="Normal 46" xfId="1119"/>
-    <cellStyle name="Normal 47" xfId="1120"/>
-    <cellStyle name="Normal 48" xfId="1121"/>
-    <cellStyle name="Normal 49" xfId="1122"/>
-    <cellStyle name="Normal 5" xfId="1123"/>
-    <cellStyle name="Normal 5 10" xfId="1124"/>
-    <cellStyle name="Normal 5 10 2" xfId="1125"/>
-    <cellStyle name="Normal 5 11" xfId="1126"/>
-    <cellStyle name="Normal 5 11 2" xfId="1127"/>
-    <cellStyle name="Normal 5 12" xfId="1128"/>
-    <cellStyle name="Normal 5 12 2" xfId="1129"/>
-    <cellStyle name="Normal 5 13" xfId="1130"/>
-    <cellStyle name="Normal 5 13 2" xfId="1131"/>
-    <cellStyle name="Normal 5 14" xfId="1132"/>
-    <cellStyle name="Normal 5 14 2" xfId="1133"/>
-    <cellStyle name="Normal 5 15" xfId="1134"/>
-    <cellStyle name="Normal 5 15 2" xfId="1135"/>
-    <cellStyle name="Normal 5 16" xfId="1136"/>
-    <cellStyle name="Normal 5 16 2" xfId="1137"/>
-    <cellStyle name="Normal 5 17" xfId="1138"/>
-    <cellStyle name="Normal 5 17 2" xfId="1139"/>
-    <cellStyle name="Normal 5 18" xfId="1140"/>
-    <cellStyle name="Normal 5 18 2" xfId="1141"/>
-    <cellStyle name="Normal 5 19" xfId="1142"/>
-    <cellStyle name="Normal 5 19 2" xfId="1143"/>
-    <cellStyle name="Normal 5 2" xfId="1144"/>
-    <cellStyle name="Normal 5 2 10" xfId="1145"/>
-    <cellStyle name="Normal 5 2 10 2" xfId="1146"/>
-    <cellStyle name="Normal 5 2 11" xfId="1147"/>
-    <cellStyle name="Normal 5 2 11 2" xfId="1148"/>
-    <cellStyle name="Normal 5 2 12" xfId="1149"/>
-    <cellStyle name="Normal 5 2 12 2" xfId="1150"/>
-    <cellStyle name="Normal 5 2 13" xfId="1151"/>
-    <cellStyle name="Normal 5 2 13 2" xfId="1152"/>
-    <cellStyle name="Normal 5 2 14" xfId="1153"/>
-    <cellStyle name="Normal 5 2 14 2" xfId="1154"/>
-    <cellStyle name="Normal 5 2 15" xfId="1155"/>
-    <cellStyle name="Normal 5 2 15 2" xfId="1156"/>
-    <cellStyle name="Normal 5 2 16" xfId="1157"/>
-    <cellStyle name="Normal 5 2 16 2" xfId="1158"/>
-    <cellStyle name="Normal 5 2 17" xfId="1159"/>
-    <cellStyle name="Normal 5 2 17 2" xfId="1160"/>
-    <cellStyle name="Normal 5 2 18" xfId="1161"/>
-    <cellStyle name="Normal 5 2 18 2" xfId="1162"/>
-    <cellStyle name="Normal 5 2 19" xfId="1163"/>
-    <cellStyle name="Normal 5 2 19 2" xfId="1164"/>
-    <cellStyle name="Normal 5 2 2" xfId="1165"/>
-    <cellStyle name="Normal 5 2 2 2" xfId="1166"/>
-    <cellStyle name="Normal 5 2 20" xfId="1167"/>
-    <cellStyle name="Normal 5 2 20 2" xfId="1168"/>
-    <cellStyle name="Normal 5 2 21" xfId="1169"/>
-    <cellStyle name="Normal 5 2 21 2" xfId="1170"/>
-    <cellStyle name="Normal 5 2 22" xfId="1171"/>
-    <cellStyle name="Normal 5 2 22 2" xfId="1172"/>
-    <cellStyle name="Normal 5 2 23" xfId="1173"/>
-    <cellStyle name="Normal 5 2 3" xfId="1174"/>
-    <cellStyle name="Normal 5 2 3 2" xfId="1175"/>
-    <cellStyle name="Normal 5 2 4" xfId="1176"/>
-    <cellStyle name="Normal 5 2 4 2" xfId="1177"/>
-    <cellStyle name="Normal 5 2 5" xfId="1178"/>
-    <cellStyle name="Normal 5 2 5 2" xfId="1179"/>
-    <cellStyle name="Normal 5 2 6" xfId="1180"/>
-    <cellStyle name="Normal 5 2 6 2" xfId="1181"/>
-    <cellStyle name="Normal 5 2 7" xfId="1182"/>
-    <cellStyle name="Normal 5 2 7 2" xfId="1183"/>
-    <cellStyle name="Normal 5 2 8" xfId="1184"/>
-    <cellStyle name="Normal 5 2 8 2" xfId="1185"/>
-    <cellStyle name="Normal 5 2 9" xfId="1186"/>
-    <cellStyle name="Normal 5 2 9 2" xfId="1187"/>
-    <cellStyle name="Normal 5 20" xfId="1188"/>
-    <cellStyle name="Normal 5 20 2" xfId="1189"/>
-    <cellStyle name="Normal 5 21" xfId="1190"/>
-    <cellStyle name="Normal 5 21 2" xfId="1191"/>
-    <cellStyle name="Normal 5 22" xfId="1192"/>
-    <cellStyle name="Normal 5 22 2" xfId="1193"/>
-    <cellStyle name="Normal 5 23" xfId="1194"/>
-    <cellStyle name="Normal 5 23 2" xfId="1195"/>
-    <cellStyle name="Normal 5 24" xfId="1196"/>
-    <cellStyle name="Normal 5 3" xfId="1197"/>
-    <cellStyle name="Normal 5 3 2" xfId="1198"/>
-    <cellStyle name="Normal 5 4" xfId="1199"/>
-    <cellStyle name="Normal 5 4 2" xfId="1200"/>
-    <cellStyle name="Normal 5 5" xfId="1201"/>
-    <cellStyle name="Normal 5 5 2" xfId="1202"/>
-    <cellStyle name="Normal 5 6" xfId="1203"/>
-    <cellStyle name="Normal 5 6 2" xfId="1204"/>
-    <cellStyle name="Normal 5 7" xfId="1205"/>
-    <cellStyle name="Normal 5 7 2" xfId="1206"/>
-    <cellStyle name="Normal 5 8" xfId="1207"/>
-    <cellStyle name="Normal 5 8 2" xfId="1208"/>
-    <cellStyle name="Normal 5 9" xfId="1209"/>
-    <cellStyle name="Normal 5 9 2" xfId="1210"/>
-    <cellStyle name="Normal 50" xfId="1211"/>
-    <cellStyle name="Normal 51" xfId="1212"/>
-    <cellStyle name="Normal 52" xfId="1213"/>
-    <cellStyle name="Normal 53" xfId="1214"/>
-    <cellStyle name="Normal 54" xfId="1215"/>
-    <cellStyle name="Normal 55" xfId="1216"/>
-    <cellStyle name="Normal 56" xfId="1217"/>
-    <cellStyle name="Normal 57" xfId="1218"/>
-    <cellStyle name="Normal 58" xfId="1219"/>
-    <cellStyle name="Normal 59" xfId="1220"/>
-    <cellStyle name="Normal 6" xfId="1221"/>
-    <cellStyle name="Normal 60" xfId="1222"/>
-    <cellStyle name="Normal 61" xfId="1223"/>
-    <cellStyle name="Normal 62" xfId="1224"/>
-    <cellStyle name="Normal 63" xfId="1225"/>
-    <cellStyle name="Normal 64" xfId="1226"/>
-    <cellStyle name="Normal 65" xfId="1227"/>
-    <cellStyle name="Normal 66" xfId="1228"/>
-    <cellStyle name="Normal 67" xfId="1229"/>
-    <cellStyle name="Normal 67 10" xfId="1230"/>
-    <cellStyle name="Normal 67 10 2" xfId="1231"/>
-    <cellStyle name="Normal 67 11" xfId="1232"/>
-    <cellStyle name="Normal 67 11 2" xfId="1233"/>
-    <cellStyle name="Normal 67 12" xfId="1234"/>
-    <cellStyle name="Normal 67 12 2" xfId="1235"/>
-    <cellStyle name="Normal 67 13" xfId="1236"/>
-    <cellStyle name="Normal 67 13 2" xfId="1237"/>
-    <cellStyle name="Normal 67 14" xfId="1238"/>
-    <cellStyle name="Normal 67 14 2" xfId="1239"/>
-    <cellStyle name="Normal 67 15" xfId="1240"/>
-    <cellStyle name="Normal 67 15 2" xfId="1241"/>
-    <cellStyle name="Normal 67 16" xfId="1242"/>
-    <cellStyle name="Normal 67 16 2" xfId="1243"/>
-    <cellStyle name="Normal 67 17" xfId="1244"/>
-    <cellStyle name="Normal 67 17 2" xfId="1245"/>
-    <cellStyle name="Normal 67 18" xfId="1246"/>
-    <cellStyle name="Normal 67 18 2" xfId="1247"/>
-    <cellStyle name="Normal 67 19" xfId="1248"/>
-    <cellStyle name="Normal 67 19 2" xfId="1249"/>
-    <cellStyle name="Normal 67 2" xfId="1250"/>
-    <cellStyle name="Normal 67 2 2" xfId="1251"/>
-    <cellStyle name="Normal 67 20" xfId="1252"/>
-    <cellStyle name="Normal 67 20 2" xfId="1253"/>
-    <cellStyle name="Normal 67 21" xfId="1254"/>
-    <cellStyle name="Normal 67 21 2" xfId="1255"/>
-    <cellStyle name="Normal 67 22" xfId="1256"/>
-    <cellStyle name="Normal 67 22 2" xfId="1257"/>
-    <cellStyle name="Normal 67 23" xfId="1258"/>
-    <cellStyle name="Normal 67 3" xfId="1259"/>
-    <cellStyle name="Normal 67 3 2" xfId="1260"/>
-    <cellStyle name="Normal 67 4" xfId="1261"/>
-    <cellStyle name="Normal 67 4 2" xfId="1262"/>
-    <cellStyle name="Normal 67 5" xfId="1263"/>
-    <cellStyle name="Normal 67 5 2" xfId="1264"/>
-    <cellStyle name="Normal 67 6" xfId="1265"/>
-    <cellStyle name="Normal 67 6 2" xfId="1266"/>
-    <cellStyle name="Normal 67 7" xfId="1267"/>
-    <cellStyle name="Normal 67 7 2" xfId="1268"/>
-    <cellStyle name="Normal 67 8" xfId="1269"/>
-    <cellStyle name="Normal 67 8 2" xfId="1270"/>
-    <cellStyle name="Normal 67 9" xfId="1271"/>
-    <cellStyle name="Normal 67 9 2" xfId="1272"/>
-    <cellStyle name="Normal 68" xfId="1273"/>
-    <cellStyle name="Normal 69" xfId="1274"/>
-    <cellStyle name="Normal 69 10" xfId="1275"/>
-    <cellStyle name="Normal 69 10 2" xfId="1276"/>
-    <cellStyle name="Normal 69 11" xfId="1277"/>
-    <cellStyle name="Normal 69 11 2" xfId="1278"/>
-    <cellStyle name="Normal 69 12" xfId="1279"/>
-    <cellStyle name="Normal 69 12 2" xfId="1280"/>
-    <cellStyle name="Normal 69 13" xfId="1281"/>
-    <cellStyle name="Normal 69 13 2" xfId="1282"/>
-    <cellStyle name="Normal 69 14" xfId="1283"/>
-    <cellStyle name="Normal 69 14 2" xfId="1284"/>
-    <cellStyle name="Normal 69 15" xfId="1285"/>
-    <cellStyle name="Normal 69 15 2" xfId="1286"/>
-    <cellStyle name="Normal 69 16" xfId="1287"/>
-    <cellStyle name="Normal 69 16 2" xfId="1288"/>
-    <cellStyle name="Normal 69 17" xfId="1289"/>
-    <cellStyle name="Normal 69 17 2" xfId="1290"/>
-    <cellStyle name="Normal 69 18" xfId="1291"/>
-    <cellStyle name="Normal 69 18 2" xfId="1292"/>
-    <cellStyle name="Normal 69 19" xfId="1293"/>
-    <cellStyle name="Normal 69 19 2" xfId="1294"/>
-    <cellStyle name="Normal 69 2" xfId="1295"/>
-    <cellStyle name="Normal 69 2 2" xfId="1296"/>
-    <cellStyle name="Normal 69 20" xfId="1297"/>
-    <cellStyle name="Normal 69 20 2" xfId="1298"/>
-    <cellStyle name="Normal 69 21" xfId="1299"/>
-    <cellStyle name="Normal 69 21 2" xfId="1300"/>
-    <cellStyle name="Normal 69 22" xfId="1301"/>
-    <cellStyle name="Normal 69 22 2" xfId="1302"/>
-    <cellStyle name="Normal 69 23" xfId="1303"/>
-    <cellStyle name="Normal 69 3" xfId="1304"/>
-    <cellStyle name="Normal 69 3 2" xfId="1305"/>
-    <cellStyle name="Normal 69 4" xfId="1306"/>
-    <cellStyle name="Normal 69 4 2" xfId="1307"/>
-    <cellStyle name="Normal 69 5" xfId="1308"/>
-    <cellStyle name="Normal 69 5 2" xfId="1309"/>
-    <cellStyle name="Normal 69 6" xfId="1310"/>
-    <cellStyle name="Normal 69 6 2" xfId="1311"/>
-    <cellStyle name="Normal 69 7" xfId="1312"/>
-    <cellStyle name="Normal 69 7 2" xfId="1313"/>
-    <cellStyle name="Normal 69 8" xfId="1314"/>
-    <cellStyle name="Normal 69 8 2" xfId="1315"/>
-    <cellStyle name="Normal 69 9" xfId="1316"/>
-    <cellStyle name="Normal 69 9 2" xfId="1317"/>
-    <cellStyle name="Normal 7" xfId="1318"/>
-    <cellStyle name="Normal 70" xfId="1319"/>
-    <cellStyle name="Normal 70 10" xfId="1320"/>
-    <cellStyle name="Normal 70 10 2" xfId="1321"/>
-    <cellStyle name="Normal 70 11" xfId="1322"/>
-    <cellStyle name="Normal 70 11 2" xfId="1323"/>
-    <cellStyle name="Normal 70 12" xfId="1324"/>
-    <cellStyle name="Normal 70 12 2" xfId="1325"/>
-    <cellStyle name="Normal 70 13" xfId="1326"/>
-    <cellStyle name="Normal 70 13 2" xfId="1327"/>
-    <cellStyle name="Normal 70 14" xfId="1328"/>
-    <cellStyle name="Normal 70 14 2" xfId="1329"/>
-    <cellStyle name="Normal 70 15" xfId="1330"/>
-    <cellStyle name="Normal 70 15 2" xfId="1331"/>
-    <cellStyle name="Normal 70 16" xfId="1332"/>
-    <cellStyle name="Normal 70 16 2" xfId="1333"/>
-    <cellStyle name="Normal 70 17" xfId="1334"/>
-    <cellStyle name="Normal 70 17 2" xfId="1335"/>
-    <cellStyle name="Normal 70 18" xfId="1336"/>
-    <cellStyle name="Normal 70 18 2" xfId="1337"/>
-    <cellStyle name="Normal 70 19" xfId="1338"/>
-    <cellStyle name="Normal 70 19 2" xfId="1339"/>
-    <cellStyle name="Normal 70 2" xfId="1340"/>
-    <cellStyle name="Normal 70 2 2" xfId="1341"/>
-    <cellStyle name="Normal 70 20" xfId="1342"/>
-    <cellStyle name="Normal 70 20 2" xfId="1343"/>
-    <cellStyle name="Normal 70 21" xfId="1344"/>
-    <cellStyle name="Normal 70 21 2" xfId="1345"/>
-    <cellStyle name="Normal 70 22" xfId="1346"/>
-    <cellStyle name="Normal 70 22 2" xfId="1347"/>
-    <cellStyle name="Normal 70 23" xfId="1348"/>
-    <cellStyle name="Normal 70 3" xfId="1349"/>
-    <cellStyle name="Normal 70 3 2" xfId="1350"/>
-    <cellStyle name="Normal 70 4" xfId="1351"/>
-    <cellStyle name="Normal 70 4 2" xfId="1352"/>
-    <cellStyle name="Normal 70 5" xfId="1353"/>
-    <cellStyle name="Normal 70 5 2" xfId="1354"/>
-    <cellStyle name="Normal 70 6" xfId="1355"/>
-    <cellStyle name="Normal 70 6 2" xfId="1356"/>
-    <cellStyle name="Normal 70 7" xfId="1357"/>
-    <cellStyle name="Normal 70 7 2" xfId="1358"/>
-    <cellStyle name="Normal 70 8" xfId="1359"/>
-    <cellStyle name="Normal 70 8 2" xfId="1360"/>
-    <cellStyle name="Normal 70 9" xfId="1361"/>
-    <cellStyle name="Normal 70 9 2" xfId="1362"/>
-    <cellStyle name="Normal 71" xfId="1363"/>
-    <cellStyle name="Normal 71 2" xfId="1364"/>
-    <cellStyle name="Normal 72" xfId="1365"/>
-    <cellStyle name="Normal 72 2" xfId="1366"/>
-    <cellStyle name="Normal 73" xfId="1367"/>
-    <cellStyle name="Normal 73 10" xfId="1368"/>
-    <cellStyle name="Normal 73 11" xfId="1369"/>
-    <cellStyle name="Normal 73 12" xfId="1370"/>
-    <cellStyle name="Normal 73 13" xfId="1371"/>
-    <cellStyle name="Normal 73 14" xfId="1372"/>
-    <cellStyle name="Normal 73 15" xfId="1373"/>
-    <cellStyle name="Normal 73 16" xfId="1374"/>
-    <cellStyle name="Normal 73 17" xfId="1375"/>
-    <cellStyle name="Normal 73 18" xfId="1376"/>
-    <cellStyle name="Normal 73 19" xfId="1377"/>
-    <cellStyle name="Normal 73 2" xfId="1378"/>
-    <cellStyle name="Normal 73 20" xfId="1379"/>
-    <cellStyle name="Normal 73 21" xfId="1380"/>
-    <cellStyle name="Normal 73 22" xfId="1381"/>
-    <cellStyle name="Normal 73 23" xfId="1382"/>
-    <cellStyle name="Normal 73 3" xfId="1383"/>
-    <cellStyle name="Normal 73 4" xfId="1384"/>
-    <cellStyle name="Normal 73 5" xfId="1385"/>
-    <cellStyle name="Normal 73 6" xfId="1386"/>
-    <cellStyle name="Normal 73 7" xfId="1387"/>
-    <cellStyle name="Normal 73 8" xfId="1388"/>
-    <cellStyle name="Normal 73 9" xfId="1389"/>
-    <cellStyle name="Normal 74" xfId="1390"/>
-    <cellStyle name="Normal 74 2" xfId="1391"/>
-    <cellStyle name="Normal 75" xfId="1392"/>
-    <cellStyle name="Normal 75 2" xfId="1393"/>
-    <cellStyle name="Normal 76" xfId="1394"/>
-    <cellStyle name="Normal 76 2" xfId="1395"/>
-    <cellStyle name="Normal 77" xfId="1396"/>
-    <cellStyle name="Normal 77 2" xfId="1397"/>
-    <cellStyle name="Normal 78" xfId="1398"/>
-    <cellStyle name="Normal 78 2" xfId="1399"/>
-    <cellStyle name="Normal 79" xfId="1400"/>
-    <cellStyle name="Normal 79 2" xfId="1401"/>
-    <cellStyle name="Normal 8" xfId="1402"/>
-    <cellStyle name="Normal 80" xfId="1403"/>
-    <cellStyle name="Normal 80 2" xfId="1404"/>
-    <cellStyle name="Normal 81" xfId="1405"/>
-    <cellStyle name="Normal 81 2" xfId="1406"/>
-    <cellStyle name="Normal 82" xfId="1407"/>
-    <cellStyle name="Normal 82 2" xfId="1408"/>
-    <cellStyle name="Normal 83" xfId="1409"/>
-    <cellStyle name="Normal 83 2" xfId="1410"/>
-    <cellStyle name="Normal 84" xfId="1411"/>
-    <cellStyle name="Normal 84 2" xfId="1412"/>
-    <cellStyle name="Normal 85" xfId="1413"/>
-    <cellStyle name="Normal 85 2" xfId="1414"/>
-    <cellStyle name="Normal 86" xfId="1415"/>
-    <cellStyle name="Normal 86 2" xfId="1416"/>
-    <cellStyle name="Normal 87" xfId="1417"/>
-    <cellStyle name="Normal 87 2" xfId="1418"/>
-    <cellStyle name="Normal 88" xfId="1419"/>
-    <cellStyle name="Normal 88 2" xfId="1420"/>
-    <cellStyle name="Normal 89" xfId="1421"/>
-    <cellStyle name="Normal 89 2" xfId="1422"/>
-    <cellStyle name="Normal 9" xfId="1423"/>
-    <cellStyle name="Normal 90" xfId="1424"/>
-    <cellStyle name="Normal 90 2" xfId="1425"/>
-    <cellStyle name="Normal 91" xfId="1426"/>
-    <cellStyle name="Normal 91 2" xfId="1427"/>
-    <cellStyle name="Normal 92" xfId="1428"/>
-    <cellStyle name="Normal 92 2" xfId="1429"/>
-    <cellStyle name="Normal 93" xfId="1430"/>
-    <cellStyle name="Normal 93 2" xfId="1431"/>
-    <cellStyle name="Normal 94" xfId="1432"/>
-    <cellStyle name="Normal 94 2" xfId="1433"/>
-    <cellStyle name="Normal 95" xfId="1434"/>
-    <cellStyle name="Normal 96" xfId="1435"/>
-    <cellStyle name="Normal 97" xfId="1436"/>
-    <cellStyle name="Normal 97 2" xfId="1437"/>
-    <cellStyle name="Normal 98" xfId="1438"/>
-    <cellStyle name="Normal 98 2" xfId="1439"/>
-    <cellStyle name="Normal 99" xfId="1440"/>
-    <cellStyle name="Porcentaje 2" xfId="1441"/>
-    <cellStyle name="Porcentaje 2 10" xfId="1442"/>
-    <cellStyle name="Porcentaje 2 10 2" xfId="1443"/>
-    <cellStyle name="Porcentaje 2 11" xfId="1444"/>
-    <cellStyle name="Porcentaje 2 11 2" xfId="1445"/>
-    <cellStyle name="Porcentaje 2 12" xfId="1446"/>
-    <cellStyle name="Porcentaje 2 12 2" xfId="1447"/>
-    <cellStyle name="Porcentaje 2 13" xfId="1448"/>
-    <cellStyle name="Porcentaje 2 13 2" xfId="1449"/>
-    <cellStyle name="Porcentaje 2 14" xfId="1450"/>
-    <cellStyle name="Porcentaje 2 14 2" xfId="1451"/>
-    <cellStyle name="Porcentaje 2 15" xfId="1452"/>
-    <cellStyle name="Porcentaje 2 15 2" xfId="1453"/>
-    <cellStyle name="Porcentaje 2 16" xfId="1454"/>
-    <cellStyle name="Porcentaje 2 16 2" xfId="1455"/>
-    <cellStyle name="Porcentaje 2 17" xfId="1456"/>
-    <cellStyle name="Porcentaje 2 17 2" xfId="1457"/>
-    <cellStyle name="Porcentaje 2 18" xfId="1458"/>
-    <cellStyle name="Porcentaje 2 18 2" xfId="1459"/>
-    <cellStyle name="Porcentaje 2 19" xfId="1460"/>
-    <cellStyle name="Porcentaje 2 19 2" xfId="1461"/>
-    <cellStyle name="Porcentaje 2 2" xfId="1462"/>
-    <cellStyle name="Porcentaje 2 2 2" xfId="1463"/>
-    <cellStyle name="Porcentaje 2 20" xfId="1464"/>
-    <cellStyle name="Porcentaje 2 20 2" xfId="1465"/>
-    <cellStyle name="Porcentaje 2 21" xfId="1466"/>
-    <cellStyle name="Porcentaje 2 21 2" xfId="1467"/>
-    <cellStyle name="Porcentaje 2 22" xfId="1468"/>
-    <cellStyle name="Porcentaje 2 22 2" xfId="1469"/>
-    <cellStyle name="Porcentaje 2 23" xfId="1470"/>
-    <cellStyle name="Porcentaje 2 3" xfId="1471"/>
-    <cellStyle name="Porcentaje 2 3 2" xfId="1472"/>
-    <cellStyle name="Porcentaje 2 4" xfId="1473"/>
-    <cellStyle name="Porcentaje 2 4 2" xfId="1474"/>
-    <cellStyle name="Porcentaje 2 5" xfId="1475"/>
-    <cellStyle name="Porcentaje 2 5 2" xfId="1476"/>
-    <cellStyle name="Porcentaje 2 6" xfId="1477"/>
-    <cellStyle name="Porcentaje 2 6 2" xfId="1478"/>
-    <cellStyle name="Porcentaje 2 7" xfId="1479"/>
-    <cellStyle name="Porcentaje 2 7 2" xfId="1480"/>
-    <cellStyle name="Porcentaje 2 8" xfId="1481"/>
-    <cellStyle name="Porcentaje 2 8 2" xfId="1482"/>
-    <cellStyle name="Porcentaje 2 9" xfId="1483"/>
-    <cellStyle name="Porcentaje 2 9 2" xfId="1484"/>
-    <cellStyle name="Porcentual 2" xfId="1485"/>
-    <cellStyle name="Porcentual 3" xfId="1486"/>
+    <cellStyle name="Normal 10" xfId="189" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Normal 10 4" xfId="1487" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Normal 100" xfId="190" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Normal 100 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Normal 101" xfId="192" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Normal 101 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Normal 102" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Normal 103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 104" xfId="196" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 105" xfId="197" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 106" xfId="198" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal 107" xfId="199" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Normal 108" xfId="200" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Normal 108 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Normal 109" xfId="202" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Normal 11" xfId="203" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Normal 11 10" xfId="204" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Normal 11 10 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Normal 11 11" xfId="206" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Normal 11 11 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Normal 11 12" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Normal 11 12 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Normal 11 13" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Normal 11 13 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Normal 11 14" xfId="212" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Normal 11 14 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Normal 11 15" xfId="214" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Normal 11 15 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Normal 11 16" xfId="216" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Normal 11 16 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Normal 11 17" xfId="218" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Normal 11 17 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Normal 11 18" xfId="220" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Normal 11 18 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Normal 11 19" xfId="222" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Normal 11 19 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Normal 11 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Normal 11 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Normal 11 20" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Normal 11 20 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Normal 11 21" xfId="228" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Normal 11 21 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Normal 11 22" xfId="230" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Normal 11 22 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Normal 11 23" xfId="232" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Normal 11 24" xfId="233" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Normal 11 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Normal 11 3 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Normal 11 4" xfId="236" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Normal 11 4 2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Normal 11 5" xfId="238" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Normal 11 5 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Normal 11 6" xfId="240" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Normal 11 6 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Normal 11 7" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Normal 11 7 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Normal 11 8" xfId="244" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Normal 11 8 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Normal 11 9" xfId="246" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Normal 11 9 2" xfId="247" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Normal 110" xfId="248" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Normal 111" xfId="249" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Normal 112" xfId="250" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Normal 113" xfId="251" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Normal 114" xfId="252" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Normal 115" xfId="253" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Normal 116" xfId="254" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Normal 117" xfId="255" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Normal 118" xfId="256" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Normal 119" xfId="257" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Normal 12" xfId="258" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Normal 12 10" xfId="259" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Normal 12 10 2" xfId="260" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Normal 12 11" xfId="261" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Normal 12 11 2" xfId="262" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Normal 12 12" xfId="263" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Normal 12 12 2" xfId="264" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Normal 12 13" xfId="265" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Normal 12 13 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Normal 12 14" xfId="267" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal 12 14 2" xfId="268" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 12 15" xfId="269" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Normal 12 15 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Normal 12 16" xfId="271" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Normal 12 16 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normal 12 17" xfId="273" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="Normal 12 17 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normal 12 18" xfId="275" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Normal 12 18 2" xfId="276" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Normal 12 19" xfId="277" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Normal 12 19 2" xfId="278" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Normal 12 2" xfId="279" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Normal 12 2 2" xfId="280" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Normal 12 20" xfId="281" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Normal 12 20 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Normal 12 21" xfId="283" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Normal 12 21 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Normal 12 22" xfId="285" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Normal 12 22 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Normal 12 23" xfId="287" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Normal 12 3" xfId="288" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Normal 12 3 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Normal 12 4" xfId="290" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Normal 12 4 2" xfId="291" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Normal 12 5" xfId="292" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Normal 12 5 2" xfId="293" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Normal 12 6" xfId="294" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Normal 12 6 2" xfId="295" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Normal 12 7" xfId="296" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Normal 12 7 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Normal 12 8" xfId="298" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Normal 12 8 2" xfId="299" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Normal 12 9" xfId="300" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Normal 12 9 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Normal 120" xfId="302" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Normal 121" xfId="303" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Normal 122" xfId="304" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Normal 123" xfId="305" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Normal 124" xfId="306" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Normal 125" xfId="307" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Normal 126" xfId="308" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Normal 127" xfId="309" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Normal 128" xfId="310" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Normal 129" xfId="311" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Normal 13" xfId="312" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Normal 13 10" xfId="313" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Normal 13 10 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Normal 13 11" xfId="315" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Normal 13 11 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Normal 13 12" xfId="317" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Normal 13 12 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Normal 13 13" xfId="319" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Normal 13 13 2" xfId="320" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Normal 13 14" xfId="321" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Normal 13 14 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Normal 13 15" xfId="323" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Normal 13 15 2" xfId="324" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Normal 13 16" xfId="325" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Normal 13 16 2" xfId="326" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Normal 13 17" xfId="327" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Normal 13 17 2" xfId="328" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Normal 13 18" xfId="329" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Normal 13 18 2" xfId="330" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Normal 13 19" xfId="331" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Normal 13 19 2" xfId="332" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Normal 13 2" xfId="333" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Normal 13 2 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Normal 13 20" xfId="335" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Normal 13 20 2" xfId="336" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Normal 13 21" xfId="337" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Normal 13 21 2" xfId="338" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Normal 13 22" xfId="339" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Normal 13 22 2" xfId="340" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Normal 13 23" xfId="341" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Normal 13 3" xfId="342" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Normal 13 3 2" xfId="343" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Normal 13 4" xfId="344" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Normal 13 4 2" xfId="345" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Normal 13 5" xfId="346" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Normal 13 5 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Normal 13 6" xfId="348" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Normal 13 6 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Normal 13 7" xfId="350" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Normal 13 7 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Normal 13 8" xfId="352" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Normal 13 8 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Normal 13 9" xfId="354" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Normal 13 9 2" xfId="355" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Normal 130" xfId="356" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Normal 131" xfId="357" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Normal 132" xfId="358" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Normal 133" xfId="359" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Normal 134" xfId="360" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Normal 135" xfId="361" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Normal 136" xfId="362" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Normal 137" xfId="363" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Normal 138" xfId="364" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Normal 139" xfId="365" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Normal 14" xfId="366" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Normal 14 10" xfId="367" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Normal 14 10 2" xfId="368" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Normal 14 11" xfId="369" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Normal 14 11 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Normal 14 12" xfId="371" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Normal 14 12 2" xfId="372" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Normal 14 13" xfId="373" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Normal 14 13 2" xfId="374" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Normal 14 14" xfId="375" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Normal 14 14 2" xfId="376" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Normal 14 15" xfId="377" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Normal 14 15 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Normal 14 16" xfId="379" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Normal 14 16 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Normal 14 17" xfId="381" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Normal 14 17 2" xfId="382" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Normal 14 18" xfId="383" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Normal 14 18 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Normal 14 19" xfId="385" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Normal 14 19 2" xfId="386" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Normal 14 2" xfId="387" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Normal 14 2 2" xfId="388" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Normal 14 20" xfId="389" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Normal 14 20 2" xfId="390" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Normal 14 21" xfId="391" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Normal 14 21 2" xfId="392" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Normal 14 22" xfId="393" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="Normal 14 22 2" xfId="394" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Normal 14 23" xfId="395" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Normal 14 3" xfId="396" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Normal 14 3 2" xfId="397" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Normal 14 4" xfId="398" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Normal 14 4 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Normal 14 5" xfId="400" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Normal 14 5 2" xfId="401" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Normal 14 6" xfId="402" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Normal 14 6 2" xfId="403" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Normal 14 7" xfId="404" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Normal 14 7 2" xfId="405" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Normal 14 8" xfId="406" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Normal 14 8 2" xfId="407" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Normal 14 9" xfId="408" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Normal 14 9 2" xfId="409" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Normal 140" xfId="410" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Normal 141" xfId="411" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Normal 142" xfId="412" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Normal 143" xfId="413" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Normal 144" xfId="414" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Normal 145" xfId="415" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Normal 146" xfId="416" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Normal 147" xfId="417" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Normal 148" xfId="418" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="Normal 149" xfId="419" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="Normal 15" xfId="420" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Normal 15 10" xfId="421" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Normal 15 10 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Normal 15 11" xfId="423" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Normal 15 11 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Normal 15 12" xfId="425" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="Normal 15 12 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="Normal 15 13" xfId="427" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="Normal 15 13 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Normal 15 14" xfId="429" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Normal 15 14 2" xfId="430" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Normal 15 15" xfId="431" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Normal 15 15 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Normal 15 16" xfId="433" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Normal 15 16 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Normal 15 17" xfId="435" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="Normal 15 17 2" xfId="436" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="Normal 15 18" xfId="437" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="Normal 15 18 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Normal 15 19" xfId="439" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Normal 15 19 2" xfId="440" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="Normal 15 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="Normal 15 2 2" xfId="442" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Normal 15 20" xfId="443" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Normal 15 20 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="Normal 15 21" xfId="445" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Normal 15 21 2" xfId="446" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="Normal 15 22" xfId="447" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Normal 15 22 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Normal 15 23" xfId="449" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Normal 15 3" xfId="450" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Normal 15 3 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="Normal 15 4" xfId="452" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Normal 15 4 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Normal 15 5" xfId="454" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Normal 15 5 2" xfId="455" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Normal 15 6" xfId="456" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Normal 15 6 2" xfId="457" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Normal 15 7" xfId="458" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Normal 15 7 2" xfId="459" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Normal 15 8" xfId="460" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="Normal 15 8 2" xfId="461" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Normal 15 9" xfId="462" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Normal 15 9 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Normal 150" xfId="464" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Normal 151" xfId="465" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Normal 152" xfId="466" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Normal 153" xfId="467" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Normal 154" xfId="468" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Normal 155" xfId="469" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Normal 156" xfId="470" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Normal 157" xfId="471" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Normal 158" xfId="472" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Normal 159" xfId="473" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Normal 16" xfId="474" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Normal 16 10" xfId="475" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Normal 16 10 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Normal 16 11" xfId="477" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Normal 16 11 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Normal 16 12" xfId="479" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Normal 16 12 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Normal 16 13" xfId="481" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Normal 16 13 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Normal 16 14" xfId="483" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Normal 16 14 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Normal 16 15" xfId="485" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Normal 16 15 2" xfId="486" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Normal 16 16" xfId="487" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Normal 16 16 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Normal 16 17" xfId="489" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Normal 16 17 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Normal 16 18" xfId="491" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Normal 16 18 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Normal 16 19" xfId="493" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Normal 16 19 2" xfId="494" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Normal 16 2" xfId="495" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Normal 16 2 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Normal 16 20" xfId="497" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Normal 16 20 2" xfId="498" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Normal 16 21" xfId="499" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Normal 16 21 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Normal 16 22" xfId="501" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Normal 16 22 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Normal 16 23" xfId="503" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Normal 16 3" xfId="504" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Normal 16 3 2" xfId="505" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Normal 16 4" xfId="506" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Normal 16 4 2" xfId="507" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Normal 16 5" xfId="508" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Normal 16 5 2" xfId="509" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Normal 16 6" xfId="510" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Normal 16 6 2" xfId="511" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Normal 16 7" xfId="512" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Normal 16 7 2" xfId="513" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Normal 16 8" xfId="514" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Normal 16 8 2" xfId="515" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Normal 16 9" xfId="516" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Normal 16 9 2" xfId="517" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Normal 160" xfId="518" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Normal 161" xfId="519" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Normal 162" xfId="520" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Normal 163" xfId="521" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Normal 164" xfId="522" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Normal 165" xfId="523" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Normal 166" xfId="524" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Normal 167" xfId="525" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Normal 168" xfId="526" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Normal 169" xfId="527" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Normal 17" xfId="528" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Normal 17 10" xfId="529" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Normal 17 10 2" xfId="530" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Normal 17 11" xfId="531" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Normal 17 11 2" xfId="532" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Normal 17 12" xfId="533" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Normal 17 12 2" xfId="534" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Normal 17 13" xfId="535" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Normal 17 13 2" xfId="536" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Normal 17 14" xfId="537" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Normal 17 14 2" xfId="538" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Normal 17 15" xfId="539" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="Normal 17 15 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Normal 17 16" xfId="541" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Normal 17 16 2" xfId="542" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Normal 17 17" xfId="543" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Normal 17 17 2" xfId="544" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Normal 17 18" xfId="545" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="Normal 17 18 2" xfId="546" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Normal 17 19" xfId="547" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="Normal 17 19 2" xfId="548" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="Normal 17 2" xfId="549" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="Normal 17 2 2" xfId="550" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Normal 17 20" xfId="551" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Normal 17 20 2" xfId="552" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="Normal 17 21" xfId="553" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Normal 17 21 2" xfId="554" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Normal 17 22" xfId="555" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Normal 17 22 2" xfId="556" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="Normal 17 23" xfId="557" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Normal 17 3" xfId="558" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Normal 17 3 2" xfId="559" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Normal 17 4" xfId="560" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Normal 17 4 2" xfId="561" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Normal 17 5" xfId="562" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Normal 17 5 2" xfId="563" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Normal 17 6" xfId="564" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Normal 17 6 2" xfId="565" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="Normal 17 7" xfId="566" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="Normal 17 7 2" xfId="567" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="Normal 17 8" xfId="568" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Normal 17 8 2" xfId="569" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Normal 17 9" xfId="570" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Normal 17 9 2" xfId="571" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Normal 170" xfId="572" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="Normal 171" xfId="573" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Normal 172" xfId="574" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Normal 173" xfId="575" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Normal 174" xfId="576" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="Normal 175" xfId="577" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Normal 176" xfId="578" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Normal 177" xfId="579" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Normal 178" xfId="580" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="Normal 179" xfId="581" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="Normal 18" xfId="582" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Normal 18 10" xfId="583" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Normal 18 10 2" xfId="584" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="Normal 18 11" xfId="585" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Normal 18 11 2" xfId="586" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Normal 18 12" xfId="587" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Normal 18 12 2" xfId="588" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Normal 18 13" xfId="589" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Normal 18 13 2" xfId="590" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Normal 18 14" xfId="591" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="Normal 18 14 2" xfId="592" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="Normal 18 15" xfId="593" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Normal 18 15 2" xfId="594" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Normal 18 16" xfId="595" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Normal 18 16 2" xfId="596" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Normal 18 17" xfId="597" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Normal 18 17 2" xfId="598" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Normal 18 18" xfId="599" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Normal 18 18 2" xfId="600" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="Normal 18 19" xfId="601" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Normal 18 19 2" xfId="602" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Normal 18 2" xfId="603" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Normal 18 2 2" xfId="604" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Normal 18 20" xfId="605" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Normal 18 20 2" xfId="606" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Normal 18 21" xfId="607" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Normal 18 21 2" xfId="608" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Normal 18 22" xfId="609" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Normal 18 22 2" xfId="610" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Normal 18 23" xfId="611" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Normal 18 3" xfId="612" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="Normal 18 3 2" xfId="613" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Normal 18 4" xfId="614" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Normal 18 4 2" xfId="615" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Normal 18 5" xfId="616" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Normal 18 5 2" xfId="617" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Normal 18 6" xfId="618" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Normal 18 6 2" xfId="619" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Normal 18 7" xfId="620" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Normal 18 7 2" xfId="621" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Normal 18 8" xfId="622" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Normal 18 8 2" xfId="623" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Normal 18 9" xfId="624" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Normal 18 9 2" xfId="625" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Normal 180" xfId="626" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Normal 181" xfId="627" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Normal 182" xfId="628" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="Normal 183" xfId="629" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Normal 184" xfId="630" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Normal 185" xfId="631" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Normal 186" xfId="632" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="Normal 187" xfId="633" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Normal 188" xfId="634" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Normal 189" xfId="635" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Normal 19" xfId="636" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="Normal 190" xfId="637" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Normal 191" xfId="638" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Normal 192" xfId="639" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Normal 193" xfId="640" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="Normal 194" xfId="641" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 195" xfId="642" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 196" xfId="643" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 197" xfId="644" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 198" xfId="645" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 199" xfId="646" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 2" xfId="647" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 2 2" xfId="648" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Normal 2 2 10" xfId="649" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Normal 2 2 10 2" xfId="650" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Normal 2 2 11" xfId="651" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Normal 2 2 11 2" xfId="652" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="Normal 2 2 12" xfId="653" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Normal 2 2 12 2" xfId="654" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Normal 2 2 13" xfId="655" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Normal 2 2 13 2" xfId="656" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="Normal 2 2 14" xfId="657" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Normal 2 2 14 2" xfId="658" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Normal 2 2 15" xfId="659" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Normal 2 2 15 2" xfId="660" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Normal 2 2 16" xfId="661" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Normal 2 2 16 2" xfId="662" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Normal 2 2 17" xfId="663" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Normal 2 2 17 2" xfId="664" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="Normal 2 2 18" xfId="665" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Normal 2 2 18 2" xfId="666" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="Normal 2 2 19" xfId="667" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="Normal 2 2 19 2" xfId="668" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="669" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="670" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Normal 2 2 20" xfId="671" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Normal 2 2 20 2" xfId="672" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="Normal 2 2 21" xfId="673" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Normal 2 2 21 2" xfId="674" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Normal 2 2 22" xfId="675" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Normal 2 2 22 2" xfId="676" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Normal 2 2 23" xfId="677" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="678" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="679" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="680" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="681" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Normal 2 2 5" xfId="682" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Normal 2 2 5 2" xfId="683" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Normal 2 2 6" xfId="684" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Normal 2 2 6 2" xfId="685" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Normal 2 2 7" xfId="686" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Normal 2 2 7 2" xfId="687" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Normal 2 2 8" xfId="688" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Normal 2 2 8 2" xfId="689" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Normal 2 2 9" xfId="690" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Normal 2 2 9 2" xfId="691" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Normal 2 3" xfId="692" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="Normal 2 4" xfId="693" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="694" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Normal 2 5" xfId="695" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Normal 2 5 2" xfId="696" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Normal 2 6" xfId="697" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Normal 2 6 2" xfId="698" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Normal 20" xfId="699" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Normal 20 10" xfId="700" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Normal 20 10 2" xfId="701" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Normal 20 11" xfId="702" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Normal 20 11 2" xfId="703" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Normal 20 12" xfId="704" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Normal 20 12 2" xfId="705" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Normal 20 13" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Normal 20 13 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Normal 20 14" xfId="708" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Normal 20 14 2" xfId="709" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Normal 20 15" xfId="710" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="Normal 20 15 2" xfId="711" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Normal 20 16" xfId="712" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Normal 20 16 2" xfId="713" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="Normal 20 17" xfId="714" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Normal 20 17 2" xfId="715" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Normal 20 18" xfId="716" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Normal 20 18 2" xfId="717" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Normal 20 19" xfId="718" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Normal 20 19 2" xfId="719" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 20 2" xfId="720" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="Normal 20 2 2" xfId="721" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Normal 20 20" xfId="722" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="Normal 20 20 2" xfId="723" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="Normal 20 21" xfId="724" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Normal 20 21 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="Normal 20 22" xfId="726" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Normal 20 22 2" xfId="727" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="Normal 20 23" xfId="728" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="Normal 20 3" xfId="729" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Normal 20 3 2" xfId="730" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Normal 20 4" xfId="731" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Normal 20 4 2" xfId="732" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Normal 20 5" xfId="733" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Normal 20 5 2" xfId="734" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Normal 20 6" xfId="735" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Normal 20 6 2" xfId="736" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Normal 20 7" xfId="737" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Normal 20 7 2" xfId="738" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Normal 20 8" xfId="739" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Normal 20 8 2" xfId="740" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Normal 20 9" xfId="741" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Normal 20 9 2" xfId="742" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Normal 200" xfId="743" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Normal 201" xfId="744" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Normal 202" xfId="745" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Normal 203" xfId="746" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Normal 204" xfId="747" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Normal 205" xfId="748" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Normal 206" xfId="749" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Normal 207" xfId="750" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Normal 208" xfId="751" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Normal 209" xfId="752" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Normal 21" xfId="753" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Normal 21 10" xfId="754" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Normal 21 10 2" xfId="755" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Normal 21 11" xfId="756" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Normal 21 11 2" xfId="757" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Normal 21 12" xfId="758" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Normal 21 12 2" xfId="759" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="Normal 21 13" xfId="760" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Normal 21 13 2" xfId="761" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="Normal 21 14" xfId="762" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Normal 21 14 2" xfId="763" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Normal 21 15" xfId="764" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="Normal 21 15 2" xfId="765" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="Normal 21 16" xfId="766" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Normal 21 16 2" xfId="767" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Normal 21 17" xfId="768" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Normal 21 17 2" xfId="769" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Normal 21 18" xfId="770" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Normal 21 18 2" xfId="771" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Normal 21 19" xfId="772" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Normal 21 19 2" xfId="773" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="Normal 21 2" xfId="774" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="Normal 21 2 2" xfId="775" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Normal 21 20" xfId="776" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="Normal 21 20 2" xfId="777" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="Normal 21 21" xfId="778" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Normal 21 21 2" xfId="779" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="Normal 21 22" xfId="780" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Normal 21 22 2" xfId="781" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Normal 21 23" xfId="782" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Normal 21 3" xfId="783" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="Normal 21 3 2" xfId="784" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Normal 21 4" xfId="785" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Normal 21 4 2" xfId="786" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Normal 21 5" xfId="787" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Normal 21 5 2" xfId="788" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Normal 21 6" xfId="789" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Normal 21 6 2" xfId="790" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Normal 21 7" xfId="791" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="Normal 21 7 2" xfId="792" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Normal 21 8" xfId="793" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Normal 21 8 2" xfId="794" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="Normal 21 9" xfId="795" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Normal 21 9 2" xfId="796" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="Normal 210" xfId="797" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Normal 211" xfId="798" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normal 212" xfId="799" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Normal 213" xfId="800" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Normal 214" xfId="801" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Normal 215" xfId="802" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Normal 216" xfId="803" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Normal 217" xfId="804" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normal 218" xfId="805" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Normal 219" xfId="806" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Normal 22" xfId="807" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Normal 22 10" xfId="808" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Normal 22 10 2" xfId="809" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Normal 22 11" xfId="810" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Normal 22 11 2" xfId="811" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Normal 22 12" xfId="812" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Normal 22 12 2" xfId="813" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Normal 22 13" xfId="814" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Normal 22 13 2" xfId="815" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Normal 22 14" xfId="816" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Normal 22 14 2" xfId="817" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Normal 22 15" xfId="818" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Normal 22 15 2" xfId="819" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Normal 22 16" xfId="820" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Normal 22 16 2" xfId="821" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Normal 22 17" xfId="822" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Normal 22 17 2" xfId="823" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Normal 22 18" xfId="824" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Normal 22 18 2" xfId="825" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Normal 22 19" xfId="826" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Normal 22 19 2" xfId="827" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Normal 22 2" xfId="828" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Normal 22 2 2" xfId="829" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Normal 22 20" xfId="830" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Normal 22 20 2" xfId="831" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Normal 22 21" xfId="832" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Normal 22 21 2" xfId="833" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Normal 22 22" xfId="834" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Normal 22 22 2" xfId="835" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Normal 22 23" xfId="836" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Normal 22 3" xfId="837" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Normal 22 3 2" xfId="838" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Normal 22 4" xfId="839" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Normal 22 4 2" xfId="840" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Normal 22 5" xfId="841" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Normal 22 5 2" xfId="842" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Normal 22 6" xfId="843" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Normal 22 6 2" xfId="844" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Normal 22 7" xfId="845" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Normal 22 7 2" xfId="846" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Normal 22 8" xfId="847" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Normal 22 8 2" xfId="848" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Normal 22 9" xfId="849" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Normal 22 9 2" xfId="850" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Normal 220" xfId="851" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Normal 221" xfId="852" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Normal 222" xfId="853" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Normal 223" xfId="854" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Normal 224" xfId="855" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Normal 225" xfId="856" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Normal 226" xfId="857" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Normal 227" xfId="858" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Normal 228" xfId="859" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Normal 229" xfId="860" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Normal 23" xfId="861" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Normal 23 10" xfId="862" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Normal 23 10 2" xfId="863" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Normal 23 11" xfId="864" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Normal 23 11 2" xfId="865" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Normal 23 12" xfId="866" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Normal 23 12 2" xfId="867" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Normal 23 13" xfId="868" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Normal 23 13 2" xfId="869" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Normal 23 14" xfId="870" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Normal 23 14 2" xfId="871" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Normal 23 15" xfId="872" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Normal 23 15 2" xfId="873" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Normal 23 16" xfId="874" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Normal 23 16 2" xfId="875" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Normal 23 17" xfId="876" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Normal 23 17 2" xfId="877" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Normal 23 18" xfId="878" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Normal 23 18 2" xfId="879" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Normal 23 19" xfId="880" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normal 23 19 2" xfId="881" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Normal 23 2" xfId="882" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Normal 23 2 2" xfId="883" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Normal 23 20" xfId="884" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Normal 23 20 2" xfId="885" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Normal 23 21" xfId="886" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Normal 23 21 2" xfId="887" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Normal 23 22" xfId="888" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Normal 23 22 2" xfId="889" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Normal 23 23" xfId="890" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Normal 23 3" xfId="891" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Normal 23 3 2" xfId="892" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Normal 23 4" xfId="893" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Normal 23 4 2" xfId="894" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Normal 23 5" xfId="895" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Normal 23 5 2" xfId="896" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Normal 23 6" xfId="897" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Normal 23 6 2" xfId="898" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Normal 23 7" xfId="899" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Normal 23 7 2" xfId="900" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Normal 23 8" xfId="901" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Normal 23 8 2" xfId="902" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Normal 23 9" xfId="903" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Normal 23 9 2" xfId="904" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Normal 230" xfId="905" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normal 231" xfId="906" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Normal 232" xfId="907" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normal 233" xfId="908" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Normal 234" xfId="909" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Normal 235" xfId="910" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Normal 236" xfId="911" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Normal 237" xfId="912" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Normal 238" xfId="913" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Normal 239" xfId="914" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Normal 24" xfId="915" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Normal 240" xfId="916" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Normal 241" xfId="917" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Normal 242" xfId="918" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Normal 243" xfId="919" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Normal 244" xfId="920" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Normal 245" xfId="921" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Normal 246" xfId="922" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Normal 247" xfId="923" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Normal 248" xfId="924" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Normal 249" xfId="925" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Normal 25" xfId="926" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Normal 250" xfId="927" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Normal 251" xfId="928" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Normal 252" xfId="929" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Normal 253" xfId="930" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Normal 254" xfId="931" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Normal 255" xfId="932" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Normal 256" xfId="933" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Normal 257" xfId="934" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Normal 258" xfId="935" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Normal 259" xfId="936" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Normal 26" xfId="937" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Normal 260" xfId="938" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Normal 261" xfId="939" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Normal 262" xfId="940" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Normal 263" xfId="941" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Normal 264" xfId="942" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Normal 265" xfId="943" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Normal 266" xfId="944" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Normal 267" xfId="945" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Normal 268" xfId="946" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Normal 269" xfId="947" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Normal 27" xfId="948" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Normal 270" xfId="949" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Normal 271" xfId="950" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Normal 272" xfId="951" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Normal 273" xfId="952" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Normal 274" xfId="953" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Normal 275" xfId="954" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Normal 276" xfId="955" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Normal 277" xfId="956" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Normal 278" xfId="957" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Normal 279" xfId="958" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Normal 28" xfId="959" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Normal 280" xfId="960" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Normal 281" xfId="961" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Normal 282" xfId="962" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Normal 283" xfId="963" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Normal 284" xfId="964" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Normal 285" xfId="965" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Normal 286" xfId="966" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Normal 287" xfId="967" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Normal 288" xfId="968" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Normal 289" xfId="969" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Normal 29" xfId="970" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Normal 290" xfId="971" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Normal 291" xfId="972" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Normal 292" xfId="973" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Normal 293" xfId="974" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Normal 294" xfId="975" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Normal 295" xfId="976" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Normal 296" xfId="977" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Normal 297" xfId="978" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Normal 298" xfId="979" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Normal 299" xfId="980" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Normal 3" xfId="981" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Normal 30" xfId="982" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Normal 300" xfId="983" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Normal 301" xfId="984" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Normal 302" xfId="985" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Normal 303" xfId="986" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Normal 304" xfId="987" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Normal 305" xfId="988" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Normal 306" xfId="989" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Normal 307" xfId="990" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Normal 308" xfId="991" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Normal 309" xfId="992" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Normal 31" xfId="993" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Normal 310" xfId="994" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Normal 311" xfId="995" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Normal 312" xfId="996" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Normal 313" xfId="997" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Normal 314" xfId="998" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Normal 315" xfId="999" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Normal 316" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Normal 317" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Normal 318" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Normal 319" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Normal 32" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Normal 320" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Normal 321" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Normal 322" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Normal 323" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Normal 324" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Normal 325" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Normal 326" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Normal 327" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Normal 328" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Normal 329" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Normal 33" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Normal 330" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Normal 331" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Normal 332" xfId="1018" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Normal 333" xfId="1019" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Normal 334" xfId="1020" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Normal 335" xfId="1021" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Normal 336" xfId="1022" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Normal 337" xfId="1023" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Normal 338" xfId="1024" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Normal 339" xfId="1025" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Normal 34" xfId="1026" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Normal 340" xfId="1027" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Normal 341" xfId="1028" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Normal 342" xfId="1029" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Normal 343" xfId="1030" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Normal 344" xfId="1031" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Normal 345" xfId="1032" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Normal 346" xfId="1033" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Normal 347" xfId="1034" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Normal 348" xfId="1035" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Normal 349" xfId="1036" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Normal 35" xfId="1037" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Normal 350" xfId="1038" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Normal 351" xfId="1039" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Normal 352" xfId="1040" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Normal 353" xfId="1041" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Normal 354" xfId="1042" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Normal 355" xfId="1043" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Normal 356" xfId="1044" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Normal 357" xfId="1045" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Normal 358" xfId="1046" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Normal 359" xfId="1047" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Normal 36" xfId="1048" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Normal 360" xfId="1049" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Normal 361" xfId="1050" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Normal 362" xfId="1051" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Normal 363" xfId="1052" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Normal 364" xfId="1053" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Normal 365" xfId="1054" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Normal 366" xfId="1055" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Normal 367" xfId="1056" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Normal 368" xfId="1057" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Normal 369" xfId="1058" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Normal 37" xfId="1059" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Normal 370" xfId="1060" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Normal 371" xfId="1061" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Normal 372" xfId="1062" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Normal 373" xfId="1063" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Normal 374" xfId="1064" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Normal 375" xfId="1065" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Normal 376" xfId="1066" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Normal 377" xfId="1067" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Normal 378" xfId="1068" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Normal 379" xfId="1069" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Normal 38" xfId="1070" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Normal 380" xfId="1071" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Normal 381" xfId="1072" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Normal 382" xfId="1073" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Normal 383" xfId="1074" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Normal 384" xfId="1075" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Normal 385" xfId="1076" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Normal 386" xfId="1077" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Normal 387" xfId="1078" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Normal 388" xfId="1079" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Normal 389" xfId="1080" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Normal 39" xfId="1081" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Normal 390" xfId="1082" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Normal 391" xfId="1083" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Normal 392" xfId="1084" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Normal 393" xfId="1085" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Normal 394" xfId="1086" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Normal 395" xfId="1087" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Normal 396" xfId="1088" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Normal 397" xfId="1089" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Normal 398" xfId="1090" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Normal 399" xfId="1091" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Normal 4" xfId="1092" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Normal 40" xfId="1093" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Normal 400" xfId="1094" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Normal 401" xfId="1095" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Normal 401 2" xfId="1096" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Normal 402" xfId="1097" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Normal 403" xfId="1098" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Normal 404" xfId="1099" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Normal 405" xfId="1100" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Normal 406" xfId="1101" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Normal 407" xfId="1102" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Normal 408" xfId="1103" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Normal 409" xfId="1104" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Normal 41" xfId="1105" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Normal 410" xfId="1106" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Normal 411" xfId="1107" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Normal 411 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Normal 412" xfId="1109" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Normal 413" xfId="1110" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Normal 414" xfId="1111" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Normal 415" xfId="1112" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Normal 416" xfId="1113" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Normal 416 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Normal 417" xfId="1488" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Normal 42" xfId="1115" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Normal 43" xfId="1116" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Normal 44" xfId="1117" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Normal 45" xfId="1118" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Normal 46" xfId="1119" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Normal 47" xfId="1120" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Normal 48" xfId="1121" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Normal 49" xfId="1122" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Normal 5" xfId="1123" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Normal 5 10" xfId="1124" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Normal 5 10 2" xfId="1125" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Normal 5 11" xfId="1126" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Normal 5 11 2" xfId="1127" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Normal 5 12" xfId="1128" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Normal 5 12 2" xfId="1129" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Normal 5 13" xfId="1130" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Normal 5 13 2" xfId="1131" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Normal 5 14" xfId="1132" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Normal 5 14 2" xfId="1133" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Normal 5 15" xfId="1134" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Normal 5 15 2" xfId="1135" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Normal 5 16" xfId="1136" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Normal 5 16 2" xfId="1137" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Normal 5 17" xfId="1138" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Normal 5 17 2" xfId="1139" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Normal 5 18" xfId="1140" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Normal 5 18 2" xfId="1141" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Normal 5 19" xfId="1142" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Normal 5 19 2" xfId="1143" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Normal 5 2" xfId="1144" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Normal 5 2 10" xfId="1145" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Normal 5 2 10 2" xfId="1146" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Normal 5 2 11" xfId="1147" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Normal 5 2 11 2" xfId="1148" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Normal 5 2 12" xfId="1149" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Normal 5 2 12 2" xfId="1150" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Normal 5 2 13" xfId="1151" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Normal 5 2 13 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Normal 5 2 14" xfId="1153" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Normal 5 2 14 2" xfId="1154" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Normal 5 2 15" xfId="1155" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Normal 5 2 15 2" xfId="1156" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Normal 5 2 16" xfId="1157" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Normal 5 2 16 2" xfId="1158" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Normal 5 2 17" xfId="1159" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Normal 5 2 17 2" xfId="1160" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Normal 5 2 18" xfId="1161" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Normal 5 2 18 2" xfId="1162" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Normal 5 2 19" xfId="1163" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Normal 5 2 19 2" xfId="1164" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="1165" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="1166" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Normal 5 2 20" xfId="1167" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Normal 5 2 20 2" xfId="1168" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Normal 5 2 21" xfId="1169" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Normal 5 2 21 2" xfId="1170" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Normal 5 2 22" xfId="1171" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Normal 5 2 22 2" xfId="1172" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Normal 5 2 23" xfId="1173" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Normal 5 2 3" xfId="1174" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="Normal 5 2 3 2" xfId="1175" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="Normal 5 2 4" xfId="1176" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Normal 5 2 4 2" xfId="1177" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Normal 5 2 5" xfId="1178" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Normal 5 2 5 2" xfId="1179" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Normal 5 2 6" xfId="1180" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Normal 5 2 6 2" xfId="1181" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Normal 5 2 7" xfId="1182" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Normal 5 2 7 2" xfId="1183" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Normal 5 2 8" xfId="1184" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="Normal 5 2 8 2" xfId="1185" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Normal 5 2 9" xfId="1186" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Normal 5 2 9 2" xfId="1187" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Normal 5 20" xfId="1188" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Normal 5 20 2" xfId="1189" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Normal 5 21" xfId="1190" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Normal 5 21 2" xfId="1191" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Normal 5 22" xfId="1192" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Normal 5 22 2" xfId="1193" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Normal 5 23" xfId="1194" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Normal 5 23 2" xfId="1195" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Normal 5 24" xfId="1196" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Normal 5 3" xfId="1197" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Normal 5 3 2" xfId="1198" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Normal 5 4" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Normal 5 4 2" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Normal 5 5" xfId="1201" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Normal 5 5 2" xfId="1202" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Normal 5 6" xfId="1203" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="Normal 5 6 2" xfId="1204" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Normal 5 7" xfId="1205" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="Normal 5 7 2" xfId="1206" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="Normal 5 8" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Normal 5 8 2" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Normal 5 9" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Normal 5 9 2" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="Normal 50" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="Normal 51" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="Normal 52" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Normal 53" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Normal 54" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="Normal 55" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Normal 56" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Normal 57" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Normal 58" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="Normal 59" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Normal 6" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Normal 60" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Normal 61" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Normal 62" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Normal 63" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Normal 64" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Normal 65" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Normal 66" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="Normal 67" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Normal 67 10" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Normal 67 10 2" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Normal 67 11" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Normal 67 11 2" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Normal 67 12" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Normal 67 12 2" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="Normal 67 13" xfId="1236" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Normal 67 13 2" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="Normal 67 14" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Normal 67 14 2" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Normal 67 15" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="Normal 67 15 2" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="Normal 67 16" xfId="1242" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="Normal 67 16 2" xfId="1243" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="Normal 67 17" xfId="1244" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="Normal 67 17 2" xfId="1245" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Normal 67 18" xfId="1246" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Normal 67 18 2" xfId="1247" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Normal 67 19" xfId="1248" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="Normal 67 19 2" xfId="1249" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Normal 67 2" xfId="1250" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Normal 67 2 2" xfId="1251" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="Normal 67 20" xfId="1252" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Normal 67 20 2" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Normal 67 21" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Normal 67 21 2" xfId="1255" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Normal 67 22" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Normal 67 22 2" xfId="1257" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Normal 67 23" xfId="1258" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Normal 67 3" xfId="1259" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
+    <cellStyle name="Normal 67 3 2" xfId="1260" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
+    <cellStyle name="Normal 67 4" xfId="1261" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Normal 67 4 2" xfId="1262" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Normal 67 5" xfId="1263" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="Normal 67 5 2" xfId="1264" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Normal 67 6" xfId="1265" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Normal 67 6 2" xfId="1266" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Normal 67 7" xfId="1267" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Normal 67 7 2" xfId="1268" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Normal 67 8" xfId="1269" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Normal 67 8 2" xfId="1270" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Normal 67 9" xfId="1271" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Normal 67 9 2" xfId="1272" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Normal 68" xfId="1273" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Normal 69" xfId="1274" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
+    <cellStyle name="Normal 69 10" xfId="1275" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Normal 69 10 2" xfId="1276" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Normal 69 11" xfId="1277" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Normal 69 11 2" xfId="1278" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Normal 69 12" xfId="1279" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Normal 69 12 2" xfId="1280" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Normal 69 13" xfId="1281" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Normal 69 13 2" xfId="1282" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Normal 69 14" xfId="1283" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="Normal 69 14 2" xfId="1284" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Normal 69 15" xfId="1285" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
+    <cellStyle name="Normal 69 15 2" xfId="1286" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
+    <cellStyle name="Normal 69 16" xfId="1287" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
+    <cellStyle name="Normal 69 16 2" xfId="1288" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Normal 69 17" xfId="1289" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Normal 69 17 2" xfId="1290" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
+    <cellStyle name="Normal 69 18" xfId="1291" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
+    <cellStyle name="Normal 69 18 2" xfId="1292" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
+    <cellStyle name="Normal 69 19" xfId="1293" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Normal 69 19 2" xfId="1294" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Normal 69 2" xfId="1295" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
+    <cellStyle name="Normal 69 2 2" xfId="1296" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
+    <cellStyle name="Normal 69 20" xfId="1297" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Normal 69 20 2" xfId="1298" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Normal 69 21" xfId="1299" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
+    <cellStyle name="Normal 69 21 2" xfId="1300" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Normal 69 22" xfId="1301" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Normal 69 22 2" xfId="1302" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
+    <cellStyle name="Normal 69 23" xfId="1303" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
+    <cellStyle name="Normal 69 3" xfId="1304" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Normal 69 3 2" xfId="1305" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Normal 69 4" xfId="1306" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
+    <cellStyle name="Normal 69 4 2" xfId="1307" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
+    <cellStyle name="Normal 69 5" xfId="1308" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
+    <cellStyle name="Normal 69 5 2" xfId="1309" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Normal 69 6" xfId="1310" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Normal 69 6 2" xfId="1311" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
+    <cellStyle name="Normal 69 7" xfId="1312" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
+    <cellStyle name="Normal 69 7 2" xfId="1313" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Normal 69 8" xfId="1314" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Normal 69 8 2" xfId="1315" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
+    <cellStyle name="Normal 69 9" xfId="1316" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Normal 69 9 2" xfId="1317" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
+    <cellStyle name="Normal 7" xfId="1318" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
+    <cellStyle name="Normal 70" xfId="1319" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
+    <cellStyle name="Normal 70 10" xfId="1320" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Normal 70 10 2" xfId="1321" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Normal 70 11" xfId="1322" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
+    <cellStyle name="Normal 70 11 2" xfId="1323" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
+    <cellStyle name="Normal 70 12" xfId="1324" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
+    <cellStyle name="Normal 70 12 2" xfId="1325" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Normal 70 13" xfId="1326" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Normal 70 13 2" xfId="1327" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
+    <cellStyle name="Normal 70 14" xfId="1328" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
+    <cellStyle name="Normal 70 14 2" xfId="1329" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Normal 70 15" xfId="1330" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Normal 70 15 2" xfId="1331" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
+    <cellStyle name="Normal 70 16" xfId="1332" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
+    <cellStyle name="Normal 70 16 2" xfId="1333" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
+    <cellStyle name="Normal 70 17" xfId="1334" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
+    <cellStyle name="Normal 70 17 2" xfId="1335" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
+    <cellStyle name="Normal 70 18" xfId="1336" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Normal 70 18 2" xfId="1337" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Normal 70 19" xfId="1338" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
+    <cellStyle name="Normal 70 19 2" xfId="1339" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
+    <cellStyle name="Normal 70 2" xfId="1340" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
+    <cellStyle name="Normal 70 2 2" xfId="1341" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Normal 70 20" xfId="1342" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Normal 70 20 2" xfId="1343" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
+    <cellStyle name="Normal 70 21" xfId="1344" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
+    <cellStyle name="Normal 70 21 2" xfId="1345" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Normal 70 22" xfId="1346" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Normal 70 22 2" xfId="1347" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
+    <cellStyle name="Normal 70 23" xfId="1348" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Normal 70 3" xfId="1349" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
+    <cellStyle name="Normal 70 3 2" xfId="1350" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
+    <cellStyle name="Normal 70 4" xfId="1351" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
+    <cellStyle name="Normal 70 4 2" xfId="1352" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Normal 70 5" xfId="1353" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Normal 70 5 2" xfId="1354" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
+    <cellStyle name="Normal 70 6" xfId="1355" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
+    <cellStyle name="Normal 70 6 2" xfId="1356" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
+    <cellStyle name="Normal 70 7" xfId="1357" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Normal 70 7 2" xfId="1358" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Normal 70 8" xfId="1359" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
+    <cellStyle name="Normal 70 8 2" xfId="1360" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
+    <cellStyle name="Normal 70 9" xfId="1361" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Normal 70 9 2" xfId="1362" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Normal 71" xfId="1363" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
+    <cellStyle name="Normal 71 2" xfId="1364" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Normal 72" xfId="1365" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
+    <cellStyle name="Normal 72 2" xfId="1366" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
+    <cellStyle name="Normal 73" xfId="1367" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
+    <cellStyle name="Normal 73 10" xfId="1368" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Normal 73 11" xfId="1369" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
+    <cellStyle name="Normal 73 12" xfId="1370" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
+    <cellStyle name="Normal 73 13" xfId="1371" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
+    <cellStyle name="Normal 73 14" xfId="1372" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
+    <cellStyle name="Normal 73 15" xfId="1373" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Normal 73 16" xfId="1374" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Normal 73 17" xfId="1375" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
+    <cellStyle name="Normal 73 18" xfId="1376" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
+    <cellStyle name="Normal 73 19" xfId="1377" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Normal 73 2" xfId="1378" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Normal 73 20" xfId="1379" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
+    <cellStyle name="Normal 73 21" xfId="1380" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Normal 73 22" xfId="1381" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
+    <cellStyle name="Normal 73 23" xfId="1382" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
+    <cellStyle name="Normal 73 3" xfId="1383" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
+    <cellStyle name="Normal 73 4" xfId="1384" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Normal 73 5" xfId="1385" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
+    <cellStyle name="Normal 73 6" xfId="1386" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
+    <cellStyle name="Normal 73 7" xfId="1387" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
+    <cellStyle name="Normal 73 8" xfId="1388" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
+    <cellStyle name="Normal 73 9" xfId="1389" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
+    <cellStyle name="Normal 74" xfId="1390" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
+    <cellStyle name="Normal 74 2" xfId="1391" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
+    <cellStyle name="Normal 75" xfId="1392" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
+    <cellStyle name="Normal 75 2" xfId="1393" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
+    <cellStyle name="Normal 76" xfId="1394" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Normal 76 2" xfId="1395" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
+    <cellStyle name="Normal 77" xfId="1396" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
+    <cellStyle name="Normal 77 2" xfId="1397" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
+    <cellStyle name="Normal 78" xfId="1398" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
+    <cellStyle name="Normal 78 2" xfId="1399" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
+    <cellStyle name="Normal 79" xfId="1400" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
+    <cellStyle name="Normal 79 2" xfId="1401" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Normal 8" xfId="1402" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
+    <cellStyle name="Normal 80" xfId="1403" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
+    <cellStyle name="Normal 80 2" xfId="1404" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
+    <cellStyle name="Normal 81" xfId="1405" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
+    <cellStyle name="Normal 81 2" xfId="1406" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Normal 82" xfId="1407" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
+    <cellStyle name="Normal 82 2" xfId="1408" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
+    <cellStyle name="Normal 83" xfId="1409" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Normal 83 2" xfId="1410" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
+    <cellStyle name="Normal 84" xfId="1411" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
+    <cellStyle name="Normal 84 2" xfId="1412" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
+    <cellStyle name="Normal 85" xfId="1413" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
+    <cellStyle name="Normal 85 2" xfId="1414" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
+    <cellStyle name="Normal 86" xfId="1415" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Normal 86 2" xfId="1416" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Normal 87" xfId="1417" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
+    <cellStyle name="Normal 87 2" xfId="1418" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
+    <cellStyle name="Normal 88" xfId="1419" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
+    <cellStyle name="Normal 88 2" xfId="1420" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
+    <cellStyle name="Normal 89" xfId="1421" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
+    <cellStyle name="Normal 89 2" xfId="1422" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Normal 9" xfId="1423" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
+    <cellStyle name="Normal 90" xfId="1424" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
+    <cellStyle name="Normal 90 2" xfId="1425" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
+    <cellStyle name="Normal 91" xfId="1426" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
+    <cellStyle name="Normal 91 2" xfId="1427" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
+    <cellStyle name="Normal 92" xfId="1428" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
+    <cellStyle name="Normal 92 2" xfId="1429" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
+    <cellStyle name="Normal 93" xfId="1430" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
+    <cellStyle name="Normal 93 2" xfId="1431" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
+    <cellStyle name="Normal 94" xfId="1432" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
+    <cellStyle name="Normal 94 2" xfId="1433" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Normal 95" xfId="1434" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
+    <cellStyle name="Normal 96" xfId="1435" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
+    <cellStyle name="Normal 97" xfId="1436" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
+    <cellStyle name="Normal 97 2" xfId="1437" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
+    <cellStyle name="Normal 98" xfId="1438" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
+    <cellStyle name="Normal 98 2" xfId="1439" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Normal 99" xfId="1440" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Porcentaje 2" xfId="1441" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
+    <cellStyle name="Porcentaje 2 10" xfId="1442" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Porcentaje 2 10 2" xfId="1443" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
+    <cellStyle name="Porcentaje 2 11" xfId="1444" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
+    <cellStyle name="Porcentaje 2 11 2" xfId="1445" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
+    <cellStyle name="Porcentaje 2 12" xfId="1446" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
+    <cellStyle name="Porcentaje 2 12 2" xfId="1447" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
+    <cellStyle name="Porcentaje 2 13" xfId="1448" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Porcentaje 2 13 2" xfId="1449" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
+    <cellStyle name="Porcentaje 2 14" xfId="1450" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
+    <cellStyle name="Porcentaje 2 14 2" xfId="1451" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
+    <cellStyle name="Porcentaje 2 15" xfId="1452" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
+    <cellStyle name="Porcentaje 2 15 2" xfId="1453" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
+    <cellStyle name="Porcentaje 2 16" xfId="1454" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Porcentaje 2 16 2" xfId="1455" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
+    <cellStyle name="Porcentaje 2 17" xfId="1456" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
+    <cellStyle name="Porcentaje 2 17 2" xfId="1457" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
+    <cellStyle name="Porcentaje 2 18" xfId="1458" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Porcentaje 2 18 2" xfId="1459" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
+    <cellStyle name="Porcentaje 2 19" xfId="1460" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Porcentaje 2 19 2" xfId="1461" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
+    <cellStyle name="Porcentaje 2 2" xfId="1462" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
+    <cellStyle name="Porcentaje 2 2 2" xfId="1463" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
+    <cellStyle name="Porcentaje 2 20" xfId="1464" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Porcentaje 2 20 2" xfId="1465" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
+    <cellStyle name="Porcentaje 2 21" xfId="1466" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
+    <cellStyle name="Porcentaje 2 21 2" xfId="1467" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
+    <cellStyle name="Porcentaje 2 22" xfId="1468" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
+    <cellStyle name="Porcentaje 2 22 2" xfId="1469" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Porcentaje 2 23" xfId="1470" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Porcentaje 2 3" xfId="1471" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
+    <cellStyle name="Porcentaje 2 3 2" xfId="1472" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
+    <cellStyle name="Porcentaje 2 4" xfId="1473" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Porcentaje 2 4 2" xfId="1474" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
+    <cellStyle name="Porcentaje 2 5" xfId="1475" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
+    <cellStyle name="Porcentaje 2 5 2" xfId="1476" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
+    <cellStyle name="Porcentaje 2 6" xfId="1477" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
+    <cellStyle name="Porcentaje 2 6 2" xfId="1478" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
+    <cellStyle name="Porcentaje 2 7" xfId="1479" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
+    <cellStyle name="Porcentaje 2 7 2" xfId="1480" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
+    <cellStyle name="Porcentaje 2 8" xfId="1481" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Porcentaje 2 8 2" xfId="1482" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
+    <cellStyle name="Porcentaje 2 9" xfId="1483" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
+    <cellStyle name="Porcentaje 2 9 2" xfId="1484" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
+    <cellStyle name="Porcentual 2" xfId="1485" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
+    <cellStyle name="Porcentual 3" xfId="1486" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5174,7 +5188,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FOR"/>
@@ -5207,7 +5221,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FOR"/>
@@ -5248,7 +5262,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IETU"/>
@@ -5599,7 +5613,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NOMINA"/>
@@ -5635,9 +5649,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5675,9 +5689,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5712,7 +5726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5747,7 +5761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5920,7 +5934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:DU5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6206,7 +6220,7 @@
         <v>61</v>
       </c>
       <c r="AR4" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AS4" s="31" t="s">
         <v>62</v>
@@ -6257,7 +6271,7 @@
         <v>13</v>
       </c>
       <c r="BI4" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BJ4" s="31" t="s">
         <v>74</v>
@@ -6290,7 +6304,7 @@
         <v>80</v>
       </c>
       <c r="BT4" s="62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BU4" s="31" t="s">
         <v>81</v>
@@ -6299,16 +6313,16 @@
         <v>82</v>
       </c>
       <c r="BW4" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BX4" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BY4" s="31" t="s">
         <v>83</v>
       </c>
       <c r="BZ4" s="31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="CA4" s="31" t="s">
         <v>91</v>
@@ -6317,22 +6331,22 @@
         <v>92</v>
       </c>
       <c r="CC4" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="CD4" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="CD4" s="31" t="s">
-        <v>412</v>
-      </c>
       <c r="CE4" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="CF4" s="31" t="s">
         <v>400</v>
-      </c>
-      <c r="CF4" s="31" t="s">
-        <v>401</v>
       </c>
       <c r="CG4" s="40" t="s">
         <v>93</v>
       </c>
       <c r="CH4" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CI4" s="31" t="s">
         <v>84</v>
@@ -6353,28 +6367,28 @@
         <v>89</v>
       </c>
       <c r="CO4" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="CP4" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="CQ4" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="CR4" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="CS4" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="CT4" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="CU4" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="CV4" s="39" t="s">
         <v>414</v>
-      </c>
-      <c r="CP4" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="CQ4" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="CR4" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="CS4" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="CT4" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="CU4" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="CV4" s="39" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:125" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -6685,12 +6699,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B3:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6724,7 +6738,7 @@
     </row>
     <row r="5" spans="2:15" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>8</v>
@@ -6742,7 +6756,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -6751,10 +6765,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>89</v>
@@ -7441,19 +7455,19 @@
       <c r="L56" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:M5"/>
+  <autoFilter ref="B5:M5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7503,7 +7517,7 @@
         <v>empresa</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="102"/>
       <c r="H4" s="43">
@@ -7512,14 +7526,14 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46" t="s">
-        <v>96</v>
+        <v>461</v>
       </c>
       <c r="C5" s="47">
         <f>+H4+H5+H6+H7</f>
         <v>0</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="102"/>
       <c r="H5" s="43">
@@ -7528,14 +7542,14 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="49">
         <f>+C5</f>
         <v>0</v>
       </c>
       <c r="F6" s="103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="103"/>
       <c r="H6" s="43">
@@ -7552,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="52">
         <v>0.06</v>
@@ -7571,11 +7585,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="95"/>
       <c r="H8" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7614,7 +7628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:X98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7633,7 +7647,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G2" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
@@ -7651,22 +7665,22 @@
     </row>
     <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
         <v>196</v>
       </c>
-      <c r="C4" t="s">
-        <v>197</v>
-      </c>
       <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
         <v>228</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>229</v>
       </c>
-      <c r="F4" t="s">
-        <v>230</v>
-      </c>
       <c r="G4" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
@@ -7675,16 +7689,16 @@
     </row>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
@@ -7693,19 +7707,19 @@
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>2</v>
@@ -7717,16 +7731,16 @@
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
@@ -7735,16 +7749,16 @@
     </row>
     <row r="8" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
@@ -7753,19 +7767,19 @@
     </row>
     <row r="9" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>16</v>
@@ -7777,22 +7791,22 @@
     </row>
     <row r="10" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
@@ -7801,22 +7815,22 @@
     </row>
     <row r="11" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
@@ -7825,16 +7839,16 @@
     </row>
     <row r="12" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
@@ -7843,19 +7857,19 @@
     </row>
     <row r="13" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>11</v>
@@ -7867,19 +7881,19 @@
     </row>
     <row r="14" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>13</v>
@@ -7891,19 +7905,19 @@
     </row>
     <row r="15" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>12</v>
@@ -7915,22 +7929,22 @@
     </row>
     <row r="16" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
@@ -7939,2490 +7953,2490 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E17" s="58"/>
       <c r="G17" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
       <c r="M17" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
       <c r="M18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" t="s">
         <v>107</v>
       </c>
-      <c r="N18" t="s">
-        <v>108</v>
-      </c>
       <c r="O18" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P18" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q18" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P18" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q18" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" s="58" t="str">
         <f>+P18</f>
         <v xml:space="preserve">fTExtra2V  </v>
       </c>
       <c r="F19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O19" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P19" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q19" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P19" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q19" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" s="58" t="str">
         <f t="shared" ref="E20:E60" si="0">+P19</f>
         <v xml:space="preserve">fTExtra3V  </v>
       </c>
       <c r="F20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O20" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P20" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q20" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P20" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q20" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E21" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoLV  </v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O21" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P21" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q21" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P21" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q21" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoLV  </v>
       </c>
       <c r="F22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O22" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P22" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q22" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P22" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q22" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_dobles_V  </v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O23" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P23" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q23" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P23" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q23" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fHoras_extras_triples_V  </v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O24" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P24" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q24" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P24" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q24" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E25" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescanso_Laborado_V  </v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O25" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q25" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P25" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDia_Festivo_laborado_V  </v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O26" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q26" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P26" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q26" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrima_Dominical_V  </v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O27" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q27" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P27" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q27" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFalta_Injustificada_V </v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O28" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q28" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P28" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q28" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E29" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermiso_Sin_GS_V  </v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O29" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P29" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q29" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P29" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q29" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fT_No_laborado_V  </v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O30" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P30" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q30" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P30" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q30" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBase  </v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O31" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P31" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q31" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P31" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q31" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioDiario </v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O32" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P32" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q32" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P32" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q32" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E33" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSalarioBC  </v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P33" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q33" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P33" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q33" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E34" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">iDiasTrabajados  </v>
       </c>
       <c r="F34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P34" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q34" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P34" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q34" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E35" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSueldoBruto </v>
       </c>
       <c r="F35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P35" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q35" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P35" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q35" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E36" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSeptimoDia </v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P36" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q36" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P36" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q36" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E37" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomGravada </v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P37" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q37" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P37" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q37" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E38" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaDomExenta </v>
       </c>
       <c r="F38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O38" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P38" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q38" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P38" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q38" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E39" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Gravado </v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O39" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P39" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q39" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P39" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q39" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E40" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra2Exento </v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O40" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P40" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q40" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P40" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q40" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E41" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTExtra3 </v>
       </c>
       <c r="F41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O41" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P41" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q41" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P41" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q41" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E42" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDescansoL </v>
       </c>
       <c r="F42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O42" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P42" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q42" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P42" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q42" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E43" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fDiaFestivoL </v>
       </c>
       <c r="F43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O43" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P43" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q43" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P43" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q43" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E44" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoAsistencia </v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O44" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P44" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q44" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P44" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q44" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E45" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoProductividad </v>
       </c>
       <c r="F45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O45" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P45" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q45" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P45" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q45" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoPolivalencia </v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O46" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P46" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q46" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P46" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q46" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E47" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoEspecialidad </v>
       </c>
       <c r="F47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O47" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P47" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q47" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P47" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q47" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E48" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fBonoCalidad </v>
       </c>
       <c r="F48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O48" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P48" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q48" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P48" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q48" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E49" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fCompensacion </v>
       </c>
       <c r="F49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O49" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P49" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q49" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P49" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q49" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E50" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fSemanaFondo </v>
       </c>
       <c r="F50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O50" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P50" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q50" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P50" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q50" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E51" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fFaltaInjustificada </v>
       </c>
       <c r="F51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O51" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P51" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q51" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P51" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q51" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E52" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPermisoSinGS </v>
       </c>
       <c r="F52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O52" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P52" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q52" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P52" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q52" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fIncrementoRetenido </v>
       </c>
       <c r="F53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O53" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P53" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q53" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P53" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q53" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E54" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fVacacionesProporcionales </v>
       </c>
       <c r="F54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O54" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P54" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q54" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P54" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q54" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E55" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoGravado </v>
       </c>
       <c r="F55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O55" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P55" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q55" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P55" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q55" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E56" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fAguinaldoExento </v>
       </c>
       <c r="F56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O56" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P56" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q56" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P56" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q56" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E57" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalGravado </v>
       </c>
       <c r="F57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O57" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P57" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q57" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P57" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q57" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E58" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fPrimaVacacionalExento </v>
       </c>
       <c r="F58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O58" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P58" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q58" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P58" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q58" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E59" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepciones </v>
       </c>
       <c r="F59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O59" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P59" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q59" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P59" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q59" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E60" s="58" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">fTotalPercepcionesISR </v>
       </c>
       <c r="F60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O60" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P60" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q60" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P60" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q60" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E61" s="58"/>
       <c r="M61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O61" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P61" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q61" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P61" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q61" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E62" s="58" t="str">
         <f t="shared" ref="E62:E74" si="1">+P60</f>
         <v xml:space="preserve">fIncapacidad </v>
       </c>
       <c r="F62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O62" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P62" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q62" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P62" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q62" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E63" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fIsr </v>
       </c>
       <c r="F63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O63" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P63" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q63" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P63" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q63" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E64" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fImss </v>
       </c>
       <c r="F64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O64" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P64" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q64" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P64" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q64" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E65" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavit </v>
       </c>
       <c r="F65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O65" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P65" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q65" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P65" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q65" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E66" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fInfonavitBanterior </v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O66" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P66" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q66" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P66" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q66" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E67" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fAjusteInfonavit </v>
       </c>
       <c r="F67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O67" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P67" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q67" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P67" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q67" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E68" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPensionAlimenticia </v>
       </c>
       <c r="F68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O68" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P68" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q68" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P68" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q68" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E69" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fPrestamo </v>
       </c>
       <c r="F69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O69" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P69" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q69" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P69" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q69" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E70" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fFonacot </v>
       </c>
       <c r="F70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O70" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P70" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q70" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P70" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q70" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E71" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fT_No_laborado </v>
       </c>
       <c r="F71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O71" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P71" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q71" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P71" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q71" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E72" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fCuotaSindical </v>
       </c>
       <c r="F72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O72" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P72" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q72" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P72" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q72" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E73" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioGenerado </v>
       </c>
       <c r="F73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O73" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P73" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q73" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P73" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q73" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E74" s="58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fSubsidioAplicado </v>
       </c>
       <c r="F74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O74" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P74" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q74" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P74" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q74" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C75" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E75" s="58"/>
       <c r="M75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O75" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P75" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q75" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P75" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q75" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D76" s="59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E76" s="58"/>
       <c r="M76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O76" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P76" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q76" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P76" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q76" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E77" s="58" t="str">
         <f t="shared" ref="E77:E85" si="2">+P74</f>
         <v xml:space="preserve">fPrestamoPerA </v>
       </c>
       <c r="F77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O77" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P77" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q77" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P77" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q77" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E78" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAdeudoInfonavitA </v>
       </c>
       <c r="F78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O78" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P78" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q78" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P78" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q78" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E79" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fDiferenciaInfonavitA </v>
       </c>
       <c r="F79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O79" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P79" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q79" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P79" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q79" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E80" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fAsimilados </v>
       </c>
       <c r="F80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O80" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P80" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q80" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P80" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q80" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C81" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E81" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fRetencionOperadora </v>
       </c>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O81" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P81" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q81" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P81" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q81" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E82" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fPorComision </v>
       </c>
       <c r="F82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O82" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P82" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q82" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P82" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q82" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E83" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionOperadora </v>
       </c>
       <c r="F83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O83" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P83" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q83" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P83" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q83" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E84" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fComisionAsimilados </v>
       </c>
       <c r="F84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O84" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P84" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q84" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P84" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q84" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C85" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E85" s="58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">fImssCS </v>
       </c>
       <c r="F85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O85" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P85" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q85" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P85" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q85" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E86" s="58" t="str">
         <f t="shared" ref="E86:E88" si="3">+P83</f>
         <v xml:space="preserve">fRcvCS </v>
       </c>
       <c r="F86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M86" t="s">
+        <v>175</v>
+      </c>
+      <c r="N86" t="s">
+        <v>107</v>
+      </c>
+      <c r="O86" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P86" t="s">
         <v>176</v>
       </c>
-      <c r="N86" t="s">
-        <v>108</v>
-      </c>
-      <c r="O86" s="59" t="s">
+      <c r="Q86" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="P86" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q86" s="59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E87" s="58" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInfonavitCS </v>
       </c>
       <c r="F87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M87" t="s">
+        <v>177</v>
+      </c>
+      <c r="N87" t="s">
         <v>178</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P87" t="s">
         <v>179</v>
-      </c>
-      <c r="O87" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="P87" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E88" s="58" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">fInsCS </v>
       </c>
       <c r="F88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M88" t="s">
+        <v>183</v>
+      </c>
+      <c r="N88" t="s">
         <v>184</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="P88" t="s">
         <v>185</v>
       </c>
-      <c r="O88" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="P88" t="s">
-        <v>186</v>
-      </c>
       <c r="R88" t="s">
+        <v>180</v>
+      </c>
+      <c r="S88" t="s">
         <v>181</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>182</v>
-      </c>
-      <c r="T88" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M89" t="s">
+        <v>192</v>
+      </c>
+      <c r="N89" t="s">
         <v>193</v>
       </c>
-      <c r="N89" t="s">
-        <v>194</v>
-      </c>
       <c r="O89" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R89" t="s">
+        <v>186</v>
+      </c>
+      <c r="S89" t="s">
         <v>187</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>188</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>189</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>190</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
+        <v>189</v>
+      </c>
+      <c r="X89" t="s">
         <v>191</v>
-      </c>
-      <c r="W89" t="s">
-        <v>190</v>
-      </c>
-      <c r="X89" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E90" s="58" t="str">
         <f>+P86</f>
         <v xml:space="preserve">fTotalCostoSocial </v>
       </c>
       <c r="F90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O90" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -10431,7 +10445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -10452,7 +10466,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>28</v>
@@ -10481,13 +10495,13 @@
       <c r="G2" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -10516,82 +10530,82 @@
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
       <c r="G2" s="73" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="67" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
       <c r="E8" s="104"/>
       <c r="F8" s="105"/>
       <c r="G8" s="104" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H8" s="104"/>
       <c r="I8" s="104"/>
       <c r="J8" s="104" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K8" s="104"/>
       <c r="L8" s="104"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="D9" s="75" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="E9" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="F9" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="F9" s="76" t="s">
-        <v>452</v>
-      </c>
       <c r="G9" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="H9" s="75" t="s">
-        <v>449</v>
-      </c>
       <c r="I9" s="76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J9" s="77" t="s">
+        <v>447</v>
+      </c>
+      <c r="K9" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="K9" s="75" t="s">
-        <v>449</v>
-      </c>
       <c r="L9" s="75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C10" s="79">
         <f>+D10+E10</f>
@@ -10606,14 +10620,14 @@
       <c r="H10" s="81"/>
       <c r="I10" s="82"/>
       <c r="J10" s="83" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K10" s="81"/>
       <c r="L10" s="84"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C11" s="85">
         <f t="shared" ref="C11:C26" si="0">+D11+E11</f>
@@ -10628,14 +10642,14 @@
       <c r="H11" s="68"/>
       <c r="I11" s="88"/>
       <c r="J11" s="83" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K11" s="68"/>
       <c r="L11" s="89"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="83" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C12" s="85">
         <f t="shared" si="0"/>
@@ -10645,19 +10659,19 @@
       <c r="E12" s="85"/>
       <c r="F12" s="86"/>
       <c r="G12" s="87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H12" s="68"/>
       <c r="I12" s="88"/>
       <c r="J12" s="83" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K12" s="68"/>
       <c r="L12" s="89"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="87" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C13" s="85">
         <f t="shared" si="0"/>
@@ -10667,12 +10681,12 @@
       <c r="E13" s="85"/>
       <c r="F13" s="86"/>
       <c r="G13" s="87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="88"/>
       <c r="J13" s="83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K13" s="68"/>
       <c r="L13" s="89"/>
@@ -10694,14 +10708,14 @@
       <c r="H14" s="68"/>
       <c r="I14" s="88"/>
       <c r="J14" s="83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K14" s="68"/>
       <c r="L14" s="89"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C15" s="85">
         <f t="shared" si="0"/>
@@ -10711,7 +10725,7 @@
       <c r="E15" s="85"/>
       <c r="F15" s="86"/>
       <c r="G15" s="87" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="88"/>
@@ -10721,7 +10735,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="87" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C16" s="85">
         <f t="shared" si="0"/>
@@ -10741,7 +10755,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="87" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C17" s="85">
         <f t="shared" si="0"/>
@@ -10761,7 +10775,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="87" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C18" s="85">
         <f t="shared" si="0"/>
@@ -10771,7 +10785,7 @@
       <c r="E18" s="85"/>
       <c r="F18" s="86"/>
       <c r="G18" s="87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="88"/>
@@ -10781,7 +10795,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="87" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C19" s="85">
         <f t="shared" si="0"/>
@@ -10801,7 +10815,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="87" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C20" s="85">
         <f t="shared" si="0"/>
@@ -10811,7 +10825,7 @@
       <c r="E20" s="85"/>
       <c r="F20" s="86"/>
       <c r="G20" s="87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="88"/>
@@ -10821,7 +10835,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="87" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C21" s="85">
         <f t="shared" si="0"/>
@@ -10839,7 +10853,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="87" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="0"/>
@@ -10857,7 +10871,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="87" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -10875,7 +10889,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="87" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C24" s="85">
         <f t="shared" si="0"/>
@@ -10893,7 +10907,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="87" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C25" s="85">
         <f t="shared" si="0"/>
@@ -10911,7 +10925,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="90" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C26" s="91">
         <f t="shared" si="0"/>
@@ -10935,7 +10949,7 @@
     </row>
     <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="94" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C29" s="71">
         <f>+SUM(C10:C26)</f>
@@ -10951,7 +10965,7 @@
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="94" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H29" s="71">
         <f>+SUM(H10:H20)</f>
@@ -10959,7 +10973,7 @@
       </c>
       <c r="I29" s="71"/>
       <c r="J29" s="94" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K29" s="71">
         <f>+SUM(K10:K26)</f>
@@ -10969,7 +10983,7 @@
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C36" s="71">
         <f>+C29-H29</f>
@@ -10980,7 +10994,7 @@
     </row>
     <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C37" s="71">
         <f>+C36</f>
@@ -10991,7 +11005,7 @@
     </row>
     <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C38" s="71">
         <f>+D29</f>
@@ -11002,7 +11016,7 @@
     </row>
     <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C39" s="71">
         <f>+H20</f>
@@ -11013,7 +11027,7 @@
     </row>
     <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C40" s="71">
         <f>[4]FACT!H4</f>
@@ -11024,7 +11038,7 @@
     </row>
     <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C41" s="71">
         <f>+[4]FACT!H5</f>
@@ -11045,7 +11059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11059,968 +11073,968 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E49" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E51" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E52" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E53" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C54" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E54" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E55" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E56" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E60" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E61" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E62" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E63" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E66" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E67" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C68" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E68" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E69" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E70" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
